--- a/lib/report/benchmark_report/web14/exl/202012/jsliu__bank_test_&_city_(HF)(202012)_Two_Cycles_Comparison.xlsx
+++ b/lib/report/benchmark_report/web14/exl/202012/jsliu__bank_test_&_city_(HF)(202012)_Two_Cycles_Comparison.xlsx
@@ -365,7 +365,7 @@
     <t xml:space="preserve">Bank Name: jsliu  bank test &amp; city (HF)</t>
   </si>
   <si>
-    <t>Printed on: 03/14/21 5:10:46AM</t>
+    <t>Printed on: 04/08/21 5:23:30AM</t>
   </si>
   <si>
     <t xml:space="preserve">Cycle: December, 2020    Evaluation Date: December 31, 2020</t>
@@ -672,7 +672,7 @@
     <t xml:space="preserve">jsliu  bank test &amp; city (HF)-202009</t>
   </si>
   <si>
-    <t>Printed on: 03/14/21 5:10:42AM</t>
+    <t>Printed on: 04/08/21 5:23:26AM</t>
   </si>
   <si>
     <t xml:space="preserve">Earning/
@@ -3064,7 +3064,7 @@
       <c r="F8" s="75"/>
       <c r="G8" s="75"/>
       <c r="H8" s="75">
-        <v>-12.062178347699843</v>
+        <v>-11.151357769977755</v>
       </c>
       <c r="I8" s="75"/>
       <c r="J8" s="75"/>
@@ -3076,7 +3076,7 @@
       <c r="N8" s="75"/>
       <c r="O8" s="75"/>
       <c r="P8" s="75">
-        <v>-8.5622347093576572</v>
+        <v>-8.07779943980097</v>
       </c>
       <c r="Q8" s="75"/>
       <c r="R8" s="75"/>
@@ -3088,7 +3088,7 @@
       <c r="V8" s="75"/>
       <c r="W8" s="75"/>
       <c r="X8" s="75">
-        <v>-28.758037963899419</v>
+        <v>-28.758037980893782</v>
       </c>
       <c r="Y8" s="75"/>
       <c r="Z8" s="75"/>
@@ -3112,7 +3112,7 @@
       <c r="AL8" s="75"/>
       <c r="AM8" s="75"/>
       <c r="AN8" s="75">
-        <v>2.5414636264038215</v>
+        <v>2.702756817453694</v>
       </c>
       <c r="AO8" s="75"/>
       <c r="AP8" s="75"/>
@@ -3130,7 +3130,7 @@
       <c r="F9" s="75"/>
       <c r="G9" s="75"/>
       <c r="H9" s="75">
-        <v>-8.5557636459760111</v>
+        <v>-7.8741562388014437</v>
       </c>
       <c r="I9" s="75"/>
       <c r="J9" s="75"/>
@@ -3142,7 +3142,7 @@
       <c r="N9" s="75"/>
       <c r="O9" s="75"/>
       <c r="P9" s="75">
-        <v>-5.3638136774842717</v>
+        <v>-5.0035535294552584</v>
       </c>
       <c r="Q9" s="75"/>
       <c r="R9" s="75"/>
@@ -3154,7 +3154,7 @@
       <c r="V9" s="75"/>
       <c r="W9" s="75"/>
       <c r="X9" s="75">
-        <v>-17.7075207340705</v>
+        <v>-17.707520742606835</v>
       </c>
       <c r="Y9" s="75"/>
       <c r="Z9" s="75"/>
@@ -3178,7 +3178,7 @@
       <c r="AL9" s="75"/>
       <c r="AM9" s="75"/>
       <c r="AN9" s="75">
-        <v>3.15535276473857</v>
+        <v>3.27634540388275</v>
       </c>
       <c r="AO9" s="75"/>
       <c r="AP9" s="75"/>
@@ -3196,7 +3196,7 @@
       <c r="F10" s="75"/>
       <c r="G10" s="75"/>
       <c r="H10" s="75">
-        <v>-5.6513701807688195</v>
+        <v>-5.1979549675134</v>
       </c>
       <c r="I10" s="75"/>
       <c r="J10" s="75"/>
@@ -3208,7 +3208,7 @@
       <c r="N10" s="75"/>
       <c r="O10" s="75"/>
       <c r="P10" s="75">
-        <v>-3.5880153888953976</v>
+        <v>-3.3498508425786793</v>
       </c>
       <c r="Q10" s="75"/>
       <c r="R10" s="75"/>
@@ -3220,7 +3220,7 @@
       <c r="V10" s="75"/>
       <c r="W10" s="75"/>
       <c r="X10" s="75">
-        <v>-11.832982870804864</v>
+        <v>-11.832982876428627</v>
       </c>
       <c r="Y10" s="75"/>
       <c r="Z10" s="75"/>
@@ -3244,7 +3244,7 @@
       <c r="AL10" s="75"/>
       <c r="AM10" s="75"/>
       <c r="AN10" s="75">
-        <v>3.6607068709764445</v>
+        <v>3.7415718388256494</v>
       </c>
       <c r="AO10" s="75"/>
       <c r="AP10" s="75"/>
@@ -3262,7 +3262,7 @@
       <c r="F11" s="75"/>
       <c r="G11" s="75"/>
       <c r="H11" s="75">
-        <v>-2.8798182608081</v>
+        <v>-2.65360139839266</v>
       </c>
       <c r="I11" s="75"/>
       <c r="J11" s="75"/>
@@ -3274,7 +3274,7 @@
       <c r="N11" s="75"/>
       <c r="O11" s="75"/>
       <c r="P11" s="75">
-        <v>-1.6512400942790737</v>
+        <v>-1.5331644923721928</v>
       </c>
       <c r="Q11" s="75"/>
       <c r="R11" s="75"/>
@@ -3286,7 +3286,7 @@
       <c r="V11" s="75"/>
       <c r="W11" s="75"/>
       <c r="X11" s="75">
-        <v>-5.3452816457661152</v>
+        <v>-5.3452816479276839</v>
       </c>
       <c r="Y11" s="75"/>
       <c r="Z11" s="75"/>
@@ -3310,7 +3310,7 @@
       <c r="AL11" s="75"/>
       <c r="AM11" s="75"/>
       <c r="AN11" s="75">
-        <v>4.1462032750391051</v>
+        <v>4.1871139805576707</v>
       </c>
       <c r="AO11" s="75"/>
       <c r="AP11" s="75"/>
@@ -3376,7 +3376,7 @@
       <c r="AL12" s="75"/>
       <c r="AM12" s="75"/>
       <c r="AN12" s="75">
-        <v>4.653070320122306</v>
+        <v>4.6542007234459328</v>
       </c>
       <c r="AO12" s="75"/>
       <c r="AP12" s="75"/>
@@ -3394,7 +3394,7 @@
       <c r="F13" s="75"/>
       <c r="G13" s="75"/>
       <c r="H13" s="75">
-        <v>-0.90699193192471594</v>
+        <v>-0.93140293762519777</v>
       </c>
       <c r="I13" s="75"/>
       <c r="J13" s="75"/>
@@ -3406,7 +3406,7 @@
       <c r="N13" s="75"/>
       <c r="O13" s="75"/>
       <c r="P13" s="75">
-        <v>-3.2627495049909108</v>
+        <v>-3.276423190197193</v>
       </c>
       <c r="Q13" s="75"/>
       <c r="R13" s="75"/>
@@ -3418,7 +3418,7 @@
       <c r="V13" s="75"/>
       <c r="W13" s="75"/>
       <c r="X13" s="75">
-        <v>-0.59613669196661545</v>
+        <v>-0.59613659058191915</v>
       </c>
       <c r="Y13" s="75"/>
       <c r="Z13" s="75"/>
@@ -3442,7 +3442,7 @@
       <c r="AL13" s="75"/>
       <c r="AM13" s="75"/>
       <c r="AN13" s="75">
-        <v>4.4936224651365615</v>
+        <v>4.4904464201970509</v>
       </c>
       <c r="AO13" s="75"/>
       <c r="AP13" s="75"/>
@@ -3460,7 +3460,7 @@
       <c r="F14" s="75"/>
       <c r="G14" s="75"/>
       <c r="H14" s="75">
-        <v>-0.90762354707963488</v>
+        <v>-0.9320345122118997</v>
       </c>
       <c r="I14" s="75"/>
       <c r="J14" s="75"/>
@@ -3472,7 +3472,7 @@
       <c r="N14" s="75"/>
       <c r="O14" s="75"/>
       <c r="P14" s="75">
-        <v>-3.3091943265933748</v>
+        <v>-3.3228659373591007</v>
       </c>
       <c r="Q14" s="75"/>
       <c r="R14" s="75"/>
@@ -3484,7 +3484,7 @@
       <c r="V14" s="75"/>
       <c r="W14" s="75"/>
       <c r="X14" s="75">
-        <v>-0.7551980732352529</v>
+        <v>-0.755197972018036</v>
       </c>
       <c r="Y14" s="75"/>
       <c r="Z14" s="75"/>
@@ -3508,7 +3508,7 @@
       <c r="AL14" s="75"/>
       <c r="AM14" s="75"/>
       <c r="AN14" s="75">
-        <v>4.49351129007414</v>
+        <v>4.4903352451345109</v>
       </c>
       <c r="AO14" s="75"/>
       <c r="AP14" s="75"/>
@@ -3572,7 +3572,7 @@
       <c r="F16" s="75"/>
       <c r="G16" s="75"/>
       <c r="H16" s="75">
-        <v>-0.90762354707963488</v>
+        <v>-0.9320345122118997</v>
       </c>
       <c r="I16" s="75"/>
       <c r="J16" s="75"/>
@@ -3584,7 +3584,7 @@
       <c r="N16" s="75"/>
       <c r="O16" s="75"/>
       <c r="P16" s="75">
-        <v>-3.3091943265933748</v>
+        <v>-3.3228659373591007</v>
       </c>
       <c r="Q16" s="75"/>
       <c r="R16" s="75"/>
@@ -3596,7 +3596,7 @@
       <c r="V16" s="75"/>
       <c r="W16" s="75"/>
       <c r="X16" s="75">
-        <v>-0.76974745951204182</v>
+        <v>-0.76974735831014418</v>
       </c>
       <c r="Y16" s="75"/>
       <c r="Z16" s="75"/>
@@ -3620,7 +3620,7 @@
       <c r="AL16" s="75"/>
       <c r="AM16" s="75"/>
       <c r="AN16" s="75">
-        <v>4.49351129007414</v>
+        <v>4.4903352451345109</v>
       </c>
       <c r="AO16" s="75"/>
       <c r="AP16" s="75"/>
@@ -3638,7 +3638,7 @@
       <c r="F17" s="75"/>
       <c r="G17" s="75"/>
       <c r="H17" s="75">
-        <v>-12.091304903613134</v>
+        <v>-11.409482242498157</v>
       </c>
       <c r="I17" s="75"/>
       <c r="J17" s="75"/>
@@ -3650,7 +3650,7 @@
       <c r="N17" s="75"/>
       <c r="O17" s="75"/>
       <c r="P17" s="75">
-        <v>-11.929004083256565</v>
+        <v>-11.578641776902618</v>
       </c>
       <c r="Q17" s="75"/>
       <c r="R17" s="75"/>
@@ -3662,7 +3662,7 @@
       <c r="V17" s="75"/>
       <c r="W17" s="75"/>
       <c r="X17" s="75">
-        <v>-12.576196783080858</v>
+        <v>-12.576195048527024</v>
       </c>
       <c r="Y17" s="75"/>
       <c r="Z17" s="75"/>
@@ -3686,7 +3686,7 @@
       <c r="AL17" s="75"/>
       <c r="AM17" s="75"/>
       <c r="AN17" s="75">
-        <v>2.5271698694483944</v>
+        <v>2.6481604256739115</v>
       </c>
       <c r="AO17" s="75"/>
       <c r="AP17" s="75"/>
@@ -3902,13 +3902,13 @@
       <c r="F23" s="74"/>
       <c r="G23" s="74"/>
       <c r="H23" s="74">
-        <v>5077.5201258706766</v>
+        <v>5077.8462723780094</v>
       </c>
       <c r="I23" s="74"/>
       <c r="J23" s="74"/>
       <c r="K23" s="74"/>
       <c r="L23" s="68">
-        <v>-50.284444336269985</v>
+        <v>-49.958297828936949</v>
       </c>
       <c r="M23" s="68"/>
       <c r="N23" s="68"/>
@@ -3942,7 +3942,7 @@
       <c r="AL23" s="74"/>
       <c r="AM23" s="74"/>
       <c r="AN23" s="74">
-        <v>-121.00572044698039</v>
+        <v>-120.67957393964736</v>
       </c>
       <c r="AO23" s="74"/>
       <c r="AP23" s="74"/>
@@ -3960,13 +3960,13 @@
       <c r="F24" s="74"/>
       <c r="G24" s="74"/>
       <c r="H24" s="74">
-        <v>9797.7816620032136</v>
+        <v>9798.21929578915</v>
       </c>
       <c r="I24" s="74"/>
       <c r="J24" s="74"/>
       <c r="K24" s="74"/>
       <c r="L24" s="68">
-        <v>-142.16641295244546</v>
+        <v>-141.72877916651032</v>
       </c>
       <c r="M24" s="68"/>
       <c r="N24" s="68"/>
@@ -4000,7 +4000,7 @@
       <c r="AL24" s="74"/>
       <c r="AM24" s="74"/>
       <c r="AN24" s="74">
-        <v>-283.6089651738663</v>
+        <v>-283.17133138793116</v>
       </c>
       <c r="AO24" s="74"/>
       <c r="AP24" s="74"/>
@@ -4018,13 +4018,13 @@
       <c r="F25" s="74"/>
       <c r="G25" s="74"/>
       <c r="H25" s="74">
-        <v>1061.5922266035368</v>
+        <v>1061.8501256027746</v>
       </c>
       <c r="I25" s="74"/>
       <c r="J25" s="74"/>
       <c r="K25" s="74"/>
       <c r="L25" s="68">
-        <v>-73.714641444739186</v>
+        <v>-73.4567424455015</v>
       </c>
       <c r="M25" s="68"/>
       <c r="N25" s="68"/>
@@ -4058,13 +4058,13 @@
       <c r="AH25" s="74"/>
       <c r="AI25" s="74"/>
       <c r="AJ25" s="74">
-        <v>3.5698028915318427</v>
+        <v>3.5015553834365565</v>
       </c>
       <c r="AK25" s="74"/>
       <c r="AL25" s="74"/>
       <c r="AM25" s="74"/>
       <c r="AN25" s="74">
-        <v>-121.00572044697914</v>
+        <v>-120.67957393964616</v>
       </c>
       <c r="AO25" s="74"/>
       <c r="AP25" s="74"/>
@@ -4082,13 +4082,13 @@
       <c r="F26" s="74"/>
       <c r="G26" s="74"/>
       <c r="H26" s="74">
-        <v>1840.6837037249113</v>
+        <v>1841.0297608277404</v>
       </c>
       <c r="I26" s="74"/>
       <c r="J26" s="74"/>
       <c r="K26" s="74"/>
       <c r="L26" s="68">
-        <v>-177.52052256288496</v>
+        <v>-177.17446546005573</v>
       </c>
       <c r="M26" s="68"/>
       <c r="N26" s="68"/>
@@ -4122,13 +4122,13 @@
       <c r="AH26" s="74"/>
       <c r="AI26" s="74"/>
       <c r="AJ26" s="74">
-        <v>18.645890389566716</v>
+        <v>18.554313706460118</v>
       </c>
       <c r="AK26" s="74"/>
       <c r="AL26" s="74"/>
       <c r="AM26" s="74"/>
       <c r="AN26" s="74">
-        <v>-283.60896517386806</v>
+        <v>-283.17133138793224</v>
       </c>
       <c r="AO26" s="74"/>
       <c r="AP26" s="74"/>
@@ -4204,7 +4204,7 @@
       <c r="F29" s="73"/>
       <c r="G29" s="73"/>
       <c r="H29" s="73">
-        <v>16.598922082478605</v>
+        <v>16.598922067902368</v>
       </c>
       <c r="I29" s="73"/>
       <c r="J29" s="73"/>
@@ -4254,7 +4254,7 @@
       <c r="F30" s="73"/>
       <c r="G30" s="73"/>
       <c r="H30" s="73">
-        <v>12.576196783080867</v>
+        <v>12.576195048527019</v>
       </c>
       <c r="I30" s="73"/>
       <c r="J30" s="73"/>
@@ -4306,7 +4306,7 @@
       <c r="F31" s="73"/>
       <c r="G31" s="73"/>
       <c r="H31" s="73">
-        <v>17.3620556818462</v>
+        <v>17.3620394271427</v>
       </c>
       <c r="I31" s="73"/>
       <c r="J31" s="73"/>
@@ -4736,7 +4736,7 @@
       </c>
       <c r="Y38" s="129"/>
       <c r="Z38" s="130">
-        <v>137447.937573406</v>
+        <v>137447.937549383</v>
       </c>
       <c r="AA38" s="130"/>
       <c r="AB38" s="130"/>
@@ -4746,21 +4746,21 @@
       <c r="AD38" s="130"/>
       <c r="AE38" s="130"/>
       <c r="AF38" s="129">
-        <v>108.30859356159459</v>
+        <v>108.30859354266454</v>
       </c>
       <c r="AG38" s="129"/>
       <c r="AH38" s="129">
-        <v>-8.7527412235341568</v>
+        <v>-8.75274122285875</v>
       </c>
       <c r="AI38" s="129"/>
       <c r="AJ38" s="129">
-        <v>1.83965391735106</v>
+        <v>1.83965370511795</v>
       </c>
       <c r="AK38" s="129"/>
       <c r="AL38" s="129"/>
       <c r="AM38" s="129"/>
       <c r="AN38" s="129">
-        <v>0.047750733656809929</v>
+        <v>0.047750521423699954</v>
       </c>
       <c r="AO38" s="129"/>
       <c r="AP38" s="130">
@@ -4768,11 +4768,11 @@
       </c>
       <c r="AQ38" s="130"/>
       <c r="AR38" s="130">
-        <v>-375.39793352821118</v>
+        <v>-375.39795755120463</v>
       </c>
       <c r="AS38" s="130"/>
       <c r="AT38" s="130">
-        <v>1403.542238258</v>
+        <v>1403.5422142349999</v>
       </c>
       <c r="AU38" s="130"/>
       <c r="AV38" s="131">
@@ -4782,7 +4782,7 @@
         <v>-0.0046017777434840213</v>
       </c>
       <c r="AX38" s="131">
-        <v>-0.0027237617791460579</v>
+        <v>-0.0027237619534488593</v>
       </c>
       <c r="AY38" s="131">
         <v>0</v>
@@ -4791,7 +4791,7 @@
         <v>-0.0083976006855201613</v>
       </c>
       <c r="BA38" s="131">
-        <v>0.026648054477120438</v>
+        <v>0.026647936037066364</v>
       </c>
     </row>
     <row r="39">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="Y39" s="129"/>
       <c r="Z39" s="130">
-        <v>137447.937573406</v>
+        <v>137447.937549383</v>
       </c>
       <c r="AA39" s="130"/>
       <c r="AB39" s="130"/>
@@ -4850,21 +4850,21 @@
       <c r="AD39" s="130"/>
       <c r="AE39" s="130"/>
       <c r="AF39" s="129">
-        <v>108.30859356159459</v>
+        <v>108.30859354266454</v>
       </c>
       <c r="AG39" s="129"/>
       <c r="AH39" s="129">
-        <v>-8.7527412235341568</v>
+        <v>-8.75274122285875</v>
       </c>
       <c r="AI39" s="129"/>
       <c r="AJ39" s="129">
-        <v>1.83965391735106</v>
+        <v>1.83965370511795</v>
       </c>
       <c r="AK39" s="129"/>
       <c r="AL39" s="129"/>
       <c r="AM39" s="129"/>
       <c r="AN39" s="129">
-        <v>0.047750733656809929</v>
+        <v>0.047750521423699954</v>
       </c>
       <c r="AO39" s="129"/>
       <c r="AP39" s="130">
@@ -4872,11 +4872,11 @@
       </c>
       <c r="AQ39" s="130"/>
       <c r="AR39" s="130">
-        <v>-375.39793352821118</v>
+        <v>-375.39795755120463</v>
       </c>
       <c r="AS39" s="130"/>
       <c r="AT39" s="130">
-        <v>1403.542238258</v>
+        <v>1403.5422142349999</v>
       </c>
       <c r="AU39" s="130"/>
       <c r="AV39" s="131">
@@ -4886,7 +4886,7 @@
         <v>-0.0046017777434840213</v>
       </c>
       <c r="AX39" s="131">
-        <v>-0.0027237617791460579</v>
+        <v>-0.0027237619534488593</v>
       </c>
       <c r="AY39" s="131">
         <v>0</v>
@@ -4895,7 +4895,7 @@
         <v>-0.0083976006855201613</v>
       </c>
       <c r="BA39" s="131">
-        <v>0.026648054477120438</v>
+        <v>0.026647936037066364</v>
       </c>
     </row>
     <row r="40">
@@ -5048,7 +5048,7 @@
       </c>
       <c r="Y41" s="129"/>
       <c r="Z41" s="130">
-        <v>22814.8760617835</v>
+        <v>22814.8760377612</v>
       </c>
       <c r="AA41" s="130"/>
       <c r="AB41" s="130"/>
@@ -5058,21 +5058,21 @@
       <c r="AD41" s="130"/>
       <c r="AE41" s="130"/>
       <c r="AF41" s="129">
-        <v>167.19094285346256</v>
+        <v>167.19094267742344</v>
       </c>
       <c r="AG41" s="129"/>
       <c r="AH41" s="129">
-        <v>-28.758037963899419</v>
+        <v>-28.758037980893782</v>
       </c>
       <c r="AI41" s="129"/>
       <c r="AJ41" s="129">
-        <v>4.40731057059092</v>
+        <v>4.40730929469913</v>
       </c>
       <c r="AK41" s="129"/>
       <c r="AL41" s="129"/>
       <c r="AM41" s="129"/>
       <c r="AN41" s="129">
-        <v>0.61186717416683</v>
+        <v>0.61186589827503957</v>
       </c>
       <c r="AO41" s="129"/>
       <c r="AP41" s="130">
@@ -5080,11 +5080,11 @@
       </c>
       <c r="AQ41" s="130"/>
       <c r="AR41" s="130">
-        <v>-452.82712355833627</v>
+        <v>-452.82714758063497</v>
       </c>
       <c r="AS41" s="130"/>
       <c r="AT41" s="130">
-        <v>58.700866739200137</v>
+        <v>58.700842716902116</v>
       </c>
       <c r="AU41" s="130"/>
       <c r="AV41" s="131">
@@ -5094,7 +5094,7 @@
         <v>-0.0084219354997127332</v>
       </c>
       <c r="AX41" s="131">
-        <v>-0.019461616815002514</v>
+        <v>-0.019461617847433541</v>
       </c>
       <c r="AY41" s="131">
         <v>0</v>
@@ -5103,7 +5103,7 @@
         <v>0.0045136538027581207</v>
       </c>
       <c r="BA41" s="131">
-        <v>0.16121098650642662</v>
+        <v>0.16121065034233267</v>
       </c>
     </row>
     <row r="42"/>
@@ -6967,7 +6967,7 @@
       </c>
       <c r="Y61" s="125"/>
       <c r="Z61" s="126">
-        <v>2094.08715801455</v>
+        <v>2094.08714037754</v>
       </c>
       <c r="AA61" s="126"/>
       <c r="AB61" s="126"/>
@@ -6977,15 +6977,15 @@
       <c r="AD61" s="126"/>
       <c r="AE61" s="126"/>
       <c r="AF61" s="125">
-        <v>107.99830624108046</v>
+        <v>107.99830533148736</v>
       </c>
       <c r="AG61" s="125"/>
       <c r="AH61" s="125">
-        <v>-3.3365310789024205</v>
+        <v>-3.3365310007301456</v>
       </c>
       <c r="AI61" s="125"/>
       <c r="AJ61" s="125">
-        <v>0.834704545111794</v>
+        <v>0.834694309230014</v>
       </c>
       <c r="AK61" s="125"/>
       <c r="AL61" s="125">
@@ -6993,7 +6993,7 @@
       </c>
       <c r="AM61" s="125"/>
       <c r="AN61" s="125">
-        <v>0.011130656356096003</v>
+        <v>0.01112042047431594</v>
       </c>
       <c r="AO61" s="125"/>
       <c r="AP61" s="126">
@@ -7001,11 +7001,11 @@
       </c>
       <c r="AQ61" s="126"/>
       <c r="AR61" s="126">
-        <v>3.7018117320852064</v>
+        <v>3.7017940950750412</v>
       </c>
       <c r="AS61" s="126"/>
       <c r="AT61" s="126">
-        <v>-252.87978311847019</v>
+        <v>-252.87980075548012</v>
       </c>
       <c r="AU61" s="126"/>
       <c r="AV61" s="127">
@@ -7015,7 +7015,7 @@
         <v>0.077574588795662869</v>
       </c>
       <c r="AX61" s="127">
-        <v>0.0017708752784114648</v>
+        <v>0.0017708668412062404</v>
       </c>
       <c r="AY61" s="127">
         <v>1.4000190009675324E-08</v>
@@ -7024,7 +7024,7 @@
         <v>0</v>
       </c>
       <c r="BA61" s="127">
-        <v>0.013515067085131642</v>
+        <v>0.013502638471354767</v>
       </c>
     </row>
     <row r="62">
@@ -7183,7 +7183,7 @@
       </c>
       <c r="Y63" s="125"/>
       <c r="Z63" s="126">
-        <v>758.148109812388</v>
+        <v>758.148103427041</v>
       </c>
       <c r="AA63" s="126"/>
       <c r="AB63" s="126"/>
@@ -7193,15 +7193,15 @@
       <c r="AD63" s="126"/>
       <c r="AE63" s="126"/>
       <c r="AF63" s="125">
-        <v>107.99830624108091</v>
+        <v>107.99830533148732</v>
       </c>
       <c r="AG63" s="125"/>
       <c r="AH63" s="125">
-        <v>-3.33653107890301</v>
+        <v>-3.3365310007298854</v>
       </c>
       <c r="AI63" s="125"/>
       <c r="AJ63" s="125">
-        <v>0.834704545111397</v>
+        <v>0.834694309230529</v>
       </c>
       <c r="AK63" s="125"/>
       <c r="AL63" s="125">
@@ -7209,7 +7209,7 @@
       </c>
       <c r="AM63" s="125"/>
       <c r="AN63" s="125">
-        <v>0.011130656357048019</v>
+        <v>0.011120420476180004</v>
       </c>
       <c r="AO63" s="125"/>
       <c r="AP63" s="126">
@@ -7217,11 +7217,11 @@
       </c>
       <c r="AQ63" s="126"/>
       <c r="AR63" s="126">
-        <v>1.3402123960449537</v>
+        <v>1.3402060106979161</v>
       </c>
       <c r="AS63" s="126"/>
       <c r="AT63" s="126">
-        <v>130.70908374926603</v>
+        <v>130.70907736391894</v>
       </c>
       <c r="AU63" s="126"/>
       <c r="AV63" s="127">
@@ -7231,7 +7231,7 @@
         <v>0.077574588795662869</v>
       </c>
       <c r="AX63" s="127">
-        <v>0.0017708752784164753</v>
+        <v>0.0017708668412066372</v>
       </c>
       <c r="AY63" s="127">
         <v>1.4000190151785802E-08</v>
@@ -7240,7 +7240,7 @@
         <v>0</v>
       </c>
       <c r="BA63" s="127">
-        <v>0.013515067086309738</v>
+        <v>0.01350263847364027</v>
       </c>
     </row>
     <row r="64">
@@ -7291,7 +7291,7 @@
       </c>
       <c r="Y64" s="133"/>
       <c r="Z64" s="134">
-        <v>65337.3732804992</v>
+        <v>65337.3732741138</v>
       </c>
       <c r="AA64" s="134"/>
       <c r="AB64" s="134"/>
@@ -7301,15 +7301,15 @@
       <c r="AD64" s="134"/>
       <c r="AE64" s="134"/>
       <c r="AF64" s="133">
-        <v>111.68209028682153</v>
+        <v>111.68209027590687</v>
       </c>
       <c r="AG64" s="133"/>
       <c r="AH64" s="133">
-        <v>-12.239967587319578</v>
+        <v>-12.239967587282488</v>
       </c>
       <c r="AI64" s="133"/>
       <c r="AJ64" s="133">
-        <v>2.24522237538606</v>
+        <v>2.24522225675093</v>
       </c>
       <c r="AK64" s="133"/>
       <c r="AL64" s="133">
@@ -7317,7 +7317,7 @@
       </c>
       <c r="AM64" s="133"/>
       <c r="AN64" s="133">
-        <v>0.12600734719232998</v>
+        <v>0.12600722855719981</v>
       </c>
       <c r="AO64" s="133"/>
       <c r="AP64" s="134">
@@ -7325,11 +7325,11 @@
       </c>
       <c r="AQ64" s="134"/>
       <c r="AR64" s="134">
-        <v>-165.65950650106512</v>
+        <v>-165.65951288646934</v>
       </c>
       <c r="AS64" s="134"/>
       <c r="AT64" s="134">
-        <v>175.83451944680564</v>
+        <v>175.83451306140341</v>
       </c>
       <c r="AU64" s="134"/>
       <c r="AV64" s="135">
@@ -7339,7 +7339,7 @@
         <v>0.0070121931132848727</v>
       </c>
       <c r="AX64" s="135">
-        <v>-0.0025290356713672944</v>
+        <v>-0.0025290357688498681</v>
       </c>
       <c r="AY64" s="135">
         <v>-0.027127095487029122</v>
@@ -7348,7 +7348,7 @@
         <v>-0.0013777900248008288</v>
       </c>
       <c r="BA64" s="135">
-        <v>0.059459443952570391</v>
+        <v>0.059459387971875374</v>
       </c>
     </row>
     <row r="65">
@@ -7399,7 +7399,7 @@
       </c>
       <c r="Y65" s="133"/>
       <c r="Z65" s="134">
-        <v>67431.4604385137</v>
+        <v>67431.4604144914</v>
       </c>
       <c r="AA65" s="134"/>
       <c r="AB65" s="134"/>
@@ -7409,15 +7409,15 @@
       <c r="AD65" s="134"/>
       <c r="AE65" s="134"/>
       <c r="AF65" s="133">
-        <v>111.56391323667931</v>
+        <v>111.56391319693492</v>
       </c>
       <c r="AG65" s="133"/>
       <c r="AH65" s="133">
-        <v>-11.963470950093686</v>
+        <v>-11.963470949860565</v>
       </c>
       <c r="AI65" s="133"/>
       <c r="AJ65" s="133">
-        <v>2.20141867819013</v>
+        <v>2.20141824571673</v>
       </c>
       <c r="AK65" s="133"/>
       <c r="AL65" s="133">
@@ -7425,7 +7425,7 @@
       </c>
       <c r="AM65" s="133"/>
       <c r="AN65" s="133">
-        <v>0.12724726176357004</v>
+        <v>0.12724682929016984</v>
       </c>
       <c r="AO65" s="133"/>
       <c r="AP65" s="134">
@@ -7433,11 +7433,11 @@
       </c>
       <c r="AQ65" s="134"/>
       <c r="AR65" s="134">
-        <v>-151.96153500982035</v>
+        <v>-151.96155903212616</v>
       </c>
       <c r="AS65" s="134"/>
       <c r="AT65" s="134">
-        <v>-77.045263671694556</v>
+        <v>-77.045287693996215</v>
       </c>
       <c r="AU65" s="134"/>
       <c r="AV65" s="135">
@@ -7447,7 +7447,7 @@
         <v>0.0092312264580644548</v>
       </c>
       <c r="AX65" s="135">
-        <v>-0.0022485031176632752</v>
+        <v>-0.0022485034731099976</v>
       </c>
       <c r="AY65" s="135">
         <v>-0.02613908257860369</v>
@@ -7456,7 +7456,7 @@
         <v>0.0012221491021899324</v>
       </c>
       <c r="BA65" s="135">
-        <v>0.061348479087034738</v>
+        <v>0.061348270582859632</v>
       </c>
     </row>
     <row r="66">
@@ -7831,7 +7831,7 @@
       </c>
       <c r="Y69" s="133"/>
       <c r="Z69" s="134">
-        <v>87931.6123326711</v>
+        <v>87931.6123086488</v>
       </c>
       <c r="AA69" s="134"/>
       <c r="AB69" s="134"/>
@@ -7841,15 +7841,15 @@
       <c r="AD69" s="134"/>
       <c r="AE69" s="134"/>
       <c r="AF69" s="133">
-        <v>110.08239106220874</v>
+        <v>110.08239103213499</v>
       </c>
       <c r="AG69" s="133"/>
       <c r="AH69" s="133">
-        <v>-10.747208854352442</v>
+        <v>-10.747208853841404</v>
       </c>
       <c r="AI69" s="133"/>
       <c r="AJ69" s="133">
-        <v>2.10085932809198</v>
+        <v>2.10085899641694</v>
       </c>
       <c r="AK69" s="133"/>
       <c r="AL69" s="133">
@@ -7857,7 +7857,7 @@
       </c>
       <c r="AM69" s="133"/>
       <c r="AN69" s="133">
-        <v>0.092708052704030042</v>
+        <v>0.092707721028990164</v>
       </c>
       <c r="AO69" s="133"/>
       <c r="AP69" s="134">
@@ -7865,11 +7865,11 @@
       </c>
       <c r="AQ69" s="134"/>
       <c r="AR69" s="134">
-        <v>-366.24507222988984</v>
+        <v>-366.24509625219963</v>
       </c>
       <c r="AS69" s="134"/>
       <c r="AT69" s="134">
-        <v>628.62299738128786</v>
+        <v>628.6229733589862</v>
       </c>
       <c r="AU69" s="134"/>
       <c r="AV69" s="135">
@@ -7879,7 +7879,7 @@
         <v>-0.0017601361279766335</v>
       </c>
       <c r="AX69" s="135">
-        <v>-0.0041478364593879862</v>
+        <v>-0.0041478367314479268</v>
       </c>
       <c r="AY69" s="135">
         <v>-0.036043204425593695</v>
@@ -7888,7 +7888,7 @@
         <v>-0.0061385904851817708</v>
       </c>
       <c r="BA69" s="135">
-        <v>0.046165870988040973</v>
+        <v>0.046165705823671167</v>
       </c>
     </row>
     <row r="70">
@@ -8695,7 +8695,7 @@
       </c>
       <c r="Y77" s="133"/>
       <c r="Z77" s="134">
-        <v>110508.324958016</v>
+        <v>110508.324933994</v>
       </c>
       <c r="AA77" s="134"/>
       <c r="AB77" s="134"/>
@@ -8705,15 +8705,15 @@
       <c r="AD77" s="134"/>
       <c r="AE77" s="134"/>
       <c r="AF77" s="133">
-        <v>110.37036200550912</v>
+        <v>110.37036198151709</v>
       </c>
       <c r="AG77" s="133"/>
       <c r="AH77" s="133">
-        <v>-10.321905231486459</v>
+        <v>-10.321905230987596</v>
       </c>
       <c r="AI77" s="133"/>
       <c r="AJ77" s="133">
-        <v>2.14215630896882</v>
+        <v>2.14215604506349</v>
       </c>
       <c r="AK77" s="133"/>
       <c r="AL77" s="133">
@@ -8721,7 +8721,7 @@
       </c>
       <c r="AM77" s="133"/>
       <c r="AN77" s="133">
-        <v>0.082863044050949686</v>
+        <v>0.0828627801456201</v>
       </c>
       <c r="AO77" s="133"/>
       <c r="AP77" s="134">
@@ -8729,11 +8729,11 @@
       </c>
       <c r="AQ77" s="134"/>
       <c r="AR77" s="134">
-        <v>-257.24019319440879</v>
+        <v>-257.24021721642856</v>
       </c>
       <c r="AS77" s="134"/>
       <c r="AT77" s="134">
-        <v>-167.63209554400237</v>
+        <v>-167.632119566013</v>
       </c>
       <c r="AU77" s="134"/>
       <c r="AV77" s="135">
@@ -8743,7 +8743,7 @@
         <v>0.0090255684370797867</v>
       </c>
       <c r="AX77" s="135">
-        <v>-0.0023223841529020337</v>
+        <v>-0.0023223843697746664</v>
       </c>
       <c r="AY77" s="135">
         <v>-0.026440111152133197</v>
@@ -8752,7 +8752,7 @@
         <v>0.0031618281115259757</v>
       </c>
       <c r="BA77" s="135">
-        <v>0.040238583528924655</v>
+        <v>0.040238455375575112</v>
       </c>
     </row>
     <row r="78">
@@ -9307,7 +9307,7 @@
       </c>
       <c r="Y83" s="133"/>
       <c r="Z83" s="134">
-        <v>137447.937573406</v>
+        <v>137447.937549383</v>
       </c>
       <c r="AA83" s="134"/>
       <c r="AB83" s="134"/>
@@ -9317,21 +9317,21 @@
       <c r="AD83" s="134"/>
       <c r="AE83" s="134"/>
       <c r="AF83" s="133">
-        <v>108.30859356159459</v>
+        <v>108.30859354266454</v>
       </c>
       <c r="AG83" s="133"/>
       <c r="AH83" s="133">
-        <v>-8.7527412235341568</v>
+        <v>-8.75274122285875</v>
       </c>
       <c r="AI83" s="133"/>
       <c r="AJ83" s="133">
-        <v>1.83965391735106</v>
+        <v>1.83965370511795</v>
       </c>
       <c r="AK83" s="133"/>
       <c r="AL83" s="133"/>
       <c r="AM83" s="133"/>
       <c r="AN83" s="133">
-        <v>0.047750733656809929</v>
+        <v>0.047750521423699954</v>
       </c>
       <c r="AO83" s="133"/>
       <c r="AP83" s="134">
@@ -9339,11 +9339,11 @@
       </c>
       <c r="AQ83" s="134"/>
       <c r="AR83" s="134">
-        <v>-375.39793352821118</v>
+        <v>-375.39795755120463</v>
       </c>
       <c r="AS83" s="134"/>
       <c r="AT83" s="134">
-        <v>1403.542238258</v>
+        <v>1403.5422142349999</v>
       </c>
       <c r="AU83" s="134"/>
       <c r="AV83" s="135">
@@ -9353,7 +9353,7 @@
         <v>-0.0046017777434840213</v>
       </c>
       <c r="AX83" s="135">
-        <v>-0.0027237617791460579</v>
+        <v>-0.0027237619534488593</v>
       </c>
       <c r="AY83" s="135">
         <v>0</v>
@@ -9362,7 +9362,7 @@
         <v>-0.0083976006855201613</v>
       </c>
       <c r="BA83" s="135">
-        <v>0.026648054477120438</v>
+        <v>0.026647936037066364</v>
       </c>
     </row>
     <row r="84"/>
@@ -10481,7 +10481,7 @@
       </c>
       <c r="Y97" s="133"/>
       <c r="Z97" s="134">
-        <v>22814.8760617835</v>
+        <v>22814.8760377612</v>
       </c>
       <c r="AA97" s="134"/>
       <c r="AB97" s="134"/>
@@ -10491,21 +10491,21 @@
       <c r="AD97" s="134"/>
       <c r="AE97" s="134"/>
       <c r="AF97" s="133">
-        <v>167.19094285346256</v>
+        <v>167.19094267742344</v>
       </c>
       <c r="AG97" s="133"/>
       <c r="AH97" s="133">
-        <v>-28.758037963899419</v>
+        <v>-28.758037980893782</v>
       </c>
       <c r="AI97" s="133"/>
       <c r="AJ97" s="133">
-        <v>4.40731057059092</v>
+        <v>4.40730929469913</v>
       </c>
       <c r="AK97" s="133"/>
       <c r="AL97" s="133"/>
       <c r="AM97" s="133"/>
       <c r="AN97" s="133">
-        <v>0.61186717416683</v>
+        <v>0.61186589827503957</v>
       </c>
       <c r="AO97" s="133"/>
       <c r="AP97" s="134">
@@ -10513,11 +10513,11 @@
       </c>
       <c r="AQ97" s="134"/>
       <c r="AR97" s="134">
-        <v>-452.82712355833627</v>
+        <v>-452.82714758063497</v>
       </c>
       <c r="AS97" s="134"/>
       <c r="AT97" s="134">
-        <v>58.700866739200137</v>
+        <v>58.700842716902116</v>
       </c>
       <c r="AU97" s="134"/>
       <c r="AV97" s="135">
@@ -10527,7 +10527,7 @@
         <v>-0.0084219354997127332</v>
       </c>
       <c r="AX97" s="135">
-        <v>-0.019461616815002514</v>
+        <v>-0.019461617847433541</v>
       </c>
       <c r="AY97" s="135">
         <v>0</v>
@@ -10536,7 +10536,7 @@
         <v>0.0045136538027581207</v>
       </c>
       <c r="BA97" s="135">
-        <v>0.16121098650642662</v>
+        <v>0.16121065034233267</v>
       </c>
     </row>
     <row r="98" ht="14.25" customHeight="1">
@@ -11115,55 +11115,55 @@
       </c>
       <c r="C113" s="14"/>
       <c r="D113" s="74">
-        <v>5031.4353576005669</v>
+        <v>5030.5189926423809</v>
       </c>
       <c r="E113" s="74"/>
       <c r="F113" s="74"/>
       <c r="G113" s="74"/>
       <c r="H113" s="74">
-        <v>5031.4674279871761</v>
+        <v>5030.5510630289891</v>
       </c>
       <c r="I113" s="74"/>
       <c r="J113" s="74"/>
       <c r="K113" s="74"/>
       <c r="L113" s="74">
-        <v>5077.5201258706766</v>
+        <v>5077.8462723780094</v>
       </c>
       <c r="M113" s="74"/>
       <c r="N113" s="74"/>
       <c r="O113" s="74"/>
       <c r="P113" s="74">
-        <v>4931.2967740896465</v>
+        <v>4943.1004726859574</v>
       </c>
       <c r="Q113" s="74"/>
       <c r="R113" s="74"/>
       <c r="S113" s="74"/>
       <c r="T113" s="74">
-        <v>4790.5706675546862</v>
+        <v>4813.9021098202429</v>
       </c>
       <c r="U113" s="74"/>
       <c r="V113" s="74"/>
       <c r="W113" s="74"/>
       <c r="X113" s="74">
-        <v>4643.0995048243176</v>
+        <v>4678.0087233248105</v>
       </c>
       <c r="Y113" s="74"/>
       <c r="Z113" s="74"/>
       <c r="AA113" s="74"/>
       <c r="AB113" s="74">
-        <v>4465.060592647802</v>
+        <v>4511.5974675356583</v>
       </c>
       <c r="AC113" s="74"/>
       <c r="AD113" s="74"/>
       <c r="AE113" s="74"/>
       <c r="AF113" s="74">
-        <v>4463.581685909332</v>
+        <v>4498.4903036296864</v>
       </c>
       <c r="AG113" s="74"/>
       <c r="AH113" s="74"/>
       <c r="AI113" s="74"/>
       <c r="AJ113" s="73">
-        <v>-2.8798182608081</v>
+        <v>-2.65360139839266</v>
       </c>
       <c r="AK113" s="73"/>
       <c r="AL113" s="73"/>
@@ -12075,42 +12075,42 @@
       <c r="Q129" s="68"/>
       <c r="R129" s="68"/>
       <c r="S129" s="68">
-        <v>502.60102119015403</v>
+        <v>502.7707058651</v>
       </c>
       <c r="T129" s="68"/>
       <c r="U129" s="68"/>
       <c r="V129" s="68">
-        <v>502.16520282555</v>
+        <v>502.173774395847</v>
       </c>
       <c r="W129" s="68"/>
       <c r="X129" s="68"/>
       <c r="Y129" s="68">
-        <v>493.513856723814</v>
+        <v>493.515602492888</v>
       </c>
       <c r="Z129" s="68"/>
       <c r="AA129" s="68"/>
       <c r="AB129" s="68">
-        <v>487.213669540096</v>
+        <v>487.21578255863</v>
       </c>
       <c r="AC129" s="68"/>
       <c r="AD129" s="68"/>
       <c r="AE129" s="68">
-        <v>486.79797531040697</v>
+        <v>486.8337757224</v>
       </c>
       <c r="AF129" s="68"/>
       <c r="AG129" s="68"/>
       <c r="AH129" s="68">
-        <v>479.31289304252</v>
+        <v>479.314387307321</v>
       </c>
       <c r="AI129" s="68"/>
       <c r="AJ129" s="68"/>
       <c r="AK129" s="68">
-        <v>479.17493653598603</v>
+        <v>479.16643678582</v>
       </c>
       <c r="AL129" s="68"/>
       <c r="AM129" s="68"/>
       <c r="AN129" s="68">
-        <v>473.16162859271896</v>
+        <v>473.16155289001296</v>
       </c>
       <c r="AO129" s="68"/>
       <c r="AP129" s="68"/>
@@ -12201,42 +12201,42 @@
       <c r="Q131" s="68"/>
       <c r="R131" s="68"/>
       <c r="S131" s="68">
-        <v>427.238333876747</v>
+        <v>427.40801855169303</v>
       </c>
       <c r="T131" s="68"/>
       <c r="U131" s="68"/>
       <c r="V131" s="68">
-        <v>432.054936652151</v>
+        <v>432.063508222448</v>
       </c>
       <c r="W131" s="68"/>
       <c r="X131" s="68"/>
       <c r="Y131" s="68">
-        <v>426.43145644240195</v>
+        <v>426.433202211476</v>
       </c>
       <c r="Z131" s="68"/>
       <c r="AA131" s="68"/>
       <c r="AB131" s="68">
-        <v>423.01910536768503</v>
+        <v>423.021218386219</v>
       </c>
       <c r="AC131" s="68"/>
       <c r="AD131" s="68"/>
       <c r="AE131" s="68">
-        <v>425.510035012569</v>
+        <v>425.545835424563</v>
       </c>
       <c r="AF131" s="68"/>
       <c r="AG131" s="68"/>
       <c r="AH131" s="68">
-        <v>421.06132641632803</v>
+        <v>421.062820681129</v>
       </c>
       <c r="AI131" s="68"/>
       <c r="AJ131" s="68"/>
       <c r="AK131" s="68">
-        <v>423.95661434550505</v>
+        <v>423.948114595339</v>
       </c>
       <c r="AL131" s="68"/>
       <c r="AM131" s="68"/>
       <c r="AN131" s="68">
-        <v>420.96480901534403</v>
+        <v>420.964733312637</v>
       </c>
       <c r="AO131" s="68"/>
       <c r="AP131" s="68"/>
@@ -12390,42 +12390,42 @@
       <c r="Q134" s="68"/>
       <c r="R134" s="68"/>
       <c r="S134" s="68">
-        <v>115.98833387674699</v>
+        <v>116.158018551693</v>
       </c>
       <c r="T134" s="68"/>
       <c r="U134" s="68"/>
       <c r="V134" s="68">
-        <v>120.804936652151</v>
+        <v>120.813508222448</v>
       </c>
       <c r="W134" s="68"/>
       <c r="X134" s="68"/>
       <c r="Y134" s="68">
-        <v>115.18145644240201</v>
+        <v>115.183202211476</v>
       </c>
       <c r="Z134" s="68"/>
       <c r="AA134" s="68"/>
       <c r="AB134" s="68">
-        <v>111.769105367685</v>
+        <v>111.771218386219</v>
       </c>
       <c r="AC134" s="68"/>
       <c r="AD134" s="68"/>
       <c r="AE134" s="68">
-        <v>114.260035012569</v>
+        <v>114.295835424562</v>
       </c>
       <c r="AF134" s="68"/>
       <c r="AG134" s="68"/>
       <c r="AH134" s="68">
-        <v>109.811326416328</v>
+        <v>109.812820681129</v>
       </c>
       <c r="AI134" s="68"/>
       <c r="AJ134" s="68"/>
       <c r="AK134" s="68">
-        <v>112.706614345505</v>
+        <v>112.698114595338</v>
       </c>
       <c r="AL134" s="68"/>
       <c r="AM134" s="68"/>
       <c r="AN134" s="68">
-        <v>109.714809015343</v>
+        <v>109.71473331263701</v>
       </c>
       <c r="AO134" s="68"/>
       <c r="AP134" s="68"/>
@@ -12453,42 +12453,42 @@
       <c r="Q135" s="68"/>
       <c r="R135" s="68"/>
       <c r="S135" s="68">
-        <v>24.2710394783524</v>
+        <v>24.3065466996982</v>
       </c>
       <c r="T135" s="68"/>
       <c r="U135" s="68"/>
       <c r="V135" s="68">
-        <v>25.2789335674045</v>
+        <v>25.2807272040067</v>
       </c>
       <c r="W135" s="68"/>
       <c r="X135" s="68"/>
       <c r="Y135" s="68">
-        <v>24.102197031800998</v>
+        <v>24.102562341213602</v>
       </c>
       <c r="Z135" s="68"/>
       <c r="AA135" s="68"/>
       <c r="AB135" s="68">
-        <v>23.3881484298401</v>
+        <v>23.388590587723897</v>
       </c>
       <c r="AC135" s="68"/>
       <c r="AD135" s="68"/>
       <c r="AE135" s="68">
-        <v>23.9093857795638</v>
+        <v>23.9168771641177</v>
       </c>
       <c r="AF135" s="68"/>
       <c r="AG135" s="68"/>
       <c r="AH135" s="68">
-        <v>22.978475071925</v>
+        <v>22.9787877530263</v>
       </c>
       <c r="AI135" s="68"/>
       <c r="AJ135" s="68"/>
       <c r="AK135" s="68">
-        <v>23.584326068154603</v>
+        <v>23.5825474602124</v>
       </c>
       <c r="AL135" s="68"/>
       <c r="AM135" s="68"/>
       <c r="AN135" s="68">
-        <v>22.958278405835</v>
+        <v>22.9582625647299</v>
       </c>
       <c r="AO135" s="68"/>
       <c r="AP135" s="68"/>
@@ -12516,42 +12516,42 @@
       <c r="Q136" s="68"/>
       <c r="R136" s="68"/>
       <c r="S136" s="68">
-        <v>91.7172943983943</v>
+        <v>91.8514718519947</v>
       </c>
       <c r="T136" s="68"/>
       <c r="U136" s="68"/>
       <c r="V136" s="68">
-        <v>95.5260030847463</v>
+        <v>95.532781018441</v>
       </c>
       <c r="W136" s="68"/>
       <c r="X136" s="68"/>
       <c r="Y136" s="68">
-        <v>91.0792594106011</v>
+        <v>91.0806398702624</v>
       </c>
       <c r="Z136" s="68"/>
       <c r="AA136" s="68"/>
       <c r="AB136" s="68">
-        <v>88.3809569378445</v>
+        <v>88.38262779849461</v>
       </c>
       <c r="AC136" s="68"/>
       <c r="AD136" s="68"/>
       <c r="AE136" s="68">
-        <v>90.350649233004887</v>
+        <v>90.3789582604447</v>
       </c>
       <c r="AF136" s="68"/>
       <c r="AG136" s="68"/>
       <c r="AH136" s="68">
-        <v>86.8328513444031</v>
+        <v>86.834032928102687</v>
       </c>
       <c r="AI136" s="68"/>
       <c r="AJ136" s="68"/>
       <c r="AK136" s="68">
-        <v>89.1222882773499</v>
+        <v>89.115567135126</v>
       </c>
       <c r="AL136" s="68"/>
       <c r="AM136" s="68"/>
       <c r="AN136" s="68">
-        <v>86.756530609508388</v>
+        <v>86.7564707479067</v>
       </c>
       <c r="AO136" s="68"/>
       <c r="AP136" s="68"/>
@@ -12581,42 +12581,42 @@
       <c r="Q137" s="68"/>
       <c r="R137" s="68"/>
       <c r="S137" s="68">
-        <v>13826.6858255271</v>
+        <v>13826.8200029806</v>
       </c>
       <c r="T137" s="68"/>
       <c r="U137" s="68"/>
       <c r="V137" s="68">
-        <v>13922.211828613701</v>
+        <v>13922.3527840009</v>
       </c>
       <c r="W137" s="68"/>
       <c r="X137" s="68"/>
       <c r="Y137" s="68">
-        <v>14013.2910880209</v>
+        <v>14013.4334238679</v>
       </c>
       <c r="Z137" s="68"/>
       <c r="AA137" s="68"/>
       <c r="AB137" s="68">
-        <v>14101.6720449593</v>
+        <v>14101.8160516668</v>
       </c>
       <c r="AC137" s="68"/>
       <c r="AD137" s="68"/>
       <c r="AE137" s="68">
-        <v>14192.0226941914</v>
+        <v>14192.1950099259</v>
       </c>
       <c r="AF137" s="68"/>
       <c r="AG137" s="68"/>
       <c r="AH137" s="68">
-        <v>14278.8555455331</v>
+        <v>14279.0290428514</v>
       </c>
       <c r="AI137" s="68"/>
       <c r="AJ137" s="68"/>
       <c r="AK137" s="68">
-        <v>14367.9778338164</v>
+        <v>14368.1446099923</v>
       </c>
       <c r="AL137" s="68"/>
       <c r="AM137" s="68"/>
       <c r="AN137" s="68">
-        <v>14454.7343644305</v>
+        <v>14454.9010807451</v>
       </c>
       <c r="AO137" s="68"/>
       <c r="AP137" s="68"/>
@@ -12737,13 +12737,13 @@
       <c r="F143" s="143"/>
       <c r="G143" s="143"/>
       <c r="H143" s="143">
-        <v>4214.63651973054</v>
+        <v>4214.6886626741</v>
       </c>
       <c r="I143" s="143"/>
       <c r="J143" s="143"/>
       <c r="K143" s="143"/>
       <c r="L143" s="143">
-        <v>207.07716509281983</v>
+        <v>207.12930803638</v>
       </c>
       <c r="M143" s="143"/>
       <c r="N143" s="143"/>
@@ -12755,13 +12755,13 @@
       <c r="R143" s="143"/>
       <c r="S143" s="143"/>
       <c r="T143" s="143">
-        <v>4372.15602581381</v>
+        <v>4372.22599287845</v>
       </c>
       <c r="U143" s="143"/>
       <c r="V143" s="143"/>
       <c r="W143" s="143"/>
       <c r="X143" s="143">
-        <v>179.85320441663964</v>
+        <v>179.92317148128012</v>
       </c>
       <c r="Y143" s="143"/>
       <c r="Z143" s="143"/>
@@ -12779,13 +12779,13 @@
       <c r="F144" s="143"/>
       <c r="G144" s="143"/>
       <c r="H144" s="143">
-        <v>16630.9557068567</v>
+        <v>16631.161462912</v>
       </c>
       <c r="I144" s="143"/>
       <c r="J144" s="143"/>
       <c r="K144" s="143"/>
       <c r="L144" s="143">
-        <v>1486.2081934551989</v>
+        <v>1486.4139495104998</v>
       </c>
       <c r="M144" s="143"/>
       <c r="N144" s="143"/>
@@ -12797,13 +12797,13 @@
       <c r="R144" s="143"/>
       <c r="S144" s="143"/>
       <c r="T144" s="143">
-        <v>17252.5276778613</v>
+        <v>17252.8037678983</v>
       </c>
       <c r="U144" s="143"/>
       <c r="V144" s="143"/>
       <c r="W144" s="143"/>
       <c r="X144" s="143">
-        <v>1409.6262729685996</v>
+        <v>1409.902363005599</v>
       </c>
       <c r="Y144" s="143"/>
       <c r="Z144" s="143"/>
@@ -12821,13 +12821,13 @@
       <c r="F145" s="145"/>
       <c r="G145" s="145"/>
       <c r="H145" s="145">
-        <v>20845.592226587298</v>
+        <v>20845.8501255861</v>
       </c>
       <c r="I145" s="145"/>
       <c r="J145" s="145"/>
       <c r="K145" s="145"/>
       <c r="L145" s="145">
-        <v>1693.2853585481009</v>
+        <v>1693.5432575469017</v>
       </c>
       <c r="M145" s="145"/>
       <c r="N145" s="145"/>
@@ -12839,13 +12839,13 @@
       <c r="R145" s="145"/>
       <c r="S145" s="145"/>
       <c r="T145" s="145">
-        <v>21624.6837036751</v>
+        <v>21625.0297607768</v>
       </c>
       <c r="U145" s="145"/>
       <c r="V145" s="145"/>
       <c r="W145" s="145"/>
       <c r="X145" s="145">
-        <v>1589.4794773852007</v>
+        <v>1589.825534486901</v>
       </c>
       <c r="Y145" s="145"/>
       <c r="Z145" s="145"/>
@@ -14363,13 +14363,13 @@
       <c r="F182" s="145"/>
       <c r="G182" s="145"/>
       <c r="H182" s="145">
-        <v>127965.592226587</v>
+        <v>127965.850125586</v>
       </c>
       <c r="I182" s="145"/>
       <c r="J182" s="145"/>
       <c r="K182" s="145"/>
       <c r="L182" s="145">
-        <v>1564.2853585480004</v>
+        <v>1564.5432575470061</v>
       </c>
       <c r="M182" s="145"/>
       <c r="N182" s="145"/>
@@ -14381,13 +14381,13 @@
       <c r="R182" s="145"/>
       <c r="S182" s="145"/>
       <c r="T182" s="145">
-        <v>128744.68370367501</v>
+        <v>128745.02976077699</v>
       </c>
       <c r="U182" s="145"/>
       <c r="V182" s="145"/>
       <c r="W182" s="145"/>
       <c r="X182" s="145">
-        <v>1460.4794773849994</v>
+        <v>1460.8255344869942</v>
       </c>
       <c r="Y182" s="145"/>
       <c r="Z182" s="145"/>
@@ -14785,13 +14785,13 @@
       <c r="F194" s="145"/>
       <c r="G194" s="145"/>
       <c r="H194" s="145">
-        <v>14707.5922265873</v>
+        <v>14707.8501255861</v>
       </c>
       <c r="I194" s="145"/>
       <c r="J194" s="145"/>
       <c r="K194" s="145"/>
       <c r="L194" s="145">
-        <v>226.28535854799858</v>
+        <v>226.54325754679925</v>
       </c>
       <c r="M194" s="145"/>
       <c r="N194" s="145"/>
@@ -14803,13 +14803,13 @@
       <c r="R194" s="145"/>
       <c r="S194" s="145"/>
       <c r="T194" s="145">
-        <v>15486.683703675199</v>
+        <v>15487.029760776799</v>
       </c>
       <c r="U194" s="145"/>
       <c r="V194" s="145"/>
       <c r="W194" s="145"/>
       <c r="X194" s="145">
-        <v>122.47947738519869</v>
+        <v>122.82553448679857</v>
       </c>
       <c r="Y194" s="145"/>
       <c r="Z194" s="145"/>
@@ -15029,13 +15029,13 @@
       <c r="F201" s="143"/>
       <c r="G201" s="143"/>
       <c r="H201" s="143">
-        <v>17463.232097162821</v>
+        <v>17789.299402313951</v>
       </c>
       <c r="I201" s="143"/>
       <c r="J201" s="143"/>
       <c r="K201" s="143"/>
       <c r="L201" s="143">
-        <v>-177.80202430985082</v>
+        <v>148.26528084127858</v>
       </c>
       <c r="M201" s="143"/>
       <c r="N201" s="143"/>
@@ -15047,13 +15047,13 @@
       <c r="R201" s="143"/>
       <c r="S201" s="143"/>
       <c r="T201" s="143">
-        <v>28697.303764014257</v>
+        <v>28810.027724330612</v>
       </c>
       <c r="U201" s="143"/>
       <c r="V201" s="143"/>
       <c r="W201" s="143"/>
       <c r="X201" s="143">
-        <v>7172.1231669892986</v>
+        <v>7284.847127305653</v>
       </c>
       <c r="Y201" s="143"/>
       <c r="Z201" s="143"/>
@@ -15071,13 +15071,13 @@
       <c r="F202" s="145"/>
       <c r="G202" s="145"/>
       <c r="H202" s="145">
-        <v>17463.232097162821</v>
+        <v>17789.299402313951</v>
       </c>
       <c r="I202" s="145"/>
       <c r="J202" s="145"/>
       <c r="K202" s="145"/>
       <c r="L202" s="145">
-        <v>-177.80202430985082</v>
+        <v>148.26528084127858</v>
       </c>
       <c r="M202" s="145"/>
       <c r="N202" s="145"/>
@@ -15089,13 +15089,13 @@
       <c r="R202" s="145"/>
       <c r="S202" s="145"/>
       <c r="T202" s="145">
-        <v>28697.303764014257</v>
+        <v>28810.027724330612</v>
       </c>
       <c r="U202" s="145"/>
       <c r="V202" s="145"/>
       <c r="W202" s="145"/>
       <c r="X202" s="145">
-        <v>7172.1231669892986</v>
+        <v>7284.847127305653</v>
       </c>
       <c r="Y202" s="145"/>
       <c r="Z202" s="145"/>
@@ -15693,13 +15693,13 @@
       <c r="F217" s="143"/>
       <c r="G217" s="143"/>
       <c r="H217" s="143">
-        <v>117161.50156265243</v>
+        <v>117161.55971222853</v>
       </c>
       <c r="I217" s="143"/>
       <c r="J217" s="143"/>
       <c r="K217" s="143"/>
       <c r="L217" s="143">
-        <v>-7862.0284511514765</v>
+        <v>-7861.9703015753767</v>
       </c>
       <c r="M217" s="143"/>
       <c r="N217" s="143"/>
@@ -15711,13 +15711,13 @@
       <c r="R217" s="143"/>
       <c r="S217" s="143"/>
       <c r="T217" s="143">
-        <v>86998.009105974488</v>
+        <v>86997.101144655622</v>
       </c>
       <c r="U217" s="143"/>
       <c r="V217" s="143"/>
       <c r="W217" s="143"/>
       <c r="X217" s="143">
-        <v>-13288.933724899311</v>
+        <v>-13289.841686218177</v>
       </c>
       <c r="Y217" s="143"/>
       <c r="Z217" s="143"/>
@@ -15777,13 +15777,13 @@
       <c r="F219" s="143"/>
       <c r="G219" s="143"/>
       <c r="H219" s="143">
-        <v>42417.418306850072</v>
+        <v>42417.439359455719</v>
       </c>
       <c r="I219" s="143"/>
       <c r="J219" s="143"/>
       <c r="K219" s="143"/>
       <c r="L219" s="143">
-        <v>8993.5807009548953</v>
+        <v>8993.6017535605424</v>
       </c>
       <c r="M219" s="143"/>
       <c r="N219" s="143"/>
@@ -15795,13 +15795,13 @@
       <c r="R219" s="143"/>
       <c r="S219" s="143"/>
       <c r="T219" s="143">
-        <v>31496.958428258931</v>
+        <v>31496.629707864107</v>
       </c>
       <c r="U219" s="143"/>
       <c r="V219" s="143"/>
       <c r="W219" s="143"/>
       <c r="X219" s="143">
-        <v>4686.2093572584454</v>
+        <v>4685.8806368636215</v>
       </c>
       <c r="Y219" s="143"/>
       <c r="Z219" s="143"/>
@@ -15819,13 +15819,13 @@
       <c r="F220" s="145"/>
       <c r="G220" s="145"/>
       <c r="H220" s="145">
-        <v>3324638.5735806869</v>
+        <v>3324638.5946332919</v>
       </c>
       <c r="I220" s="145"/>
       <c r="J220" s="145"/>
       <c r="K220" s="145"/>
       <c r="L220" s="145">
-        <v>-12362.82349935174</v>
+        <v>-12362.802446746733</v>
       </c>
       <c r="M220" s="145"/>
       <c r="N220" s="145"/>
@@ -15837,13 +15837,13 @@
       <c r="R220" s="145"/>
       <c r="S220" s="145"/>
       <c r="T220" s="145">
-        <v>2875721.701956227</v>
+        <v>2875721.373235832</v>
       </c>
       <c r="U220" s="145"/>
       <c r="V220" s="145"/>
       <c r="W220" s="145"/>
       <c r="X220" s="145">
-        <v>-37485.95610867301</v>
+        <v>-37486.284829068</v>
       </c>
       <c r="Y220" s="145"/>
       <c r="Z220" s="145"/>
@@ -15861,13 +15861,13 @@
       <c r="F221" s="145"/>
       <c r="G221" s="145"/>
       <c r="H221" s="145">
-        <v>3441800.0751433424</v>
+        <v>3441800.1543455203</v>
       </c>
       <c r="I221" s="145"/>
       <c r="J221" s="145"/>
       <c r="K221" s="145"/>
       <c r="L221" s="145">
-        <v>-20224.851950499229</v>
+        <v>-20224.772748321295</v>
       </c>
       <c r="M221" s="145"/>
       <c r="N221" s="145"/>
@@ -15879,13 +15879,13 @@
       <c r="R221" s="145"/>
       <c r="S221" s="145"/>
       <c r="T221" s="145">
-        <v>2962719.7110622032</v>
+        <v>2962718.4743804871</v>
       </c>
       <c r="U221" s="145"/>
       <c r="V221" s="145"/>
       <c r="W221" s="145"/>
       <c r="X221" s="145">
-        <v>-50774.889833570924</v>
+        <v>-50776.126515286975</v>
       </c>
       <c r="Y221" s="145"/>
       <c r="Z221" s="145"/>
@@ -16029,13 +16029,13 @@
       <c r="F225" s="145"/>
       <c r="G225" s="145"/>
       <c r="H225" s="145">
-        <v>4381207.9359119646</v>
+        <v>4381208.0151141454</v>
       </c>
       <c r="I225" s="145"/>
       <c r="J225" s="145"/>
       <c r="K225" s="145"/>
       <c r="L225" s="145">
-        <v>-35565.690058221109</v>
+        <v>-35565.610856040381</v>
       </c>
       <c r="M225" s="145"/>
       <c r="N225" s="145"/>
@@ -16047,13 +16047,13 @@
       <c r="R225" s="145"/>
       <c r="S225" s="145"/>
       <c r="T225" s="145">
-        <v>3826890.9009592389</v>
+        <v>3826889.6642775238</v>
       </c>
       <c r="U225" s="145"/>
       <c r="V225" s="145"/>
       <c r="W225" s="145"/>
       <c r="X225" s="145">
-        <v>-84798.556118770037</v>
+        <v>-84799.792800485156</v>
       </c>
       <c r="Y225" s="145"/>
       <c r="Z225" s="145"/>
@@ -16365,13 +16365,13 @@
       <c r="F233" s="145"/>
       <c r="G233" s="145"/>
       <c r="H233" s="145">
-        <v>5708055.9290791051</v>
+        <v>5708056.0082812859</v>
       </c>
       <c r="I233" s="145"/>
       <c r="J233" s="145"/>
       <c r="K233" s="145"/>
       <c r="L233" s="145">
-        <v>-39242.339685639367</v>
+        <v>-39242.260483458638</v>
       </c>
       <c r="M233" s="145"/>
       <c r="N233" s="145"/>
@@ -16383,13 +16383,13 @@
       <c r="R233" s="145"/>
       <c r="S233" s="145"/>
       <c r="T233" s="145">
-        <v>5102519.596858602</v>
+        <v>5102518.3601768864</v>
       </c>
       <c r="U233" s="145"/>
       <c r="V233" s="145"/>
       <c r="W233" s="145"/>
       <c r="X233" s="145">
-        <v>-97727.824602874</v>
+        <v>-97729.061284589581</v>
       </c>
       <c r="Y233" s="145"/>
       <c r="Z233" s="145"/>
@@ -16613,13 +16613,13 @@
       <c r="F239" s="145"/>
       <c r="G239" s="145"/>
       <c r="H239" s="145">
-        <v>5799024.4106072728</v>
+        <v>5799350.5571146067</v>
       </c>
       <c r="I239" s="145"/>
       <c r="J239" s="145"/>
       <c r="K239" s="145"/>
       <c r="L239" s="145">
-        <v>-42272.427383169532</v>
+        <v>-41946.280875835568</v>
       </c>
       <c r="M239" s="145"/>
       <c r="N239" s="145"/>
@@ -16631,13 +16631,13 @@
       <c r="R239" s="145"/>
       <c r="S239" s="145"/>
       <c r="T239" s="145">
-        <v>5204097.6384070013</v>
+        <v>5204209.1256856062</v>
       </c>
       <c r="U239" s="145"/>
       <c r="V239" s="145"/>
       <c r="W239" s="145"/>
       <c r="X239" s="145">
-        <v>-88446.1427036915</v>
+        <v>-88334.655425086617</v>
       </c>
       <c r="Y239" s="145"/>
       <c r="Z239" s="145"/>
@@ -17035,13 +17035,13 @@
       <c r="F251" s="145"/>
       <c r="G251" s="145"/>
       <c r="H251" s="145">
-        <v>5077520.1258706767</v>
+        <v>5077846.27237801</v>
       </c>
       <c r="I251" s="145"/>
       <c r="J251" s="145"/>
       <c r="K251" s="145"/>
       <c r="L251" s="145">
-        <v>-50284.444336269982</v>
+        <v>-49958.297828936949</v>
       </c>
       <c r="M251" s="145"/>
       <c r="N251" s="145"/>
@@ -17053,13 +17053,13 @@
       <c r="R251" s="145"/>
       <c r="S251" s="145"/>
       <c r="T251" s="145">
-        <v>4720261.536132535</v>
+        <v>4720373.023411138</v>
       </c>
       <c r="U251" s="145"/>
       <c r="V251" s="145"/>
       <c r="W251" s="145"/>
       <c r="X251" s="145">
-        <v>-91881.968616178259</v>
+        <v>-91770.481337575242</v>
       </c>
       <c r="Y251" s="145"/>
       <c r="Z251" s="145"/>
@@ -17283,13 +17283,13 @@
       <c r="F258" s="138"/>
       <c r="G258" s="138"/>
       <c r="H258" s="138">
-        <v>0.1077551322239035</v>
+        <v>0.10977939389123088</v>
       </c>
       <c r="I258" s="138"/>
       <c r="J258" s="138"/>
       <c r="K258" s="138"/>
       <c r="L258" s="138">
-        <v>-0.012396233829382528</v>
+        <v>-0.01037197216205514</v>
       </c>
       <c r="M258" s="138"/>
       <c r="N258" s="138"/>
@@ -17301,13 +17301,13 @@
       <c r="R258" s="138"/>
       <c r="S258" s="138"/>
       <c r="T258" s="138">
-        <v>0.16920034918686908</v>
+        <v>0.16986192303252898</v>
       </c>
       <c r="U258" s="138"/>
       <c r="V258" s="138"/>
       <c r="W258" s="138"/>
       <c r="X258" s="138">
-        <v>0.030242137492784149</v>
+        <v>0.030903711338444051</v>
       </c>
       <c r="Y258" s="138"/>
       <c r="Z258" s="138"/>
@@ -17325,13 +17325,13 @@
       <c r="F259" s="146"/>
       <c r="G259" s="146"/>
       <c r="H259" s="146">
-        <v>0.085968813537307578</v>
+        <v>0.087583802728426308</v>
       </c>
       <c r="I259" s="146"/>
       <c r="J259" s="146"/>
       <c r="K259" s="146"/>
       <c r="L259" s="146">
-        <v>-0.0090412609568460284</v>
+        <v>-0.0074262717657272992</v>
       </c>
       <c r="M259" s="146"/>
       <c r="N259" s="146"/>
@@ -17343,13 +17343,13 @@
       <c r="R259" s="146"/>
       <c r="S259" s="146"/>
       <c r="T259" s="146">
-        <v>0.13499081639534674</v>
+        <v>0.13551863087067537</v>
       </c>
       <c r="U259" s="146"/>
       <c r="V259" s="146"/>
       <c r="W259" s="146"/>
       <c r="X259" s="146">
-        <v>0.025109168950953983</v>
+        <v>0.025636983426282609</v>
       </c>
       <c r="Y259" s="146"/>
       <c r="Z259" s="146"/>
@@ -17947,13 +17947,13 @@
       <c r="F274" s="138"/>
       <c r="G274" s="138"/>
       <c r="H274" s="138">
-        <v>5.2651115240174491</v>
+        <v>5.2651145230428584</v>
       </c>
       <c r="I274" s="138"/>
       <c r="J274" s="138"/>
       <c r="K274" s="138"/>
       <c r="L274" s="138">
-        <v>0.29933173531559376</v>
+        <v>0.29933473434100311</v>
       </c>
       <c r="M274" s="138"/>
       <c r="N274" s="138"/>
@@ -17965,13 +17965,13 @@
       <c r="R274" s="138"/>
       <c r="S274" s="138"/>
       <c r="T274" s="138">
-        <v>3.7275488253092259</v>
+        <v>3.7275019986742151</v>
       </c>
       <c r="U274" s="138"/>
       <c r="V274" s="138"/>
       <c r="W274" s="138"/>
       <c r="X274" s="138">
-        <v>-0.1204833093350115</v>
+        <v>-0.12053013597002238</v>
       </c>
       <c r="Y274" s="138"/>
       <c r="Z274" s="138"/>
@@ -18031,13 +18031,13 @@
       <c r="F276" s="138"/>
       <c r="G276" s="138"/>
       <c r="H276" s="138">
-        <v>5.2651115240174864</v>
+        <v>5.2651145230428948</v>
       </c>
       <c r="I276" s="138"/>
       <c r="J276" s="138"/>
       <c r="K276" s="138"/>
       <c r="L276" s="138">
-        <v>0.2993317353156586</v>
+        <v>0.29933473434106705</v>
       </c>
       <c r="M276" s="138"/>
       <c r="N276" s="138"/>
@@ -18049,13 +18049,13 @@
       <c r="R276" s="138"/>
       <c r="S276" s="138"/>
       <c r="T276" s="138">
-        <v>3.7275488253092006</v>
+        <v>3.72750199867429</v>
       </c>
       <c r="U276" s="138"/>
       <c r="V276" s="138"/>
       <c r="W276" s="138"/>
       <c r="X276" s="138">
-        <v>-0.12048330933500129</v>
+        <v>-0.1205301359699118</v>
       </c>
       <c r="Y276" s="138"/>
       <c r="Z276" s="138"/>
@@ -18073,13 +18073,13 @@
       <c r="F277" s="146"/>
       <c r="G277" s="146"/>
       <c r="H277" s="146">
-        <v>5.5623143074575649</v>
+        <v>5.5623143434440232</v>
       </c>
       <c r="I277" s="146"/>
       <c r="J277" s="146"/>
       <c r="K277" s="146"/>
       <c r="L277" s="146">
-        <v>-0.053192114705653104</v>
+        <v>-0.053192078719194846</v>
       </c>
       <c r="M277" s="146"/>
       <c r="N277" s="146"/>
@@ -18091,13 +18091,13 @@
       <c r="R277" s="146"/>
       <c r="S277" s="146"/>
       <c r="T277" s="146">
-        <v>4.6656103207751061</v>
+        <v>4.665609758884302</v>
       </c>
       <c r="U277" s="146"/>
       <c r="V277" s="146"/>
       <c r="W277" s="146"/>
       <c r="X277" s="146">
-        <v>-0.09076757747718478</v>
+        <v>-0.090768139367988887</v>
       </c>
       <c r="Y277" s="146"/>
       <c r="Z277" s="146"/>
@@ -18115,13 +18115,13 @@
       <c r="F278" s="146"/>
       <c r="G278" s="146"/>
       <c r="H278" s="146">
-        <v>5.5527799406746894</v>
+        <v>5.5527800717164526</v>
       </c>
       <c r="I278" s="146"/>
       <c r="J278" s="146"/>
       <c r="K278" s="146"/>
       <c r="L278" s="146">
-        <v>-0.0392986573718348</v>
+        <v>-0.039298526330071581</v>
       </c>
       <c r="M278" s="146"/>
       <c r="N278" s="146"/>
@@ -18133,13 +18133,13 @@
       <c r="R278" s="146"/>
       <c r="S278" s="146"/>
       <c r="T278" s="146">
-        <v>4.6355169876671942</v>
+        <v>4.6355149415875987</v>
       </c>
       <c r="U278" s="146"/>
       <c r="V278" s="146"/>
       <c r="W278" s="146"/>
       <c r="X278" s="146">
-        <v>-0.0881078053697788</v>
+        <v>-0.088109851449374332</v>
       </c>
       <c r="Y278" s="146"/>
       <c r="Z278" s="146"/>
@@ -18283,13 +18283,13 @@
       <c r="F282" s="146"/>
       <c r="G282" s="146"/>
       <c r="H282" s="146">
-        <v>5.2896157066301424</v>
+        <v>5.28961580578668</v>
       </c>
       <c r="I282" s="146"/>
       <c r="J282" s="146"/>
       <c r="K282" s="146"/>
       <c r="L282" s="146">
-        <v>-0.10848889429547537</v>
+        <v>-0.10848879513893817</v>
       </c>
       <c r="M282" s="146"/>
       <c r="N282" s="146"/>
@@ -18301,13 +18301,13 @@
       <c r="R282" s="146"/>
       <c r="S282" s="146"/>
       <c r="T282" s="146">
-        <v>4.4697867848895712</v>
+        <v>4.4697852366642374</v>
       </c>
       <c r="U282" s="146"/>
       <c r="V282" s="146"/>
       <c r="W282" s="146"/>
       <c r="X282" s="146">
-        <v>-0.16260214650902949</v>
+        <v>-0.1626036947343632</v>
       </c>
       <c r="Y282" s="146"/>
       <c r="Z282" s="146"/>
@@ -18619,13 +18619,13 @@
       <c r="F290" s="146"/>
       <c r="G290" s="146"/>
       <c r="H290" s="146">
-        <v>5.4034297664367648</v>
+        <v>5.4034298455421421</v>
       </c>
       <c r="I290" s="146"/>
       <c r="J290" s="146"/>
       <c r="K290" s="146"/>
       <c r="L290" s="146">
-        <v>-0.046958026291098243</v>
+        <v>-0.046957947185720883</v>
       </c>
       <c r="M290" s="146"/>
       <c r="N290" s="146"/>
@@ -18637,13 +18637,13 @@
       <c r="R290" s="146"/>
       <c r="S290" s="146"/>
       <c r="T290" s="146">
-        <v>4.6698857709659</v>
+        <v>4.6698845358184045</v>
       </c>
       <c r="U290" s="146"/>
       <c r="V290" s="146"/>
       <c r="W290" s="146"/>
       <c r="X290" s="146">
-        <v>-0.10380749369776687</v>
+        <v>-0.10380872884526227</v>
       </c>
       <c r="Y290" s="146"/>
       <c r="Z290" s="146"/>
@@ -18867,13 +18867,13 @@
       <c r="F296" s="146"/>
       <c r="G296" s="146"/>
       <c r="H296" s="146">
-        <v>4.3174746306136447</v>
+        <v>4.3177261900194237</v>
       </c>
       <c r="I296" s="146"/>
       <c r="J296" s="146"/>
       <c r="K296" s="146"/>
       <c r="L296" s="146">
-        <v>-0.091606183595033031</v>
+        <v>-0.091354624189254</v>
       </c>
       <c r="M296" s="146"/>
       <c r="N296" s="146"/>
@@ -18885,13 +18885,13 @@
       <c r="R296" s="146"/>
       <c r="S296" s="146"/>
       <c r="T296" s="146">
-        <v>3.7206452426477092</v>
+        <v>3.7207235674970458</v>
       </c>
       <c r="U296" s="146"/>
       <c r="V296" s="146"/>
       <c r="W296" s="146"/>
       <c r="X296" s="146">
-        <v>-0.11630588834517752</v>
+        <v>-0.11622756349584096</v>
       </c>
       <c r="Y296" s="146"/>
       <c r="Z296" s="146"/>
@@ -19448,13 +19448,13 @@
       <c r="F312" s="143"/>
       <c r="G312" s="143"/>
       <c r="H312" s="143">
-        <v>49417.878929821745</v>
+        <v>49418.268894797278</v>
       </c>
       <c r="I312" s="143"/>
       <c r="J312" s="143"/>
       <c r="K312" s="143"/>
       <c r="L312" s="143">
-        <v>2633.6393073910476</v>
+        <v>2634.0292723665834</v>
       </c>
       <c r="M312" s="143"/>
       <c r="N312" s="143"/>
@@ -19466,13 +19466,13 @@
       <c r="R312" s="143"/>
       <c r="S312" s="143"/>
       <c r="T312" s="143">
-        <v>51680.659724038691</v>
+        <v>51681.392348029978</v>
       </c>
       <c r="U312" s="143"/>
       <c r="V312" s="143"/>
       <c r="W312" s="143"/>
       <c r="X312" s="143">
-        <v>2334.4882508750411</v>
+        <v>2335.2208748663293</v>
       </c>
       <c r="Y312" s="143"/>
       <c r="Z312" s="143"/>
@@ -19490,13 +19490,13 @@
       <c r="F313" s="143"/>
       <c r="G313" s="143"/>
       <c r="H313" s="143">
-        <v>16630.95570685673</v>
+        <v>16631.161462912005</v>
       </c>
       <c r="I313" s="143"/>
       <c r="J313" s="143"/>
       <c r="K313" s="143"/>
       <c r="L313" s="143">
-        <v>1486.2081934552211</v>
+        <v>1486.4139495104942</v>
       </c>
       <c r="M313" s="143"/>
       <c r="N313" s="143"/>
@@ -19508,13 +19508,13 @@
       <c r="R313" s="143"/>
       <c r="S313" s="143"/>
       <c r="T313" s="143">
-        <v>17252.527677861282</v>
+        <v>17252.803767898378</v>
       </c>
       <c r="U313" s="143"/>
       <c r="V313" s="143"/>
       <c r="W313" s="143"/>
       <c r="X313" s="143">
-        <v>1409.6262729686332</v>
+        <v>1409.9023630057293</v>
       </c>
       <c r="Y313" s="143"/>
       <c r="Z313" s="143"/>
@@ -19532,13 +19532,13 @@
       <c r="F314" s="145"/>
       <c r="G314" s="145"/>
       <c r="H314" s="145">
-        <v>66048.834636678468</v>
+        <v>66049.43035770928</v>
       </c>
       <c r="I314" s="145"/>
       <c r="J314" s="145"/>
       <c r="K314" s="145"/>
       <c r="L314" s="145">
-        <v>4119.8475008463265</v>
+        <v>4120.4432218771353</v>
       </c>
       <c r="M314" s="145"/>
       <c r="N314" s="145"/>
@@ -19550,13 +19550,13 @@
       <c r="R314" s="145"/>
       <c r="S314" s="145"/>
       <c r="T314" s="145">
-        <v>68933.187401900053</v>
+        <v>68934.196115928382</v>
       </c>
       <c r="U314" s="145"/>
       <c r="V314" s="145"/>
       <c r="W314" s="145"/>
       <c r="X314" s="145">
-        <v>3744.1145238436984</v>
+        <v>3745.1232378720269</v>
       </c>
       <c r="Y314" s="145"/>
       <c r="Z314" s="145"/>
@@ -20154,13 +20154,13 @@
       <c r="F329" s="143"/>
       <c r="G329" s="143"/>
       <c r="H329" s="143">
-        <v>718.46938421199525</v>
+        <v>718.46936008304272</v>
       </c>
       <c r="I329" s="143"/>
       <c r="J329" s="143"/>
       <c r="K329" s="143"/>
       <c r="L329" s="143">
-        <v>-89.773293468329939</v>
+        <v>-89.773317597282471</v>
       </c>
       <c r="M329" s="143"/>
       <c r="N329" s="143"/>
@@ -20172,13 +20172,13 @@
       <c r="R329" s="143"/>
       <c r="S329" s="143"/>
       <c r="T329" s="143">
-        <v>726.41944060414892</v>
+        <v>726.41981501721534</v>
       </c>
       <c r="U329" s="143"/>
       <c r="V329" s="143"/>
       <c r="W329" s="143"/>
       <c r="X329" s="143">
-        <v>-87.535598603439979</v>
+        <v>-87.535224190373555</v>
       </c>
       <c r="Y329" s="143"/>
       <c r="Z329" s="143"/>
@@ -20238,13 +20238,13 @@
       <c r="F331" s="143"/>
       <c r="G331" s="143"/>
       <c r="H331" s="143">
-        <v>260.11630104013278</v>
+        <v>260.11629230443197</v>
       </c>
       <c r="I331" s="143"/>
       <c r="J331" s="143"/>
       <c r="K331" s="143"/>
       <c r="L331" s="143">
-        <v>44.040399152236176</v>
+        <v>44.040390416535374</v>
       </c>
       <c r="M331" s="143"/>
       <c r="N331" s="143"/>
@@ -20256,13 +20256,13 @@
       <c r="R331" s="143"/>
       <c r="S331" s="143"/>
       <c r="T331" s="143">
-        <v>262.99455766070861</v>
+        <v>262.99469321407236</v>
       </c>
       <c r="U331" s="143"/>
       <c r="V331" s="143"/>
       <c r="W331" s="143"/>
       <c r="X331" s="143">
-        <v>45.391510890466918</v>
+        <v>45.391646443830687</v>
       </c>
       <c r="Y331" s="143"/>
       <c r="Z331" s="143"/>
@@ -20280,13 +20280,13 @@
       <c r="F332" s="145"/>
       <c r="G332" s="145"/>
       <c r="H332" s="145">
-        <v>13869.244288630613</v>
+        <v>13869.244279894921</v>
       </c>
       <c r="I332" s="145"/>
       <c r="J332" s="145"/>
       <c r="K332" s="145"/>
       <c r="L332" s="145">
-        <v>252.94322786131502</v>
+        <v>252.94321912562475</v>
       </c>
       <c r="M332" s="145"/>
       <c r="N332" s="145"/>
@@ -20298,13 +20298,13 @@
       <c r="R332" s="145"/>
       <c r="S332" s="145"/>
       <c r="T332" s="145">
-        <v>14709.764505812649</v>
+        <v>14709.764641365999</v>
       </c>
       <c r="U332" s="145"/>
       <c r="V332" s="145"/>
       <c r="W332" s="145"/>
       <c r="X332" s="145">
-        <v>-182.04818234067224</v>
+        <v>-182.04804678732157</v>
       </c>
       <c r="Y332" s="145"/>
       <c r="Z332" s="145"/>
@@ -20322,13 +20322,13 @@
       <c r="F333" s="145"/>
       <c r="G333" s="145"/>
       <c r="H333" s="145">
-        <v>14587.71367284261</v>
+        <v>14587.713639977961</v>
       </c>
       <c r="I333" s="145"/>
       <c r="J333" s="145"/>
       <c r="K333" s="145"/>
       <c r="L333" s="145">
-        <v>163.16993439296633</v>
+        <v>163.16990152831747</v>
       </c>
       <c r="M333" s="145"/>
       <c r="N333" s="145"/>
@@ -20340,13 +20340,13 @@
       <c r="R333" s="145"/>
       <c r="S333" s="145"/>
       <c r="T333" s="145">
-        <v>15436.183946416799</v>
+        <v>15436.184456383209</v>
       </c>
       <c r="U333" s="145"/>
       <c r="V333" s="145"/>
       <c r="W333" s="145"/>
       <c r="X333" s="145">
-        <v>-269.58378094412012</v>
+        <v>-269.58327097770945</v>
       </c>
       <c r="Y333" s="145"/>
       <c r="Z333" s="145"/>
@@ -20490,13 +20490,13 @@
       <c r="F337" s="145"/>
       <c r="G337" s="145"/>
       <c r="H337" s="145">
-        <v>19667.681889735602</v>
+        <v>19667.681856870931</v>
       </c>
       <c r="I337" s="145"/>
       <c r="J337" s="145"/>
       <c r="K337" s="145"/>
       <c r="L337" s="145">
-        <v>430.40860109307243</v>
+        <v>430.40856822840124</v>
       </c>
       <c r="M337" s="145"/>
       <c r="N337" s="145"/>
@@ -20508,13 +20508,13 @@
       <c r="R337" s="145"/>
       <c r="S337" s="145"/>
       <c r="T337" s="145">
-        <v>20913.37936606833</v>
+        <v>20913.379876034774</v>
       </c>
       <c r="U337" s="145"/>
       <c r="V337" s="145"/>
       <c r="W337" s="145"/>
       <c r="X337" s="145">
-        <v>26.121899878151716</v>
+        <v>26.122409844595939</v>
       </c>
       <c r="Y337" s="145"/>
       <c r="Z337" s="145"/>
@@ -20826,13 +20826,13 @@
       <c r="F345" s="145"/>
       <c r="G345" s="145"/>
       <c r="H345" s="145">
-        <v>24293.577073236254</v>
+        <v>24293.577040371591</v>
       </c>
       <c r="I345" s="145"/>
       <c r="J345" s="145"/>
       <c r="K345" s="145"/>
       <c r="L345" s="145">
-        <v>555.20333567108582</v>
+        <v>555.20330280642213</v>
       </c>
       <c r="M345" s="145"/>
       <c r="N345" s="145"/>
@@ -20844,13 +20844,13 @@
       <c r="R345" s="145"/>
       <c r="S345" s="145"/>
       <c r="T345" s="145">
-        <v>28574.560798160463</v>
+        <v>28574.561308126904</v>
       </c>
       <c r="U345" s="145"/>
       <c r="V345" s="145"/>
       <c r="W345" s="145"/>
       <c r="X345" s="145">
-        <v>-1369.5962417833955</v>
+        <v>-1369.5957318169549</v>
       </c>
       <c r="Y345" s="145"/>
       <c r="Z345" s="145"/>
@@ -21074,13 +21074,13 @@
       <c r="F351" s="145"/>
       <c r="G351" s="145"/>
       <c r="H351" s="145">
-        <v>92606.388359830016</v>
+        <v>92606.984047996157</v>
       </c>
       <c r="I351" s="145"/>
       <c r="J351" s="145"/>
       <c r="K351" s="145"/>
       <c r="L351" s="145">
-        <v>3603.033326403111</v>
+        <v>3603.6290145692528</v>
       </c>
       <c r="M351" s="145"/>
       <c r="N351" s="145"/>
@@ -21092,13 +21092,13 @@
       <c r="R351" s="145"/>
       <c r="S351" s="145"/>
       <c r="T351" s="145">
-        <v>97668.755881933859</v>
+        <v>97669.765105928687</v>
       </c>
       <c r="U351" s="145"/>
       <c r="V351" s="145"/>
       <c r="W351" s="145"/>
       <c r="X351" s="145">
-        <v>2367.6034260472356</v>
+        <v>2368.6126500420719</v>
       </c>
       <c r="Y351" s="145"/>
       <c r="Z351" s="145"/>
@@ -21701,13 +21701,13 @@
       <c r="F368" s="138"/>
       <c r="G368" s="138"/>
       <c r="H368" s="138">
-        <v>0.11242884329999998</v>
+        <v>0.11441267170000001</v>
       </c>
       <c r="I368" s="138"/>
       <c r="J368" s="138"/>
       <c r="K368" s="138"/>
       <c r="L368" s="138">
-        <v>-0.010899831900000018</v>
+        <v>-0.0089160034999999915</v>
       </c>
       <c r="M368" s="138"/>
       <c r="N368" s="138"/>
@@ -21719,13 +21719,13 @@
       <c r="R368" s="138"/>
       <c r="S368" s="138"/>
       <c r="T368" s="138">
-        <v>0.17313909419999998</v>
+        <v>0.17417415299999997</v>
       </c>
       <c r="U368" s="138"/>
       <c r="V368" s="138"/>
       <c r="W368" s="138"/>
       <c r="X368" s="138">
-        <v>0.0312387093</v>
+        <v>0.032273768099999989</v>
       </c>
       <c r="Y368" s="138"/>
       <c r="Z368" s="138"/>
@@ -21743,13 +21743,13 @@
       <c r="F369" s="146"/>
       <c r="G369" s="146"/>
       <c r="H369" s="146">
-        <v>0.0078680336513374579</v>
+        <v>0.00873709179386692</v>
       </c>
       <c r="I369" s="146"/>
       <c r="J369" s="146"/>
       <c r="K369" s="146"/>
       <c r="L369" s="146">
-        <v>-0.0012975883857491034</v>
+        <v>-0.00042853024321964049</v>
       </c>
       <c r="M369" s="146"/>
       <c r="N369" s="146"/>
@@ -21761,13 +21761,13 @@
       <c r="R369" s="146"/>
       <c r="S369" s="146"/>
       <c r="T369" s="146">
-        <v>0.014392779443537519</v>
+        <v>0.014420238009770556</v>
       </c>
       <c r="U369" s="146"/>
       <c r="V369" s="146"/>
       <c r="W369" s="146"/>
       <c r="X369" s="146">
-        <v>0.0014877628061870409</v>
+        <v>0.001515221372420078</v>
       </c>
       <c r="Y369" s="146"/>
       <c r="Z369" s="146"/>
@@ -22365,13 +22365,13 @@
       <c r="F384" s="138"/>
       <c r="G384" s="138"/>
       <c r="H384" s="138">
-        <v>3.0732040739</v>
+        <v>3.0731625767999997</v>
       </c>
       <c r="I384" s="138"/>
       <c r="J384" s="138"/>
       <c r="K384" s="138"/>
       <c r="L384" s="138">
-        <v>-0.21926838550000083</v>
+        <v>-0.21930988260000106</v>
       </c>
       <c r="M384" s="138"/>
       <c r="N384" s="138"/>
@@ -22383,13 +22383,13 @@
       <c r="R384" s="138"/>
       <c r="S384" s="138"/>
       <c r="T384" s="138">
-        <v>3.1330384079999996</v>
+        <v>3.1329116113999995</v>
       </c>
       <c r="U384" s="138"/>
       <c r="V384" s="138"/>
       <c r="W384" s="138"/>
       <c r="X384" s="138">
-        <v>-0.17841219770000016</v>
+        <v>-0.1785389943000002</v>
       </c>
       <c r="Y384" s="138"/>
       <c r="Z384" s="138"/>
@@ -22449,13 +22449,13 @@
       <c r="F386" s="138"/>
       <c r="G386" s="138"/>
       <c r="H386" s="138">
-        <v>3.0732040739</v>
+        <v>3.0731625767999997</v>
       </c>
       <c r="I386" s="138"/>
       <c r="J386" s="138"/>
       <c r="K386" s="138"/>
       <c r="L386" s="138">
-        <v>-0.21926838550000083</v>
+        <v>-0.21930988260000106</v>
       </c>
       <c r="M386" s="138"/>
       <c r="N386" s="138"/>
@@ -22467,13 +22467,13 @@
       <c r="R386" s="138"/>
       <c r="S386" s="138"/>
       <c r="T386" s="138">
-        <v>3.1330384079999996</v>
+        <v>3.1329116113999995</v>
       </c>
       <c r="U386" s="138"/>
       <c r="V386" s="138"/>
       <c r="W386" s="138"/>
       <c r="X386" s="138">
-        <v>-0.17841219770000016</v>
+        <v>-0.1785389943000002</v>
       </c>
       <c r="Y386" s="138"/>
       <c r="Z386" s="138"/>
@@ -22491,13 +22491,13 @@
       <c r="F387" s="146"/>
       <c r="G387" s="146"/>
       <c r="H387" s="146">
-        <v>2.7704892666225063</v>
+        <v>2.7704886540085734</v>
       </c>
       <c r="I387" s="146"/>
       <c r="J387" s="146"/>
       <c r="K387" s="146"/>
       <c r="L387" s="146">
-        <v>-0.19003322009278678</v>
+        <v>-0.1900338327067197</v>
       </c>
       <c r="M387" s="146"/>
       <c r="N387" s="146"/>
@@ -22509,13 +22509,13 @@
       <c r="R387" s="146"/>
       <c r="S387" s="146"/>
       <c r="T387" s="146">
-        <v>2.9211866272647984</v>
+        <v>2.9211842903447174</v>
       </c>
       <c r="U387" s="146"/>
       <c r="V387" s="146"/>
       <c r="W387" s="146"/>
       <c r="X387" s="146">
-        <v>-0.1635538118684754</v>
+        <v>-0.1635561487885564</v>
       </c>
       <c r="Y387" s="146"/>
       <c r="Z387" s="146"/>
@@ -22533,13 +22533,13 @@
       <c r="F388" s="146"/>
       <c r="G388" s="146"/>
       <c r="H388" s="146">
-        <v>2.785731074675557</v>
+        <v>2.7857288567282361</v>
       </c>
       <c r="I388" s="146"/>
       <c r="J388" s="146"/>
       <c r="K388" s="146"/>
       <c r="L388" s="146">
-        <v>-0.19364372377142969</v>
+        <v>-0.1936459417187506</v>
       </c>
       <c r="M388" s="146"/>
       <c r="N388" s="146"/>
@@ -22551,13 +22551,13 @@
       <c r="R388" s="146"/>
       <c r="S388" s="146"/>
       <c r="T388" s="146">
-        <v>2.9311705146742941</v>
+        <v>2.9311621531842853</v>
       </c>
       <c r="U388" s="146"/>
       <c r="V388" s="146"/>
       <c r="W388" s="146"/>
       <c r="X388" s="146">
-        <v>-0.16538768376012802</v>
+        <v>-0.16539604525013685</v>
       </c>
       <c r="Y388" s="146"/>
       <c r="Z388" s="146"/>
@@ -22701,13 +22701,13 @@
       <c r="F392" s="146"/>
       <c r="G392" s="146"/>
       <c r="H392" s="146">
-        <v>2.9021563057082531</v>
+        <v>2.9021545863518843</v>
       </c>
       <c r="I392" s="146"/>
       <c r="J392" s="146"/>
       <c r="K392" s="146"/>
       <c r="L392" s="146">
-        <v>-0.18555225966643762</v>
+        <v>-0.18555397902280646</v>
       </c>
       <c r="M392" s="146"/>
       <c r="N392" s="146"/>
@@ -22719,13 +22719,13 @@
       <c r="R392" s="146"/>
       <c r="S392" s="146"/>
       <c r="T392" s="146">
-        <v>3.0508815858455258</v>
+        <v>3.0508754793713653</v>
       </c>
       <c r="U392" s="146"/>
       <c r="V392" s="146"/>
       <c r="W392" s="146"/>
       <c r="X392" s="146">
-        <v>-0.1558435578503774</v>
+        <v>-0.15584966432453795</v>
       </c>
       <c r="Y392" s="146"/>
       <c r="Z392" s="146"/>
@@ -23037,13 +23037,13 @@
       <c r="F400" s="146"/>
       <c r="G400" s="146"/>
       <c r="H400" s="146">
-        <v>3.3069281330703819</v>
+        <v>3.3069267292717672</v>
       </c>
       <c r="I400" s="146"/>
       <c r="J400" s="146"/>
       <c r="K400" s="146"/>
       <c r="L400" s="146">
-        <v>-0.18810979828500729</v>
+        <v>-0.18811120208362198</v>
       </c>
       <c r="M400" s="146"/>
       <c r="N400" s="146"/>
@@ -23055,13 +23055,13 @@
       <c r="R400" s="146"/>
       <c r="S400" s="146"/>
       <c r="T400" s="146">
-        <v>3.6017323116095992</v>
+        <v>3.6017279453651603</v>
       </c>
       <c r="U400" s="146"/>
       <c r="V400" s="146"/>
       <c r="W400" s="146"/>
       <c r="X400" s="146">
-        <v>-0.14389190436613886</v>
+        <v>-0.14389627061057775</v>
       </c>
       <c r="Y400" s="146"/>
       <c r="Z400" s="146"/>
@@ -23285,13 +23285,13 @@
       <c r="F406" s="146"/>
       <c r="G406" s="146"/>
       <c r="H406" s="146">
-        <v>1.0246358848366972</v>
+        <v>1.0254215398311557</v>
       </c>
       <c r="I406" s="146"/>
       <c r="J406" s="146"/>
       <c r="K406" s="146"/>
       <c r="L406" s="146">
-        <v>-0.07192175533780687</v>
+        <v>-0.071136100343348385</v>
       </c>
       <c r="M406" s="146"/>
       <c r="N406" s="146"/>
@@ -23303,13 +23303,13 @@
       <c r="R406" s="146"/>
       <c r="S406" s="146"/>
       <c r="T406" s="146">
-        <v>1.2027886890280264</v>
+        <v>1.202790266513027</v>
       </c>
       <c r="U406" s="146"/>
       <c r="V406" s="146"/>
       <c r="W406" s="146"/>
       <c r="X406" s="146">
-        <v>-0.11777803462933134</v>
+        <v>-0.11777645714433072</v>
       </c>
       <c r="Y406" s="146"/>
       <c r="Z406" s="146"/>
@@ -24034,13 +24034,13 @@
       <c r="F426" s="143"/>
       <c r="G426" s="143"/>
       <c r="H426" s="143">
-        <v>15.07098911195409</v>
+        <v>15.070989110427464</v>
       </c>
       <c r="I426" s="143"/>
       <c r="J426" s="143"/>
       <c r="K426" s="143"/>
       <c r="L426" s="143">
-        <v>-1.847514901810422</v>
+        <v>-1.847514903337049</v>
       </c>
       <c r="M426" s="143"/>
       <c r="N426" s="143"/>
@@ -24052,13 +24052,13 @@
       <c r="R426" s="143"/>
       <c r="S426" s="143"/>
       <c r="T426" s="143">
-        <v>14.72083738322862</v>
+        <v>14.72083739036262</v>
       </c>
       <c r="U426" s="143"/>
       <c r="V426" s="143"/>
       <c r="W426" s="143"/>
       <c r="X426" s="143">
-        <v>-1.7944458764401388</v>
+        <v>-1.7944458693061387</v>
       </c>
       <c r="Y426" s="143"/>
       <c r="Z426" s="143"/>
@@ -24118,13 +24118,13 @@
       <c r="F428" s="143"/>
       <c r="G428" s="143"/>
       <c r="H428" s="143">
-        <v>5.45633540824731</v>
+        <v>5.4563354076946089</v>
       </c>
       <c r="I428" s="143"/>
       <c r="J428" s="143"/>
       <c r="K428" s="143"/>
       <c r="L428" s="143">
-        <v>0.93333617259677426</v>
+        <v>0.93333617204407349</v>
       </c>
       <c r="M428" s="143"/>
       <c r="N428" s="143"/>
@@ -24136,13 +24136,13 @@
       <c r="R428" s="143"/>
       <c r="S428" s="143"/>
       <c r="T428" s="143">
-        <v>5.3295656745883333</v>
+        <v>5.3295656771706037</v>
       </c>
       <c r="U428" s="143"/>
       <c r="V428" s="143"/>
       <c r="W428" s="143"/>
       <c r="X428" s="143">
-        <v>0.91436362721710063</v>
+        <v>0.9143636297993708</v>
       </c>
       <c r="Y428" s="143"/>
       <c r="Z428" s="143"/>
@@ -24160,13 +24160,13 @@
       <c r="F429" s="145"/>
       <c r="G429" s="145"/>
       <c r="H429" s="145">
-        <v>70.5178342887884</v>
+        <v>70.517834288235591</v>
       </c>
       <c r="I429" s="145"/>
       <c r="J429" s="145"/>
       <c r="K429" s="145"/>
       <c r="L429" s="145">
-        <v>1.6288647793062991</v>
+        <v>1.6288647787534865</v>
       </c>
       <c r="M429" s="145"/>
       <c r="N429" s="145"/>
@@ -24178,13 +24178,13 @@
       <c r="R429" s="145"/>
       <c r="S429" s="145"/>
       <c r="T429" s="145">
-        <v>146.19969599316679</v>
+        <v>146.1996959957489</v>
       </c>
       <c r="U429" s="145"/>
       <c r="V429" s="145"/>
       <c r="W429" s="145"/>
       <c r="X429" s="145">
-        <v>1.108847153139999</v>
+        <v>1.1088471557220909</v>
       </c>
       <c r="Y429" s="145"/>
       <c r="Z429" s="145"/>
@@ -24202,13 +24202,13 @@
       <c r="F430" s="145"/>
       <c r="G430" s="145"/>
       <c r="H430" s="145">
-        <v>85.588823400742328</v>
+        <v>85.58882339866301</v>
       </c>
       <c r="I430" s="145"/>
       <c r="J430" s="145"/>
       <c r="K430" s="145"/>
       <c r="L430" s="145">
-        <v>-0.21865012250431756</v>
+        <v>-0.21865012458364072</v>
       </c>
       <c r="M430" s="145"/>
       <c r="N430" s="145"/>
@@ -24220,13 +24220,13 @@
       <c r="R430" s="145"/>
       <c r="S430" s="145"/>
       <c r="T430" s="145">
-        <v>160.92053337639518</v>
+        <v>160.9205333861116</v>
       </c>
       <c r="U430" s="145"/>
       <c r="V430" s="145"/>
       <c r="W430" s="145"/>
       <c r="X430" s="145">
-        <v>-0.68559872330035432</v>
+        <v>-0.6855987135839241</v>
       </c>
       <c r="Y430" s="145"/>
       <c r="Z430" s="145"/>
@@ -24370,13 +24370,13 @@
       <c r="F434" s="145"/>
       <c r="G434" s="145"/>
       <c r="H434" s="145">
-        <v>155.96870176993954</v>
+        <v>155.9687017678603</v>
       </c>
       <c r="I434" s="145"/>
       <c r="J434" s="145"/>
       <c r="K434" s="145"/>
       <c r="L434" s="145">
-        <v>2.5101275187945578</v>
+        <v>2.5101275167153219</v>
       </c>
       <c r="M434" s="145"/>
       <c r="N434" s="145"/>
@@ -24388,13 +24388,13 @@
       <c r="R434" s="145"/>
       <c r="S434" s="145"/>
       <c r="T434" s="145">
-        <v>256.514612925146</v>
+        <v>256.51461293486238</v>
       </c>
       <c r="U434" s="145"/>
       <c r="V434" s="145"/>
       <c r="W434" s="145"/>
       <c r="X434" s="145">
-        <v>3.3932860871284212</v>
+        <v>3.3932860968448222</v>
       </c>
       <c r="Y434" s="145"/>
       <c r="Z434" s="145"/>
@@ -24706,13 +24706,13 @@
       <c r="F442" s="145"/>
       <c r="G442" s="145"/>
       <c r="H442" s="145">
-        <v>297.8718754342936</v>
+        <v>297.87187543221421</v>
       </c>
       <c r="I442" s="145"/>
       <c r="J442" s="145"/>
       <c r="K442" s="145"/>
       <c r="L442" s="145">
-        <v>3.3595700262170869</v>
+        <v>3.3595700241377346</v>
       </c>
       <c r="M442" s="145"/>
       <c r="N442" s="145"/>
@@ -24724,13 +24724,13 @@
       <c r="R442" s="145"/>
       <c r="S442" s="145"/>
       <c r="T442" s="145">
-        <v>426.79646867899197</v>
+        <v>426.79646868870827</v>
       </c>
       <c r="U442" s="145"/>
       <c r="V442" s="145"/>
       <c r="W442" s="145"/>
       <c r="X442" s="145">
-        <v>2.3427369176375796</v>
+        <v>2.3427369273538936</v>
       </c>
       <c r="Y442" s="145"/>
       <c r="Z442" s="145"/>
@@ -25076,13 +25076,13 @@
       <c r="F452" s="143"/>
       <c r="G452" s="143"/>
       <c r="H452" s="143">
-        <v>27.081068598149702</v>
+        <v>27.081049212439098</v>
       </c>
       <c r="I452" s="143"/>
       <c r="J452" s="143"/>
       <c r="K452" s="143"/>
       <c r="L452" s="143">
-        <v>-3.3321502205939977</v>
+        <v>-3.3321696063046002</v>
       </c>
       <c r="M452" s="143"/>
       <c r="N452" s="143"/>
@@ -25094,13 +25094,13 @@
       <c r="R452" s="143"/>
       <c r="S452" s="143"/>
       <c r="T452" s="143">
-        <v>25.57811148503</v>
+        <v>25.5780685724096</v>
       </c>
       <c r="U452" s="143"/>
       <c r="V452" s="143"/>
       <c r="W452" s="143"/>
       <c r="X452" s="143">
-        <v>-3.207001153196201</v>
+        <v>-3.2070440658166008</v>
       </c>
       <c r="Y452" s="143"/>
       <c r="Z452" s="143"/>
@@ -25160,13 +25160,13 @@
       <c r="F454" s="143"/>
       <c r="G454" s="143"/>
       <c r="H454" s="143">
-        <v>9.80449208659158</v>
+        <v>9.8044850681445812</v>
       </c>
       <c r="I454" s="143"/>
       <c r="J454" s="143"/>
       <c r="K454" s="143"/>
       <c r="L454" s="143">
-        <v>1.6738107119893793</v>
+        <v>1.6738036935423806</v>
       </c>
       <c r="M454" s="143"/>
       <c r="N454" s="143"/>
@@ -25178,13 +25178,13 @@
       <c r="R454" s="143"/>
       <c r="S454" s="143"/>
       <c r="T454" s="143">
-        <v>9.26035805182634</v>
+        <v>9.26034251564298</v>
       </c>
       <c r="U454" s="143"/>
       <c r="V454" s="143"/>
       <c r="W454" s="143"/>
       <c r="X454" s="143">
-        <v>1.5649351967746406</v>
+        <v>1.5649196605912803</v>
       </c>
       <c r="Y454" s="143"/>
       <c r="Z454" s="143"/>
@@ -25202,13 +25202,13 @@
       <c r="F455" s="145"/>
       <c r="G455" s="145"/>
       <c r="H455" s="145">
-        <v>600.365789566636</v>
+        <v>600.365782548189</v>
       </c>
       <c r="I455" s="145"/>
       <c r="J455" s="145"/>
       <c r="K455" s="145"/>
       <c r="L455" s="145">
-        <v>10.891763556881925</v>
+        <v>10.891756538435002</v>
       </c>
       <c r="M455" s="145"/>
       <c r="N455" s="145"/>
@@ -25220,13 +25220,13 @@
       <c r="R455" s="145"/>
       <c r="S455" s="145"/>
       <c r="T455" s="145">
-        <v>675.848325040108</v>
+        <v>675.84830950392507</v>
       </c>
       <c r="U455" s="145"/>
       <c r="V455" s="145"/>
       <c r="W455" s="145"/>
       <c r="X455" s="145">
-        <v>10.212299114960944</v>
+        <v>10.212283578778035</v>
       </c>
       <c r="Y455" s="145"/>
       <c r="Z455" s="145"/>
@@ -25244,13 +25244,13 @@
       <c r="F456" s="145"/>
       <c r="G456" s="145"/>
       <c r="H456" s="145">
-        <v>627.446858164786</v>
+        <v>627.446831760628</v>
       </c>
       <c r="I456" s="145"/>
       <c r="J456" s="145"/>
       <c r="K456" s="145"/>
       <c r="L456" s="145">
-        <v>7.5596133362890683</v>
+        <v>7.5595869321310891</v>
       </c>
       <c r="M456" s="145"/>
       <c r="N456" s="145"/>
@@ -25262,13 +25262,13 @@
       <c r="R456" s="145"/>
       <c r="S456" s="145"/>
       <c r="T456" s="145">
-        <v>701.426436525138</v>
+        <v>701.426378076334</v>
       </c>
       <c r="U456" s="145"/>
       <c r="V456" s="145"/>
       <c r="W456" s="145"/>
       <c r="X456" s="145">
-        <v>7.0052979617649687</v>
+        <v>7.0052395129610083</v>
       </c>
       <c r="Y456" s="145"/>
       <c r="Z456" s="145"/>
@@ -25412,13 +25412,13 @@
       <c r="F460" s="145"/>
       <c r="G460" s="145"/>
       <c r="H460" s="145">
-        <v>1031.4929920024501</v>
+        <v>1031.49296559829</v>
       </c>
       <c r="I460" s="145"/>
       <c r="J460" s="145"/>
       <c r="K460" s="145"/>
       <c r="L460" s="145">
-        <v>19.439432075460093</v>
+        <v>19.439405671300019</v>
       </c>
       <c r="M460" s="145"/>
       <c r="N460" s="145"/>
@@ -25430,13 +25430,13 @@
       <c r="R460" s="145"/>
       <c r="S460" s="145"/>
       <c r="T460" s="145">
-        <v>1404.74650844916</v>
+        <v>1404.7464500003498</v>
       </c>
       <c r="U460" s="145"/>
       <c r="V460" s="145"/>
       <c r="W460" s="145"/>
       <c r="X460" s="145">
-        <v>26.802622843950054</v>
+        <v>26.802564395139925</v>
       </c>
       <c r="Y460" s="145"/>
       <c r="Z460" s="145"/>
@@ -25748,13 +25748,13 @@
       <c r="F468" s="145"/>
       <c r="G468" s="145"/>
       <c r="H468" s="145">
-        <v>1301.58480469133</v>
+        <v>1301.58477828718</v>
       </c>
       <c r="I468" s="145"/>
       <c r="J468" s="145"/>
       <c r="K468" s="145"/>
       <c r="L468" s="145">
-        <v>22.31990385687002</v>
+        <v>22.319877452719957</v>
       </c>
       <c r="M468" s="145"/>
       <c r="N468" s="145"/>
@@ -25766,13 +25766,13 @@
       <c r="R468" s="145"/>
       <c r="S468" s="145"/>
       <c r="T468" s="145">
-        <v>1719.23550689851</v>
+        <v>1719.23544844971</v>
       </c>
       <c r="U468" s="145"/>
       <c r="V468" s="145"/>
       <c r="W468" s="145"/>
       <c r="X468" s="145">
-        <v>5.605045152560109</v>
+        <v>5.604986703759991</v>
       </c>
       <c r="Y468" s="145"/>
       <c r="Z468" s="145"/>
@@ -25924,16 +25924,16 @@
         <v>1286.2005190091011</v>
       </c>
       <c r="G478" s="1">
-        <v>1283.05543915277</v>
+        <v>1283.233695398013</v>
       </c>
       <c r="H478" s="1">
-        <v>1274.960596822656</v>
+        <v>1275.0002560222579</v>
       </c>
       <c r="I478" s="1">
-        <v>1265.9827497771771</v>
+        <v>1265.975668589105</v>
       </c>
       <c r="J478" s="1">
-        <v>1253.521340118074</v>
+        <v>1253.636652368634</v>
       </c>
     </row>
     <row r="493" ht="14.25" customHeight="1">
@@ -26011,7 +26011,7 @@
       <c r="K495" s="52"/>
       <c r="L495" s="52"/>
       <c r="M495" s="52">
-        <v>1507.2359238294362</v>
+        <v>1507.4141800746791</v>
       </c>
       <c r="N495" s="52"/>
       <c r="O495" s="52"/>
@@ -26019,7 +26019,7 @@
       <c r="Q495" s="52"/>
       <c r="R495" s="52"/>
       <c r="S495" s="53">
-        <v>-3.1339380572341797</v>
+        <v>-3.1224820003419631</v>
       </c>
       <c r="T495" s="53"/>
       <c r="U495" s="53"/>
@@ -26044,7 +26044,7 @@
       <c r="K496" s="52"/>
       <c r="L496" s="52"/>
       <c r="M496" s="52">
-        <v>1483.7194768045411</v>
+        <v>1483.7195166873219</v>
       </c>
       <c r="N496" s="52"/>
       <c r="O496" s="52"/>
@@ -26052,7 +26052,7 @@
       <c r="Q496" s="52"/>
       <c r="R496" s="52"/>
       <c r="S496" s="53">
-        <v>-3.6545794282765556</v>
+        <v>-3.6545768384855939</v>
       </c>
       <c r="T496" s="53"/>
       <c r="U496" s="53"/>
@@ -26110,7 +26110,7 @@
       <c r="K498" s="52"/>
       <c r="L498" s="52"/>
       <c r="M498" s="52">
-        <v>3.7942669243593841</v>
+        <v>3.9724832868214648</v>
       </c>
       <c r="N498" s="52"/>
       <c r="O498" s="52"/>
@@ -26118,7 +26118,7 @@
       <c r="Q498" s="52"/>
       <c r="R498" s="52"/>
       <c r="S498" s="53">
-        <v>26.475564145312802</v>
+        <v>32.416109560715491</v>
       </c>
       <c r="T498" s="53"/>
       <c r="U498" s="53"/>
@@ -26176,7 +26176,7 @@
       <c r="K500" s="52"/>
       <c r="L500" s="52"/>
       <c r="M500" s="52">
-        <v>1283.0554391527699</v>
+        <v>1283.2336953980127</v>
       </c>
       <c r="N500" s="52"/>
       <c r="O500" s="52"/>
@@ -26184,7 +26184,7 @@
       <c r="Q500" s="52"/>
       <c r="R500" s="52"/>
       <c r="S500" s="53">
-        <v>-4.5345655392284341</v>
+        <v>-4.5213024257431</v>
       </c>
       <c r="T500" s="53"/>
       <c r="U500" s="53"/>
@@ -26316,7 +26316,7 @@
       <c r="Q504" s="52"/>
       <c r="R504" s="52"/>
       <c r="S504" s="53">
-        <v>-3.1339380572341797</v>
+        <v>-3.1224820003419631</v>
       </c>
       <c r="T504" s="53"/>
       <c r="U504" s="53"/>
@@ -26370,7 +26370,7 @@
       <c r="K506" s="52"/>
       <c r="L506" s="52"/>
       <c r="M506" s="52">
-        <v>73.0936105409456</v>
+        <v>73.1309113988936</v>
       </c>
       <c r="N506" s="52"/>
       <c r="O506" s="52"/>
@@ -26378,7 +26378,7 @@
       <c r="Q506" s="52"/>
       <c r="R506" s="52"/>
       <c r="S506" s="53">
-        <v>-19.67735105390593</v>
+        <v>-19.636361100116922</v>
       </c>
       <c r="T506" s="53"/>
       <c r="U506" s="53"/>
@@ -26403,7 +26403,7 @@
       <c r="K507" s="52"/>
       <c r="L507" s="52"/>
       <c r="M507" s="52">
-        <v>276.21182861182405</v>
+        <v>276.35278399911914</v>
       </c>
       <c r="N507" s="52"/>
       <c r="O507" s="52"/>
@@ -26411,7 +26411,7 @@
       <c r="Q507" s="52"/>
       <c r="R507" s="52"/>
       <c r="S507" s="53">
-        <v>-7.6214620027344324</v>
+        <v>-7.5743197327360736</v>
       </c>
       <c r="T507" s="53"/>
       <c r="U507" s="53"/>
@@ -26494,7 +26494,7 @@
       <c r="K511" s="52"/>
       <c r="L511" s="52"/>
       <c r="M511" s="52">
-        <v>5799.0244106072732</v>
+        <v>5799.350557114607</v>
       </c>
       <c r="N511" s="52"/>
       <c r="O511" s="52"/>
@@ -26502,7 +26502,7 @@
       <c r="Q511" s="52"/>
       <c r="R511" s="52"/>
       <c r="S511" s="53">
-        <v>-4.7935575339472463</v>
+        <v>-4.78820296971586</v>
       </c>
       <c r="T511" s="53"/>
       <c r="U511" s="53"/>
@@ -26527,7 +26527,7 @@
       <c r="K512" s="52"/>
       <c r="L512" s="52"/>
       <c r="M512" s="52">
-        <v>5708.0559290791052</v>
+        <v>5708.0560082812881</v>
       </c>
       <c r="N512" s="52"/>
       <c r="O512" s="52"/>
@@ -26535,7 +26535,7 @@
       <c r="Q512" s="52"/>
       <c r="R512" s="52"/>
       <c r="S512" s="53">
-        <v>-4.6273027722789433</v>
+        <v>-4.627301448934201</v>
       </c>
       <c r="T512" s="53"/>
       <c r="U512" s="53"/>
@@ -26593,7 +26593,7 @@
       <c r="K514" s="52"/>
       <c r="L514" s="52"/>
       <c r="M514" s="52">
-        <v>17.463232097162603</v>
+        <v>17.789299402313503</v>
       </c>
       <c r="N514" s="52"/>
       <c r="O514" s="52"/>
@@ -26601,7 +26601,7 @@
       <c r="Q514" s="52"/>
       <c r="R514" s="52"/>
       <c r="S514" s="53">
-        <v>-35.32136260310147</v>
+        <v>-34.113705917357393</v>
       </c>
       <c r="T514" s="53"/>
       <c r="U514" s="53"/>
@@ -26659,7 +26659,7 @@
       <c r="K516" s="52"/>
       <c r="L516" s="52"/>
       <c r="M516" s="52">
-        <v>5077.5201258706766</v>
+        <v>5077.84627237801</v>
       </c>
       <c r="N516" s="52"/>
       <c r="O516" s="52"/>
@@ -26667,7 +26667,7 @@
       <c r="Q516" s="52"/>
       <c r="R516" s="52"/>
       <c r="S516" s="53">
-        <v>-2.0351123698499602</v>
+        <v>-2.0288197496042768</v>
       </c>
       <c r="T516" s="53"/>
       <c r="U516" s="53"/>
@@ -26799,7 +26799,7 @@
       <c r="Q520" s="52"/>
       <c r="R520" s="52"/>
       <c r="S520" s="53">
-        <v>-4.7935575339472463</v>
+        <v>-4.78820296971586</v>
       </c>
       <c r="T520" s="53"/>
       <c r="U520" s="53"/>
@@ -26853,7 +26853,7 @@
       <c r="K522" s="52"/>
       <c r="L522" s="52"/>
       <c r="M522" s="52">
-        <v>280.927899267137</v>
+        <v>280.99614677523226</v>
       </c>
       <c r="N522" s="52"/>
       <c r="O522" s="52"/>
@@ -26861,7 +26861,7 @@
       <c r="Q522" s="52"/>
       <c r="R522" s="52"/>
       <c r="S522" s="53">
-        <v>-7.2845216940141979</v>
+        <v>-7.2619977639497488</v>
       </c>
       <c r="T522" s="53"/>
       <c r="U522" s="53"/>
@@ -26886,7 +26886,7 @@
       <c r="K523" s="52"/>
       <c r="L523" s="52"/>
       <c r="M523" s="52">
-        <v>1061.5922266035368</v>
+        <v>1061.8501256027746</v>
       </c>
       <c r="N523" s="52"/>
       <c r="O523" s="52"/>
@@ -26894,7 +26894,7 @@
       <c r="Q523" s="52"/>
       <c r="R523" s="52"/>
       <c r="S523" s="53">
-        <v>-7.284521694014253</v>
+        <v>-7.2619977639498172</v>
       </c>
       <c r="T523" s="53"/>
       <c r="U523" s="53"/>
@@ -31556,19 +31556,19 @@
         <v>-11.457873023906027</v>
       </c>
       <c r="D8" s="26">
-        <v>-12.062178347699843</v>
+        <v>-11.151357769977755</v>
       </c>
       <c r="E8" s="12">
         <v>-8.0825269793181587</v>
       </c>
       <c r="F8" s="26">
-        <v>-8.5622347093576572</v>
+        <v>-8.07779943980097</v>
       </c>
       <c r="G8" s="12">
         <v>-26.210077252562172</v>
       </c>
       <c r="H8" s="26">
-        <v>-28.758037963899419</v>
+        <v>-28.758037980893782</v>
       </c>
       <c r="I8" s="12">
         <v>-9.8590214882275067</v>
@@ -31580,7 +31580,7 @@
         <v>2.9356336335122752</v>
       </c>
       <c r="L8" s="12">
-        <v>2.5414636264038215</v>
+        <v>2.702756817453694</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
@@ -31591,19 +31591,19 @@
         <v>-8.1085059598128453</v>
       </c>
       <c r="D9" s="26">
-        <v>-8.5557636459760111</v>
+        <v>-7.8741562388014437</v>
       </c>
       <c r="E9" s="12">
         <v>-5.0260181086675439</v>
       </c>
       <c r="F9" s="26">
-        <v>-5.3638136774842717</v>
+        <v>-5.0035535294552584</v>
       </c>
       <c r="G9" s="12">
         <v>-16.336395461985546</v>
       </c>
       <c r="H9" s="26">
-        <v>-17.7075207340705</v>
+        <v>-17.707520742606835</v>
       </c>
       <c r="I9" s="12">
         <v>-7.6138453899737968</v>
@@ -31615,7 +31615,7 @@
         <v>3.5357963836789414</v>
       </c>
       <c r="L9" s="12">
-        <v>3.15535276473857</v>
+        <v>3.27634540388275</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
@@ -31626,19 +31626,19 @@
         <v>-5.3367995312118124</v>
       </c>
       <c r="D10" s="26">
-        <v>-5.6513701807688195</v>
+        <v>-5.1979549675134</v>
       </c>
       <c r="E10" s="12">
         <v>-3.2902755040446574</v>
       </c>
       <c r="F10" s="26">
-        <v>-3.5880153888953976</v>
+        <v>-3.3498508425786793</v>
       </c>
       <c r="G10" s="12">
         <v>-10.923978017259941</v>
       </c>
       <c r="H10" s="26">
-        <v>-11.832982870804864</v>
+        <v>-11.832982876428627</v>
       </c>
       <c r="I10" s="12">
         <v>-5.1949260315542611</v>
@@ -31650,7 +31650,7 @@
         <v>4.0294384743029</v>
       </c>
       <c r="L10" s="12">
-        <v>3.6607068709764445</v>
+        <v>3.7415718388256494</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
@@ -31661,19 +31661,19 @@
         <v>-2.6590154604754819</v>
       </c>
       <c r="D11" s="26">
-        <v>-2.8798182608081</v>
+        <v>-2.65360139839266</v>
       </c>
       <c r="E11" s="12">
         <v>-1.4321227285589833</v>
       </c>
       <c r="F11" s="26">
-        <v>-1.6512400942790737</v>
+        <v>-1.5331644923721928</v>
       </c>
       <c r="G11" s="12">
         <v>-4.7786720536675089</v>
       </c>
       <c r="H11" s="26">
-        <v>-5.3452816457661152</v>
+        <v>-5.3452816479276839</v>
       </c>
       <c r="I11" s="12">
         <v>-2.628476977435763</v>
@@ -31685,7 +31685,7 @@
         <v>4.5101952230830422</v>
       </c>
       <c r="L11" s="12">
-        <v>4.1462032750391051</v>
+        <v>4.1871139805576707</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
@@ -31720,7 +31720,7 @@
         <v>4.9890056581016138</v>
       </c>
       <c r="L12" s="12">
-        <v>4.653070320122306</v>
+        <v>4.6542007234459328</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
@@ -31731,19 +31731,19 @@
         <v>-0.45483390417940539</v>
       </c>
       <c r="D13" s="26">
-        <v>-0.90699193192471594</v>
+        <v>-0.93140293762519777</v>
       </c>
       <c r="E13" s="12">
         <v>-2.2001069676441412</v>
       </c>
       <c r="F13" s="26">
-        <v>-3.2627495049909108</v>
+        <v>-3.276423190197193</v>
       </c>
       <c r="G13" s="12">
         <v>-0.94531066746025538</v>
       </c>
       <c r="H13" s="26">
-        <v>-0.59613669196661545</v>
+        <v>-0.59613659058191915</v>
       </c>
       <c r="I13" s="12">
         <v>1.0932389149160715</v>
@@ -31755,7 +31755,7 @@
         <v>4.9070194311881989</v>
       </c>
       <c r="L13" s="12">
-        <v>4.4936224651365615</v>
+        <v>4.4904464201970509</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
@@ -31766,19 +31766,19 @@
         <v>-0.45483390417940539</v>
       </c>
       <c r="D14" s="26">
-        <v>-0.90762354707963488</v>
+        <v>-0.9320345122118997</v>
       </c>
       <c r="E14" s="12">
         <v>-2.2001069676441412</v>
       </c>
       <c r="F14" s="26">
-        <v>-3.3091943265933748</v>
+        <v>-3.3228659373591007</v>
       </c>
       <c r="G14" s="12">
         <v>-0.97306095928731351</v>
       </c>
       <c r="H14" s="26">
-        <v>-0.7551980732352529</v>
+        <v>-0.755197972018036</v>
       </c>
       <c r="I14" s="12">
         <v>1.1158330142939315</v>
@@ -31790,7 +31790,7 @@
         <v>4.9070194311881989</v>
       </c>
       <c r="L14" s="12">
-        <v>4.49351129007414</v>
+        <v>4.4903352451345109</v>
       </c>
     </row>
     <row r="15" hidden="1" ht="14.25" customHeight="1">
@@ -31816,19 +31816,19 @@
         <v>-0.45483390417940539</v>
       </c>
       <c r="D16" s="26">
-        <v>-0.90762354707963488</v>
+        <v>-0.9320345122118997</v>
       </c>
       <c r="E16" s="12">
         <v>-2.2001069676441412</v>
       </c>
       <c r="F16" s="26">
-        <v>-3.3091943265933748</v>
+        <v>-3.3228659373591007</v>
       </c>
       <c r="G16" s="12">
         <v>-1.0180964529225964</v>
       </c>
       <c r="H16" s="26">
-        <v>-0.76974745951204182</v>
+        <v>-0.76974735831014418</v>
       </c>
       <c r="I16" s="12">
         <v>1.118754530457392</v>
@@ -31840,7 +31840,7 @@
         <v>4.9070194311881989</v>
       </c>
       <c r="L16" s="12">
-        <v>4.49351129007414</v>
+        <v>4.4903352451345109</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
@@ -31851,19 +31851,19 @@
         <v>-11.81136424650173</v>
       </c>
       <c r="D17" s="26">
-        <v>-12.091304903613134</v>
+        <v>-11.409482242498157</v>
       </c>
       <c r="E17" s="12">
         <v>-11.611444784328706</v>
       </c>
       <c r="F17" s="26">
-        <v>-11.929004083256565</v>
+        <v>-11.578641776902618</v>
       </c>
       <c r="G17" s="12">
         <v>-12.04092803755972</v>
       </c>
       <c r="H17" s="26">
-        <v>-12.576196783080858</v>
+        <v>-12.576195048527024</v>
       </c>
       <c r="I17" s="12">
         <v>-4.2366669345099268</v>
@@ -31875,7 +31875,7 @@
         <v>2.8630763120610112</v>
       </c>
       <c r="L17" s="12">
-        <v>2.5271698694483944</v>
+        <v>2.6481604256739115</v>
       </c>
     </row>
     <row r="18" hidden="1" ht="14.25" customHeight="1">
@@ -31945,10 +31945,10 @@
         <v>5127.8045702069467</v>
       </c>
       <c r="D22" s="5">
-        <v>5077.5201258706766</v>
+        <v>5077.8462723780094</v>
       </c>
       <c r="E22" s="31">
-        <v>-50.284444336269985</v>
+        <v>-49.958297828936949</v>
       </c>
       <c r="F22" s="5">
         <v>67.726926541087508</v>
@@ -31960,7 +31960,7 @@
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5">
-        <v>-121.00572044698039</v>
+        <v>-120.67957393964736</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
@@ -31971,10 +31971,10 @@
         <v>9939.9480749556587</v>
       </c>
       <c r="D23" s="5">
-        <v>9797.7816620032136</v>
+        <v>9798.21929578915</v>
       </c>
       <c r="E23" s="31">
-        <v>-142.16641295244546</v>
+        <v>-141.72877916651032</v>
       </c>
       <c r="F23" s="5">
         <v>135.45385308217502</v>
@@ -31986,7 +31986,7 @@
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5">
-        <v>-283.6089651738663</v>
+        <v>-283.17133138793116</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
@@ -31997,10 +31997,10 @@
         <v>1135.3068680482761</v>
       </c>
       <c r="D24" s="5">
-        <v>1061.5922266035368</v>
+        <v>1061.8501256027746</v>
       </c>
       <c r="E24" s="31">
-        <v>-73.714641444739186</v>
+        <v>-73.4567424455015</v>
       </c>
       <c r="F24" s="5">
         <v>67.726926541087508</v>
@@ -32015,10 +32015,10 @@
         <v>3.3333333333335178</v>
       </c>
       <c r="J24" s="5">
-        <v>3.5698028915318427</v>
+        <v>3.5015553834365565</v>
       </c>
       <c r="K24" s="5">
-        <v>-121.00572044697914</v>
+        <v>-120.67957393964616</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
@@ -32029,10 +32029,10 @@
         <v>2018.2042262877963</v>
       </c>
       <c r="D25" s="5">
-        <v>1840.6837037249113</v>
+        <v>1841.0297608277404</v>
       </c>
       <c r="E25" s="31">
-        <v>-177.52052256288496</v>
+        <v>-177.17446546005573</v>
       </c>
       <c r="F25" s="5">
         <v>135.45385308217502</v>
@@ -32047,10 +32047,10 @@
         <v>6.66666666666721</v>
       </c>
       <c r="J25" s="5">
-        <v>18.645890389566716</v>
+        <v>18.554313706460118</v>
       </c>
       <c r="K25" s="5">
-        <v>-283.60896517386806</v>
+        <v>-283.17133138793224</v>
       </c>
     </row>
     <row r="27" ht="14.25" customHeight="1">
@@ -32070,7 +32070,7 @@
         <v>16.727021454271615</v>
       </c>
       <c r="D28" s="8">
-        <v>16.598922082478605</v>
+        <v>16.598922067902368</v>
       </c>
     </row>
     <row r="29" ht="14.25" customHeight="1">
@@ -32081,7 +32081,7 @@
         <v>12.040928037559716</v>
       </c>
       <c r="D29" s="8">
-        <v>12.576196783080867</v>
+        <v>12.576195048527019</v>
       </c>
       <c r="E29" s="23" t="s">
         <v>147</v>
@@ -32095,7 +32095,7 @@
         <v>15.716173202244699</v>
       </c>
       <c r="D30" s="8">
-        <v>17.3620556818462</v>
+        <v>17.3620394271427</v>
       </c>
       <c r="E30" s="23" t="s">
         <v>149</v>
@@ -32198,31 +32198,31 @@
         <v>158</v>
       </c>
       <c r="C36" s="5">
-        <v>5031.4353576005669</v>
+        <v>5030.5189926423809</v>
       </c>
       <c r="D36" s="5">
-        <v>5031.4674279871761</v>
+        <v>5030.5510630289891</v>
       </c>
       <c r="E36" s="5">
-        <v>5077.5201258706766</v>
+        <v>5077.8462723780094</v>
       </c>
       <c r="F36" s="5">
-        <v>4931.2967740896465</v>
+        <v>4943.1004726859574</v>
       </c>
       <c r="G36" s="5">
-        <v>4790.5706675546862</v>
+        <v>4813.9021098202429</v>
       </c>
       <c r="H36" s="5">
-        <v>4643.0995048243176</v>
+        <v>4678.0087233248105</v>
       </c>
       <c r="I36" s="5">
-        <v>4465.060592647802</v>
+        <v>4511.5974675356583</v>
       </c>
       <c r="J36" s="5">
-        <v>4463.581685909332</v>
+        <v>4498.4903036296864</v>
       </c>
       <c r="K36" s="13">
-        <v>-2.8798182608081</v>
+        <v>-2.65360139839266</v>
       </c>
     </row>
     <row r="38" ht="14.25" customHeight="1">
@@ -32765,28 +32765,28 @@
         <v>502.469699813732</v>
       </c>
       <c r="H52" s="5">
-        <v>502.60102119015403</v>
+        <v>502.7707058651</v>
       </c>
       <c r="I52" s="5">
-        <v>502.16520282555</v>
+        <v>502.173774395847</v>
       </c>
       <c r="J52" s="5">
-        <v>493.513856723814</v>
+        <v>493.515602492888</v>
       </c>
       <c r="K52" s="5">
-        <v>487.213669540096</v>
+        <v>487.21578255863</v>
       </c>
       <c r="L52" s="5">
-        <v>486.79797531040697</v>
+        <v>486.8337757224</v>
       </c>
       <c r="M52" s="5">
-        <v>479.31289304252</v>
+        <v>479.314387307321</v>
       </c>
       <c r="N52" s="5">
-        <v>479.17493653598603</v>
+        <v>479.16643678582</v>
       </c>
       <c r="O52" s="5">
-        <v>473.16162859271896</v>
+        <v>473.16155289001296</v>
       </c>
     </row>
     <row r="53" ht="14.25" customHeight="1">
@@ -32837,28 +32837,28 @@
         <v>423.76216862387196</v>
       </c>
       <c r="H54" s="5">
-        <v>427.238333876747</v>
+        <v>427.40801855169303</v>
       </c>
       <c r="I54" s="5">
-        <v>432.054936652151</v>
+        <v>432.063508222448</v>
       </c>
       <c r="J54" s="5">
-        <v>426.43145644240195</v>
+        <v>426.433202211476</v>
       </c>
       <c r="K54" s="5">
-        <v>423.01910536768503</v>
+        <v>423.021218386219</v>
       </c>
       <c r="L54" s="5">
-        <v>425.510035012569</v>
+        <v>425.545835424563</v>
       </c>
       <c r="M54" s="5">
-        <v>421.06132641632803</v>
+        <v>421.062820681129</v>
       </c>
       <c r="N54" s="5">
-        <v>423.95661434550505</v>
+        <v>423.948114595339</v>
       </c>
       <c r="O54" s="5">
-        <v>420.96480901534403</v>
+        <v>420.964733312637</v>
       </c>
     </row>
     <row r="55" ht="14.25" customHeight="1">
@@ -32945,28 +32945,28 @@
         <v>112.512168623872</v>
       </c>
       <c r="H57" s="5">
-        <v>115.98833387674699</v>
+        <v>116.158018551693</v>
       </c>
       <c r="I57" s="5">
-        <v>120.804936652151</v>
+        <v>120.813508222448</v>
       </c>
       <c r="J57" s="5">
-        <v>115.18145644240201</v>
+        <v>115.183202211476</v>
       </c>
       <c r="K57" s="5">
-        <v>111.769105367685</v>
+        <v>111.771218386219</v>
       </c>
       <c r="L57" s="5">
-        <v>114.260035012569</v>
+        <v>114.295835424562</v>
       </c>
       <c r="M57" s="5">
-        <v>109.811326416328</v>
+        <v>109.812820681129</v>
       </c>
       <c r="N57" s="5">
-        <v>112.706614345505</v>
+        <v>112.698114595338</v>
       </c>
       <c r="O57" s="5">
-        <v>109.714809015343</v>
+        <v>109.71473331263701</v>
       </c>
     </row>
     <row r="58" ht="14.25" customHeight="1">
@@ -32981,28 +32981,28 @@
         <v>23.5436374951887</v>
       </c>
       <c r="H58" s="5">
-        <v>24.2710394783524</v>
+        <v>24.3065466996982</v>
       </c>
       <c r="I58" s="5">
-        <v>25.2789335674045</v>
+        <v>25.2807272040067</v>
       </c>
       <c r="J58" s="5">
-        <v>24.102197031800998</v>
+        <v>24.102562341213602</v>
       </c>
       <c r="K58" s="5">
-        <v>23.3881484298401</v>
+        <v>23.388590587723897</v>
       </c>
       <c r="L58" s="5">
-        <v>23.9093857795638</v>
+        <v>23.9168771641177</v>
       </c>
       <c r="M58" s="5">
-        <v>22.978475071925</v>
+        <v>22.9787877530263</v>
       </c>
       <c r="N58" s="5">
-        <v>23.584326068154603</v>
+        <v>23.5825474602124</v>
       </c>
       <c r="O58" s="5">
-        <v>22.958278405835</v>
+        <v>22.9582625647299</v>
       </c>
     </row>
     <row r="59" ht="14.25" customHeight="1">
@@ -33017,28 +33017,28 @@
         <v>88.968531128683409</v>
       </c>
       <c r="H59" s="5">
-        <v>91.7172943983943</v>
+        <v>91.8514718519947</v>
       </c>
       <c r="I59" s="5">
-        <v>95.5260030847463</v>
+        <v>95.532781018441</v>
       </c>
       <c r="J59" s="5">
-        <v>91.0792594106011</v>
+        <v>91.0806398702624</v>
       </c>
       <c r="K59" s="5">
-        <v>88.3809569378445</v>
+        <v>88.38262779849461</v>
       </c>
       <c r="L59" s="5">
-        <v>90.350649233004887</v>
+        <v>90.3789582604447</v>
       </c>
       <c r="M59" s="5">
-        <v>86.8328513444031</v>
+        <v>86.834032928102687</v>
       </c>
       <c r="N59" s="5">
-        <v>89.1222882773499</v>
+        <v>89.115567135126</v>
       </c>
       <c r="O59" s="5">
-        <v>86.756530609508388</v>
+        <v>86.7564707479067</v>
       </c>
     </row>
     <row r="60" ht="14.25" customHeight="1">
@@ -33055,28 +33055,28 @@
         <v>13734.9685311286</v>
       </c>
       <c r="H60" s="5">
-        <v>13826.6858255271</v>
+        <v>13826.8200029806</v>
       </c>
       <c r="I60" s="5">
-        <v>13922.211828613701</v>
+        <v>13922.3527840009</v>
       </c>
       <c r="J60" s="5">
-        <v>14013.2910880209</v>
+        <v>14013.4334238679</v>
       </c>
       <c r="K60" s="5">
-        <v>14101.6720449593</v>
+        <v>14101.8160516668</v>
       </c>
       <c r="L60" s="5">
-        <v>14192.0226941914</v>
+        <v>14192.1950099259</v>
       </c>
       <c r="M60" s="5">
-        <v>14278.8555455331</v>
+        <v>14279.0290428514</v>
       </c>
       <c r="N60" s="5">
-        <v>14367.9778338164</v>
+        <v>14368.1446099923</v>
       </c>
       <c r="O60" s="5">
-        <v>14454.7343644305</v>
+        <v>14454.9010807451</v>
       </c>
     </row>
     <row r="63" ht="14.25" customHeight="1">
@@ -33144,10 +33144,10 @@
         <v>0</v>
       </c>
       <c r="F65" s="5">
-        <v>5799.0244106072732</v>
+        <v>5799.3505571146052</v>
       </c>
       <c r="G65" s="5">
-        <v>6771.3653902482283</v>
+        <v>6817.9022651360892</v>
       </c>
       <c r="H65" s="5">
         <f>G65-F65</f>
@@ -33258,10 +33258,10 @@
         <f>IF(OR(C68="",D68=""),"",D68-C68)</f>
       </c>
       <c r="F68" s="5">
-        <v>17.463232097162823</v>
+        <v>17.789299402313951</v>
       </c>
       <c r="G68" s="5">
-        <v>553.83778059007273</v>
+        <v>600.37457534843747</v>
       </c>
       <c r="H68" s="5">
         <f>IF(OR(F68="",G68=""),"",G68-F68)</f>
@@ -33290,10 +33290,10 @@
         <f ref="E69:E78" t="shared" si="13">IF(OR(C69="",D69=""),"",D69-C69)</f>
       </c>
       <c r="F69" s="5">
-        <v>5708.0559290791052</v>
+        <v>5708.0560082812863</v>
       </c>
       <c r="G69" s="5">
-        <v>6080.2669725116048</v>
+        <v>6080.2670526411011</v>
       </c>
       <c r="H69" s="5">
         <f ref="H69:H78" t="shared" si="14">IF(OR(F69="",G69=""),"",G69-F69)</f>
@@ -33665,10 +33665,10 @@
         <v>0</v>
       </c>
       <c r="F82" s="5">
-        <v>5799.0244106072732</v>
+        <v>5799.3505571146052</v>
       </c>
       <c r="G82" s="5">
-        <v>6559.0067960077622</v>
+        <v>6593.9160145082606</v>
       </c>
       <c r="H82" s="5">
         <f>G82-F82</f>
@@ -33779,10 +33779,10 @@
         <f>IF(OR(C85="",D85=""),"",D85-C85)</f>
       </c>
       <c r="F85" s="5">
-        <v>17.463232097162823</v>
+        <v>17.789299402313951</v>
       </c>
       <c r="G85" s="5">
-        <v>422.09931582554384</v>
+        <v>457.00845437318264</v>
       </c>
       <c r="H85" s="5">
         <f>IF(OR(F85="",G85=""),"",G85-F85)</f>
@@ -33811,10 +33811,10 @@
         <f ref="E86:E95" t="shared" si="21">IF(OR(C86="",D86=""),"",D86-C86)</f>
       </c>
       <c r="F86" s="5">
-        <v>5708.0559290791052</v>
+        <v>5708.0560082812863</v>
       </c>
       <c r="G86" s="5">
-        <v>6015.4102287663254</v>
+        <v>6015.4103087191852</v>
       </c>
       <c r="H86" s="5">
         <f ref="H86:H95" t="shared" si="22">IF(OR(F86="",G86=""),"",G86-F86)</f>
@@ -34186,10 +34186,10 @@
         <v>0</v>
       </c>
       <c r="F99" s="5">
-        <v>5799.0244106072732</v>
+        <v>5799.3505571146052</v>
       </c>
       <c r="G99" s="5">
-        <v>6312.2203861080607</v>
+        <v>6335.5518283736164</v>
       </c>
       <c r="H99" s="5">
         <f>G99-F99</f>
@@ -34300,10 +34300,10 @@
         <f>IF(OR(C102="",D102=""),"",D102-C102)</f>
       </c>
       <c r="F102" s="5">
-        <v>17.463232097162823</v>
+        <v>17.789299402313951</v>
       </c>
       <c r="G102" s="5">
-        <v>288.70293420779552</v>
+        <v>312.03429673254124</v>
       </c>
       <c r="H102" s="5">
         <f>IF(OR(F102="",G102=""),"",G102-F102)</f>
@@ -34332,10 +34332,10 @@
         <f ref="E103:E112" t="shared" si="29">IF(OR(C103="",D103=""),"",D103-C103)</f>
       </c>
       <c r="F103" s="5">
-        <v>5708.0559290791052</v>
+        <v>5708.0560082812863</v>
       </c>
       <c r="G103" s="5">
-        <v>5917.864208590815</v>
+        <v>5917.8642883316252</v>
       </c>
       <c r="H103" s="5">
         <f ref="H103:H112" t="shared" si="30">IF(OR(F103="",G103=""),"",G103-F103)</f>
@@ -34707,10 +34707,10 @@
         <v>0</v>
       </c>
       <c r="F116" s="5">
-        <v>5799.0244106072732</v>
+        <v>5799.3505571146052</v>
       </c>
       <c r="G116" s="5">
-        <v>6054.86435522795</v>
+        <v>6066.6680538242626</v>
       </c>
       <c r="H116" s="5">
         <f>G116-F116</f>
@@ -34821,10 +34821,10 @@
         <f>IF(OR(C119="",D119=""),"",D119-C119)</f>
       </c>
       <c r="F119" s="5">
-        <v>17.463232097162823</v>
+        <v>17.789299402313951</v>
       </c>
       <c r="G119" s="5">
-        <v>153.80418214581277</v>
+        <v>165.6078012516854</v>
       </c>
       <c r="H119" s="5">
         <f>IF(OR(F119="",G119=""),"",G119-F119)</f>
@@ -34853,10 +34853,10 @@
         <f ref="E120:E129" t="shared" si="37">IF(OR(C120="",D120=""),"",D120-C120)</f>
       </c>
       <c r="F120" s="5">
-        <v>5708.0559290791052</v>
+        <v>5708.0560082812863</v>
       </c>
       <c r="G120" s="5">
-        <v>5811.3747656106243</v>
+        <v>5811.3748451010642</v>
       </c>
       <c r="H120" s="5">
         <f ref="H120:H129" t="shared" si="38">IF(OR(F120="",G120=""),"",G120-F120)</f>
@@ -35228,10 +35228,10 @@
         <v>0</v>
       </c>
       <c r="F133" s="5">
-        <v>5799.0244106072732</v>
+        <v>5799.3505571146052</v>
       </c>
       <c r="G133" s="5">
-        <v>5683.2869820922288</v>
+        <v>5682.3706171340446</v>
       </c>
       <c r="H133" s="5">
         <f>G133-F133</f>
@@ -35342,10 +35342,10 @@
         <f>IF(OR(C136="",D136=""),"",D136-C136)</f>
       </c>
       <c r="F136" s="5">
-        <v>17.463232097162823</v>
+        <v>17.789299402313951</v>
       </c>
       <c r="G136" s="5">
-        <v>3.5863424799442405</v>
+        <v>2.6699775217603561</v>
       </c>
       <c r="H136" s="5">
         <f>IF(OR(F136="",G136=""),"",G136-F136)</f>
@@ -35374,7 +35374,7 @@
         <f ref="E137:E146" t="shared" si="45">IF(OR(C137="",D137=""),"",D137-C137)</f>
       </c>
       <c r="F137" s="5">
-        <v>5708.0559290791052</v>
+        <v>5708.0560082812863</v>
       </c>
       <c r="G137" s="5">
         <v>5621.9463827382733</v>
@@ -35749,10 +35749,10 @@
         <v>0</v>
       </c>
       <c r="F150" s="5">
-        <v>5799.0244106072732</v>
+        <v>5799.3505571146052</v>
       </c>
       <c r="G150" s="5">
-        <v>5683.2549117056215</v>
+        <v>5682.3385467474372</v>
       </c>
       <c r="H150" s="5">
         <f>G150-F150</f>
@@ -35863,10 +35863,10 @@
         <f>IF(OR(C153="",D153=""),"",D153-C153)</f>
       </c>
       <c r="F153" s="5">
-        <v>17.463232097162823</v>
+        <v>17.789299402313951</v>
       </c>
       <c r="G153" s="5">
-        <v>3.5863424379002895</v>
+        <v>2.6699774797164051</v>
       </c>
       <c r="H153" s="5">
         <f>IF(OR(F153="",G153=""),"",G153-F153)</f>
@@ -35895,7 +35895,7 @@
         <f ref="E154:E163" t="shared" si="53">IF(OR(C154="",D154=""),"",D154-C154)</f>
       </c>
       <c r="F154" s="5">
-        <v>5708.0559290791052</v>
+        <v>5708.0560082812863</v>
       </c>
       <c r="G154" s="5">
         <v>5621.9145631591018</v>
@@ -36519,32 +36519,32 @@
         <v>15.8412046543463</v>
       </c>
       <c r="M10" s="152">
-        <v>137447.937573406</v>
+        <v>137447.937549383</v>
       </c>
       <c r="N10" s="152">
         <v>126904</v>
       </c>
       <c r="O10" s="141">
-        <v>108.30859356159459</v>
+        <v>108.30859354266454</v>
       </c>
       <c r="P10" s="141">
-        <v>-8.7527412235341568</v>
+        <v>-8.75274122285875</v>
       </c>
       <c r="Q10" s="141">
-        <v>1.83965391735106</v>
+        <v>1.83965370511795</v>
       </c>
       <c r="R10" s="141"/>
       <c r="S10" s="141">
-        <v>0.047750733656809929</v>
+        <v>0.047750521423699954</v>
       </c>
       <c r="T10" s="152">
         <v>1778.9401717862183</v>
       </c>
       <c r="U10" s="152">
-        <v>-375.39793352821118</v>
+        <v>-375.39795755120463</v>
       </c>
       <c r="V10" s="152">
-        <v>1403.542238258</v>
+        <v>1403.5422142349999</v>
       </c>
       <c r="W10" s="153">
         <v>0.013076173901936678</v>
@@ -36553,7 +36553,7 @@
         <v>-0.0046017777434840213</v>
       </c>
       <c r="Y10" s="153">
-        <v>-0.0027237617791460579</v>
+        <v>-0.0027237619534488593</v>
       </c>
       <c r="Z10" s="153">
         <v>0</v>
@@ -36562,7 +36562,7 @@
         <v>-0.0083976006855201613</v>
       </c>
       <c r="AB10" s="153">
-        <v>0.026648054477120438</v>
+        <v>0.026647936037066364</v>
       </c>
     </row>
     <row r="11">
@@ -36598,32 +36598,32 @@
         <v>15.8412046543463</v>
       </c>
       <c r="M11" s="152">
-        <v>137447.937573406</v>
+        <v>137447.937549383</v>
       </c>
       <c r="N11" s="152">
         <v>126904</v>
       </c>
       <c r="O11" s="141">
-        <v>108.30859356159459</v>
+        <v>108.30859354266454</v>
       </c>
       <c r="P11" s="141">
-        <v>-8.7527412235341568</v>
+        <v>-8.75274122285875</v>
       </c>
       <c r="Q11" s="141">
-        <v>1.83965391735106</v>
+        <v>1.83965370511795</v>
       </c>
       <c r="R11" s="141"/>
       <c r="S11" s="141">
-        <v>0.047750733656809929</v>
+        <v>0.047750521423699954</v>
       </c>
       <c r="T11" s="152">
         <v>1778.9401717862183</v>
       </c>
       <c r="U11" s="152">
-        <v>-375.39793352821118</v>
+        <v>-375.39795755120463</v>
       </c>
       <c r="V11" s="152">
-        <v>1403.542238258</v>
+        <v>1403.5422142349999</v>
       </c>
       <c r="W11" s="153">
         <v>0.013076173901936678</v>
@@ -36632,7 +36632,7 @@
         <v>-0.0046017777434840213</v>
       </c>
       <c r="Y11" s="153">
-        <v>-0.0027237617791460579</v>
+        <v>-0.0027237619534488593</v>
       </c>
       <c r="Z11" s="153">
         <v>0</v>
@@ -36641,7 +36641,7 @@
         <v>-0.0083976006855201613</v>
       </c>
       <c r="AB11" s="153">
-        <v>0.026648054477120438</v>
+        <v>0.026647936037066364</v>
       </c>
     </row>
     <row r="12">
@@ -36756,32 +36756,32 @@
         <v>12.186173853525</v>
       </c>
       <c r="M13" s="152">
-        <v>22814.8760617835</v>
+        <v>22814.8760377612</v>
       </c>
       <c r="N13" s="152">
         <v>13646</v>
       </c>
       <c r="O13" s="141">
-        <v>167.19094285346256</v>
+        <v>167.19094267742344</v>
       </c>
       <c r="P13" s="141">
-        <v>-28.758037963899419</v>
+        <v>-28.758037980893782</v>
       </c>
       <c r="Q13" s="141">
-        <v>4.40731057059092</v>
+        <v>4.40730929469913</v>
       </c>
       <c r="R13" s="141"/>
       <c r="S13" s="141">
-        <v>0.61186717416683</v>
+        <v>0.61186589827503957</v>
       </c>
       <c r="T13" s="152">
         <v>511.52799029753947</v>
       </c>
       <c r="U13" s="152">
-        <v>-452.82712355833627</v>
+        <v>-452.82714758063497</v>
       </c>
       <c r="V13" s="152">
-        <v>58.700866739200137</v>
+        <v>58.700842716902116</v>
       </c>
       <c r="W13" s="153">
         <v>0.022478645286969707</v>
@@ -36790,7 +36790,7 @@
         <v>-0.0084219354997127332</v>
       </c>
       <c r="Y13" s="153">
-        <v>-0.019461616815002514</v>
+        <v>-0.019461617847433541</v>
       </c>
       <c r="Z13" s="153">
         <v>0</v>
@@ -36799,7 +36799,7 @@
         <v>0.0045136538027581207</v>
       </c>
       <c r="AB13" s="153">
-        <v>0.16121098650642662</v>
+        <v>0.16121065034233267</v>
       </c>
     </row>
     <row r="14"/>
@@ -38200,34 +38200,34 @@
         <v>9.99863107460643</v>
       </c>
       <c r="M33" s="143">
-        <v>2094.08715801455</v>
+        <v>2094.08714037754</v>
       </c>
       <c r="N33" s="143">
         <v>1939</v>
       </c>
       <c r="O33" s="138">
-        <v>107.99830624108046</v>
+        <v>107.99830533148736</v>
       </c>
       <c r="P33" s="138">
-        <v>-3.3365310789024205</v>
+        <v>-3.3365310007301456</v>
       </c>
       <c r="Q33" s="138">
-        <v>0.834704545111794</v>
+        <v>0.834694309230014</v>
       </c>
       <c r="R33" s="138">
         <v>24.99966109</v>
       </c>
       <c r="S33" s="138">
-        <v>0.011130656356096003</v>
+        <v>0.01112042047431594</v>
       </c>
       <c r="T33" s="143">
         <v>-256.58159485055523</v>
       </c>
       <c r="U33" s="143">
-        <v>3.7018117320852064</v>
+        <v>3.7017940950750412</v>
       </c>
       <c r="V33" s="143">
-        <v>-252.87978311847019</v>
+        <v>-252.87980075548012</v>
       </c>
       <c r="W33" s="151">
         <v>-0.10932475884244373</v>
@@ -38236,7 +38236,7 @@
         <v>0.077574588795662869</v>
       </c>
       <c r="Y33" s="151">
-        <v>0.0017708752784114648</v>
+        <v>0.0017708668412062404</v>
       </c>
       <c r="Z33" s="151">
         <v>1.4000190009675324E-08</v>
@@ -38245,7 +38245,7 @@
         <v>0</v>
       </c>
       <c r="AB33" s="151">
-        <v>0.013515067085131642</v>
+        <v>0.013502638471354767</v>
       </c>
     </row>
     <row r="34">
@@ -38366,34 +38366,34 @@
         <v>9.99863107460643</v>
       </c>
       <c r="M35" s="143">
-        <v>758.148109812388</v>
+        <v>758.148103427041</v>
       </c>
       <c r="N35" s="143">
         <v>702</v>
       </c>
       <c r="O35" s="138">
-        <v>107.99830624108091</v>
+        <v>107.99830533148732</v>
       </c>
       <c r="P35" s="138">
-        <v>-3.33653107890301</v>
+        <v>-3.3365310007298854</v>
       </c>
       <c r="Q35" s="138">
-        <v>0.834704545111397</v>
+        <v>0.834694309230529</v>
       </c>
       <c r="R35" s="138">
         <v>24.99966109</v>
       </c>
       <c r="S35" s="138">
-        <v>0.011130656357048019</v>
+        <v>0.011120420476180004</v>
       </c>
       <c r="T35" s="143">
         <v>129.36887135322104</v>
       </c>
       <c r="U35" s="143">
-        <v>1.3402123960449537</v>
+        <v>1.3402060106979161</v>
       </c>
       <c r="V35" s="143">
-        <v>130.70908374926603</v>
+        <v>130.70907736391894</v>
       </c>
       <c r="W35" s="151">
         <v>0.20618556701030927</v>
@@ -38402,7 +38402,7 @@
         <v>0.077574588795662869</v>
       </c>
       <c r="Y35" s="151">
-        <v>0.0017708752784164753</v>
+        <v>0.0017708668412066372</v>
       </c>
       <c r="Z35" s="151">
         <v>1.4000190151785802E-08</v>
@@ -38411,7 +38411,7 @@
         <v>0</v>
       </c>
       <c r="AB35" s="151">
-        <v>0.013515067086309738</v>
+        <v>0.01350263847364027</v>
       </c>
     </row>
     <row r="36">
@@ -38449,34 +38449,34 @@
         <v>29.7659137577002</v>
       </c>
       <c r="M36" s="145">
-        <v>65337.3732804992</v>
+        <v>65337.3732741138</v>
       </c>
       <c r="N36" s="145">
         <v>58503</v>
       </c>
       <c r="O36" s="146">
-        <v>111.68209028682153</v>
+        <v>111.68209027590687</v>
       </c>
       <c r="P36" s="146">
-        <v>-12.239967587319578</v>
+        <v>-12.239967587282488</v>
       </c>
       <c r="Q36" s="146">
-        <v>2.24522237538606</v>
+        <v>2.24522225675093</v>
       </c>
       <c r="R36" s="146">
         <v>25.303292213989543</v>
       </c>
       <c r="S36" s="146">
-        <v>0.12600734719232998</v>
+        <v>0.12600722855719981</v>
       </c>
       <c r="T36" s="145">
         <v>341.4940259478729</v>
       </c>
       <c r="U36" s="145">
-        <v>-165.65950650106512</v>
+        <v>-165.65951288646934</v>
       </c>
       <c r="V36" s="145">
-        <v>175.83451944680564</v>
+        <v>175.83451306140341</v>
       </c>
       <c r="W36" s="155">
         <v>0.0052407299219886872</v>
@@ -38485,7 +38485,7 @@
         <v>0.0070121931132848727</v>
       </c>
       <c r="Y36" s="155">
-        <v>-0.0025290356713672944</v>
+        <v>-0.0025290357688498681</v>
       </c>
       <c r="Z36" s="155">
         <v>-0.027127095487029122</v>
@@ -38494,7 +38494,7 @@
         <v>-0.0013777900248008288</v>
       </c>
       <c r="AB36" s="155">
-        <v>0.059459443952570391</v>
+        <v>0.059459387971875374</v>
       </c>
     </row>
     <row r="37">
@@ -38532,34 +38532,34 @@
         <v>29.1581108829569</v>
       </c>
       <c r="M37" s="145">
-        <v>67431.4604385137</v>
+        <v>67431.4604144914</v>
       </c>
       <c r="N37" s="145">
         <v>60442</v>
       </c>
       <c r="O37" s="146">
-        <v>111.56391323667931</v>
+        <v>111.56391319693492</v>
       </c>
       <c r="P37" s="146">
-        <v>-11.963470950093686</v>
+        <v>-11.963470949860565</v>
       </c>
       <c r="Q37" s="146">
-        <v>2.20141867819013</v>
+        <v>2.20141824571673</v>
       </c>
       <c r="R37" s="146">
         <v>25.293551623846668</v>
       </c>
       <c r="S37" s="146">
-        <v>0.12724726176357004</v>
+        <v>0.12724682929016984</v>
       </c>
       <c r="T37" s="145">
         <v>74.916271338129</v>
       </c>
       <c r="U37" s="145">
-        <v>-151.96153500982035</v>
+        <v>-151.96155903212616</v>
       </c>
       <c r="V37" s="145">
-        <v>-77.045263671694556</v>
+        <v>-77.045287693996215</v>
       </c>
       <c r="W37" s="155">
         <v>0.0011097308488595946</v>
@@ -38568,7 +38568,7 @@
         <v>0.0092312264580644548</v>
       </c>
       <c r="Y37" s="155">
-        <v>-0.0022485031176632752</v>
+        <v>-0.0022485034731099976</v>
       </c>
       <c r="Z37" s="155">
         <v>-0.02613908257860369</v>
@@ -38577,7 +38577,7 @@
         <v>0.0012221491021899324</v>
       </c>
       <c r="AB37" s="155">
-        <v>0.061348479087034738</v>
+        <v>0.061348270582859632</v>
       </c>
     </row>
     <row r="38">
@@ -38864,34 +38864,34 @@
         <v>23.0499657768652</v>
       </c>
       <c r="M41" s="145">
-        <v>87931.6123326711</v>
+        <v>87931.6123086488</v>
       </c>
       <c r="N41" s="145">
         <v>79878</v>
       </c>
       <c r="O41" s="146">
-        <v>110.08239106220874</v>
+        <v>110.08239103213499</v>
       </c>
       <c r="P41" s="146">
-        <v>-10.747208854352442</v>
+        <v>-10.747208853841404</v>
       </c>
       <c r="Q41" s="146">
-        <v>2.10085932809198</v>
+        <v>2.10085899641694</v>
       </c>
       <c r="R41" s="146">
         <v>19.139097714621549</v>
       </c>
       <c r="S41" s="146">
-        <v>0.092708052704030042</v>
+        <v>0.092707721028990164</v>
       </c>
       <c r="T41" s="145">
         <v>994.86806961118077</v>
       </c>
       <c r="U41" s="145">
-        <v>-366.24507222988984</v>
+        <v>-366.24509625219963</v>
       </c>
       <c r="V41" s="145">
-        <v>628.62299738128786</v>
+        <v>628.6229733589862</v>
       </c>
       <c r="W41" s="155">
         <v>0.011395578515534667</v>
@@ -38900,7 +38900,7 @@
         <v>-0.0017601361279766335</v>
       </c>
       <c r="Y41" s="155">
-        <v>-0.0041478364593879862</v>
+        <v>-0.0041478367314479268</v>
       </c>
       <c r="Z41" s="155">
         <v>-0.036043204425593695</v>
@@ -38909,7 +38909,7 @@
         <v>-0.0061385904851817708</v>
       </c>
       <c r="AB41" s="155">
-        <v>0.046165870988040973</v>
+        <v>0.046165705823671167</v>
       </c>
     </row>
     <row r="42">
@@ -39528,34 +39528,34 @@
         <v>19.1101984941821</v>
       </c>
       <c r="M49" s="145">
-        <v>110508.324958016</v>
+        <v>110508.324933994</v>
       </c>
       <c r="N49" s="145">
         <v>100125</v>
       </c>
       <c r="O49" s="146">
-        <v>110.37036200550912</v>
+        <v>110.37036198151709</v>
       </c>
       <c r="P49" s="146">
-        <v>-10.321905231486459</v>
+        <v>-10.321905230987596</v>
       </c>
       <c r="Q49" s="146">
-        <v>2.14215630896882</v>
+        <v>2.14215604506349</v>
       </c>
       <c r="R49" s="146">
         <v>16.652364343691783</v>
       </c>
       <c r="S49" s="146">
-        <v>0.082863044050949686</v>
+        <v>0.0828627801456201</v>
       </c>
       <c r="T49" s="145">
         <v>89.60809765041742</v>
       </c>
       <c r="U49" s="145">
-        <v>-257.24019319440879</v>
+        <v>-257.24021721642856</v>
       </c>
       <c r="V49" s="145">
-        <v>-167.63209554400237</v>
+        <v>-167.632119566013</v>
       </c>
       <c r="W49" s="155">
         <v>0.00080964375674703133</v>
@@ -39564,7 +39564,7 @@
         <v>0.0090255684370797867</v>
       </c>
       <c r="Y49" s="155">
-        <v>-0.0023223841529020337</v>
+        <v>-0.0023223843697746664</v>
       </c>
       <c r="Z49" s="155">
         <v>-0.026440111152133197</v>
@@ -39573,7 +39573,7 @@
         <v>0.0031618281115259757</v>
       </c>
       <c r="AB49" s="155">
-        <v>0.040238583528924655</v>
+        <v>0.040238455375575112</v>
       </c>
     </row>
     <row r="50">
@@ -39990,32 +39990,32 @@
         <v>15.8412046543463</v>
       </c>
       <c r="M55" s="145">
-        <v>137447.937573406</v>
+        <v>137447.937549383</v>
       </c>
       <c r="N55" s="145">
         <v>126904</v>
       </c>
       <c r="O55" s="146">
-        <v>108.30859356159459</v>
+        <v>108.30859354266454</v>
       </c>
       <c r="P55" s="146">
-        <v>-8.7527412235341568</v>
+        <v>-8.75274122285875</v>
       </c>
       <c r="Q55" s="146">
-        <v>1.83965391735106</v>
+        <v>1.83965370511795</v>
       </c>
       <c r="R55" s="146"/>
       <c r="S55" s="146">
-        <v>0.047750733656809929</v>
+        <v>0.047750521423699954</v>
       </c>
       <c r="T55" s="145">
         <v>1778.9401717862183</v>
       </c>
       <c r="U55" s="145">
-        <v>-375.39793352821118</v>
+        <v>-375.39795755120463</v>
       </c>
       <c r="V55" s="145">
-        <v>1403.542238258</v>
+        <v>1403.5422142349999</v>
       </c>
       <c r="W55" s="155">
         <v>0.013076173901936678</v>
@@ -40024,7 +40024,7 @@
         <v>-0.0046017777434840213</v>
       </c>
       <c r="Y55" s="155">
-        <v>-0.0027237617791460579</v>
+        <v>-0.0027237619534488593</v>
       </c>
       <c r="Z55" s="155">
         <v>0</v>
@@ -40033,7 +40033,7 @@
         <v>-0.0083976006855201613</v>
       </c>
       <c r="AB55" s="155">
-        <v>0.026648054477120438</v>
+        <v>0.026647936037066364</v>
       </c>
     </row>
     <row r="56"/>
@@ -40864,32 +40864,32 @@
         <v>12.186173853525</v>
       </c>
       <c r="M69" s="145">
-        <v>22814.8760617835</v>
+        <v>22814.8760377612</v>
       </c>
       <c r="N69" s="145">
         <v>13646</v>
       </c>
       <c r="O69" s="146">
-        <v>167.19094285346256</v>
+        <v>167.19094267742344</v>
       </c>
       <c r="P69" s="146">
-        <v>-28.758037963899419</v>
+        <v>-28.758037980893782</v>
       </c>
       <c r="Q69" s="146">
-        <v>4.40731057059092</v>
+        <v>4.40730929469913</v>
       </c>
       <c r="R69" s="146"/>
       <c r="S69" s="146">
-        <v>0.61186717416683</v>
+        <v>0.61186589827503957</v>
       </c>
       <c r="T69" s="145">
         <v>511.52799029753947</v>
       </c>
       <c r="U69" s="145">
-        <v>-452.82712355833627</v>
+        <v>-452.82714758063497</v>
       </c>
       <c r="V69" s="145">
-        <v>58.700866739200137</v>
+        <v>58.700842716902116</v>
       </c>
       <c r="W69" s="155">
         <v>0.022478645286969707</v>
@@ -40898,7 +40898,7 @@
         <v>-0.0084219354997127332</v>
       </c>
       <c r="Y69" s="155">
-        <v>-0.019461616815002514</v>
+        <v>-0.019461617847433541</v>
       </c>
       <c r="Z69" s="155">
         <v>0</v>
@@ -40907,7 +40907,7 @@
         <v>0.0045136538027581207</v>
       </c>
       <c r="AB69" s="155">
-        <v>0.16121098650642662</v>
+        <v>0.16121065034233267</v>
       </c>
     </row>
     <row r="70">
@@ -41271,19 +41271,19 @@
         <v>4007.55935463772</v>
       </c>
       <c r="D19" s="123">
-        <v>4214.63651973054</v>
+        <v>4214.6886626741</v>
       </c>
       <c r="E19" s="123">
-        <v>207.07716509281983</v>
+        <v>207.12930803638</v>
       </c>
       <c r="F19" s="123">
         <v>4192.30282139717</v>
       </c>
       <c r="G19" s="123">
-        <v>4372.15602581381</v>
+        <v>4372.22599287845</v>
       </c>
       <c r="H19" s="123">
-        <v>179.85320441663964</v>
+        <v>179.92317148128012</v>
       </c>
     </row>
     <row r="20">
@@ -41294,19 +41294,19 @@
         <v>15144.7475134015</v>
       </c>
       <c r="D20" s="123">
-        <v>16630.9557068567</v>
+        <v>16631.161462912</v>
       </c>
       <c r="E20" s="123">
-        <v>1486.2081934551989</v>
+        <v>1486.4139495104998</v>
       </c>
       <c r="F20" s="123">
         <v>15842.9014048927</v>
       </c>
       <c r="G20" s="123">
-        <v>17252.5276778613</v>
+        <v>17252.8037678983</v>
       </c>
       <c r="H20" s="123">
-        <v>1409.6262729685996</v>
+        <v>1409.902363005599</v>
       </c>
     </row>
     <row r="21">
@@ -41317,19 +41317,19 @@
         <v>19152.3068680392</v>
       </c>
       <c r="D21" s="161">
-        <v>20845.592226587298</v>
+        <v>20845.8501255861</v>
       </c>
       <c r="E21" s="161">
-        <v>1693.2853585481009</v>
+        <v>1693.5432575469017</v>
       </c>
       <c r="F21" s="161">
         <v>20035.204226289898</v>
       </c>
       <c r="G21" s="161">
-        <v>21624.6837036751</v>
+        <v>21625.0297607768</v>
       </c>
       <c r="H21" s="161">
-        <v>1589.4794773852007</v>
+        <v>1589.825534486901</v>
       </c>
     </row>
     <row r="22">
@@ -42156,19 +42156,19 @@
         <v>126401.306868039</v>
       </c>
       <c r="D58" s="161">
-        <v>127965.592226587</v>
+        <v>127965.850125586</v>
       </c>
       <c r="E58" s="161">
-        <v>1564.2853585480004</v>
+        <v>1564.5432575470061</v>
       </c>
       <c r="F58" s="161">
         <v>127284.20422629</v>
       </c>
       <c r="G58" s="161">
-        <v>128744.68370367501</v>
+        <v>128745.02976077699</v>
       </c>
       <c r="H58" s="161">
-        <v>1460.4794773849994</v>
+        <v>1460.8255344869942</v>
       </c>
     </row>
     <row r="59"/>
@@ -42388,19 +42388,19 @@
         <v>14481.3068680393</v>
       </c>
       <c r="D70" s="161">
-        <v>14707.5922265873</v>
+        <v>14707.8501255861</v>
       </c>
       <c r="E70" s="161">
-        <v>226.28535854799858</v>
+        <v>226.54325754679925</v>
       </c>
       <c r="F70" s="161">
         <v>15364.204226290001</v>
       </c>
       <c r="G70" s="161">
-        <v>15486.683703675199</v>
+        <v>15487.029760776799</v>
       </c>
       <c r="H70" s="161">
-        <v>122.47947738519869</v>
+        <v>122.82553448679857</v>
       </c>
     </row>
     <row r="71">
@@ -42497,19 +42497,19 @@
         <v>17641.034121472672</v>
       </c>
       <c r="D77" s="123">
-        <v>17463.232097162821</v>
+        <v>17789.299402313951</v>
       </c>
       <c r="E77" s="123">
-        <v>-177.80202430985082</v>
+        <v>148.26528084127858</v>
       </c>
       <c r="F77" s="123">
         <v>21525.180597024959</v>
       </c>
       <c r="G77" s="123">
-        <v>28697.303764014257</v>
+        <v>28810.027724330612</v>
       </c>
       <c r="H77" s="123">
-        <v>7172.1231669892986</v>
+        <v>7284.847127305653</v>
       </c>
     </row>
     <row r="78">
@@ -42520,19 +42520,19 @@
         <v>17641.034121472672</v>
       </c>
       <c r="D78" s="161">
-        <v>17463.232097162821</v>
+        <v>17789.299402313951</v>
       </c>
       <c r="E78" s="161">
-        <v>-177.80202430985082</v>
+        <v>148.26528084127858</v>
       </c>
       <c r="F78" s="161">
         <v>21525.180597024959</v>
       </c>
       <c r="G78" s="161">
-        <v>28697.303764014257</v>
+        <v>28810.027724330612</v>
       </c>
       <c r="H78" s="161">
-        <v>7172.1231669892986</v>
+        <v>7284.847127305653</v>
       </c>
     </row>
     <row r="79">
@@ -42857,19 +42857,19 @@
         <v>125023.5300138039</v>
       </c>
       <c r="D93" s="123">
-        <v>117161.50156265243</v>
+        <v>117161.55971222853</v>
       </c>
       <c r="E93" s="123">
-        <v>-7862.0284511514765</v>
+        <v>-7861.9703015753767</v>
       </c>
       <c r="F93" s="123">
         <v>100286.9428308738</v>
       </c>
       <c r="G93" s="123">
-        <v>86998.009105974488</v>
+        <v>86997.101144655622</v>
       </c>
       <c r="H93" s="123">
-        <v>-13288.933724899311</v>
+        <v>-13289.841686218177</v>
       </c>
     </row>
     <row r="94">
@@ -42903,19 +42903,19 @@
         <v>33423.837605895176</v>
       </c>
       <c r="D95" s="123">
-        <v>42417.418306850072</v>
+        <v>42417.439359455719</v>
       </c>
       <c r="E95" s="123">
-        <v>8993.5807009548953</v>
+        <v>8993.6017535605424</v>
       </c>
       <c r="F95" s="123">
         <v>26810.749071000486</v>
       </c>
       <c r="G95" s="123">
-        <v>31496.958428258931</v>
+        <v>31496.629707864107</v>
       </c>
       <c r="H95" s="123">
-        <v>4686.2093572584454</v>
+        <v>4685.8806368636215</v>
       </c>
     </row>
     <row r="96">
@@ -42926,19 +42926,19 @@
         <v>3337001.3970800387</v>
       </c>
       <c r="D96" s="161">
-        <v>3324638.5735806869</v>
+        <v>3324638.5946332919</v>
       </c>
       <c r="E96" s="161">
-        <v>-12362.82349935174</v>
+        <v>-12362.802446746733</v>
       </c>
       <c r="F96" s="161">
         <v>2913207.6580649</v>
       </c>
       <c r="G96" s="161">
-        <v>2875721.701956227</v>
+        <v>2875721.373235832</v>
       </c>
       <c r="H96" s="161">
-        <v>-37485.95610867301</v>
+        <v>-37486.284829068</v>
       </c>
     </row>
     <row r="97">
@@ -42949,19 +42949,19 @@
         <v>3462024.9270938416</v>
       </c>
       <c r="D97" s="161">
-        <v>3441800.0751433424</v>
+        <v>3441800.1543455203</v>
       </c>
       <c r="E97" s="161">
-        <v>-20224.851950499229</v>
+        <v>-20224.772748321295</v>
       </c>
       <c r="F97" s="161">
         <v>3013494.6008957741</v>
       </c>
       <c r="G97" s="161">
-        <v>2962719.7110622032</v>
+        <v>2962718.4743804871</v>
       </c>
       <c r="H97" s="161">
-        <v>-50774.889833570924</v>
+        <v>-50776.126515286975</v>
       </c>
     </row>
     <row r="98">
@@ -43041,19 +43041,19 @@
         <v>4416773.6259701857</v>
       </c>
       <c r="D101" s="161">
-        <v>4381207.9359119646</v>
+        <v>4381208.0151141454</v>
       </c>
       <c r="E101" s="161">
-        <v>-35565.690058221109</v>
+        <v>-35565.610856040381</v>
       </c>
       <c r="F101" s="161">
         <v>3911689.4570780089</v>
       </c>
       <c r="G101" s="161">
-        <v>3826890.9009592389</v>
+        <v>3826889.6642775238</v>
       </c>
       <c r="H101" s="161">
-        <v>-84798.556118770037</v>
+        <v>-84799.792800485156</v>
       </c>
     </row>
     <row r="102">
@@ -43225,19 +43225,19 @@
         <v>5747298.2687647445</v>
       </c>
       <c r="D109" s="161">
-        <v>5708055.9290791051</v>
+        <v>5708056.0082812859</v>
       </c>
       <c r="E109" s="161">
-        <v>-39242.339685639367</v>
+        <v>-39242.260483458638</v>
       </c>
       <c r="F109" s="161">
         <v>5200247.421461476</v>
       </c>
       <c r="G109" s="161">
-        <v>5102519.596858602</v>
+        <v>5102518.3601768864</v>
       </c>
       <c r="H109" s="161">
-        <v>-97727.824602874</v>
+        <v>-97729.061284589581</v>
       </c>
     </row>
     <row r="110">
@@ -43359,19 +43359,19 @@
         <v>5841296.8379904423</v>
       </c>
       <c r="D115" s="161">
-        <v>5799024.4106072728</v>
+        <v>5799350.5571146067</v>
       </c>
       <c r="E115" s="161">
-        <v>-42272.427383169532</v>
+        <v>-41946.280875835568</v>
       </c>
       <c r="F115" s="161">
         <v>5292543.7811106928</v>
       </c>
       <c r="G115" s="161">
-        <v>5204097.6384070013</v>
+        <v>5204209.1256856062</v>
       </c>
       <c r="H115" s="161">
-        <v>-88446.1427036915</v>
+        <v>-88334.655425086617</v>
       </c>
     </row>
     <row r="116"/>
@@ -43591,19 +43591,19 @@
         <v>5127804.5702069467</v>
       </c>
       <c r="D127" s="161">
-        <v>5077520.1258706767</v>
+        <v>5077846.27237801</v>
       </c>
       <c r="E127" s="161">
-        <v>-50284.444336269982</v>
+        <v>-49958.297828936949</v>
       </c>
       <c r="F127" s="161">
         <v>4812143.5047487132</v>
       </c>
       <c r="G127" s="161">
-        <v>4720261.536132535</v>
+        <v>4720373.023411138</v>
       </c>
       <c r="H127" s="161">
-        <v>-91881.968616178259</v>
+        <v>-91770.481337575242</v>
       </c>
     </row>
     <row r="128">
@@ -43704,19 +43704,19 @@
         <v>0.12015136605328602</v>
       </c>
       <c r="D134" s="122">
-        <v>0.1077551322239035</v>
+        <v>0.10977939389123088</v>
       </c>
       <c r="E134" s="122">
-        <v>-0.012396233829382528</v>
+        <v>-0.01037197216205514</v>
       </c>
       <c r="F134" s="122">
         <v>0.13895821169408493</v>
       </c>
       <c r="G134" s="122">
-        <v>0.16920034918686908</v>
+        <v>0.16986192303252898</v>
       </c>
       <c r="H134" s="122">
-        <v>0.030242137492784149</v>
+        <v>0.030903711338444051</v>
       </c>
     </row>
     <row r="135">
@@ -43727,19 +43727,19 @@
         <v>0.0950100744941536</v>
       </c>
       <c r="D135" s="162">
-        <v>0.085968813537307578</v>
+        <v>0.087583802728426308</v>
       </c>
       <c r="E135" s="162">
-        <v>-0.0090412609568460284</v>
+        <v>-0.0074262717657272992</v>
       </c>
       <c r="F135" s="162">
         <v>0.10988164744439276</v>
       </c>
       <c r="G135" s="162">
-        <v>0.13499081639534674</v>
+        <v>0.13551863087067537</v>
       </c>
       <c r="H135" s="162">
-        <v>0.025109168950953983</v>
+        <v>0.025636983426282609</v>
       </c>
     </row>
     <row r="136">
@@ -44064,19 +44064,19 @@
         <v>4.9657797887018553</v>
       </c>
       <c r="D150" s="122">
-        <v>5.2651115240174491</v>
+        <v>5.2651145230428584</v>
       </c>
       <c r="E150" s="122">
-        <v>0.29933173531559376</v>
+        <v>0.29933473434100311</v>
       </c>
       <c r="F150" s="122">
         <v>3.8480321346442374</v>
       </c>
       <c r="G150" s="122">
-        <v>3.7275488253092259</v>
+        <v>3.7275019986742151</v>
       </c>
       <c r="H150" s="122">
-        <v>-0.1204833093350115</v>
+        <v>-0.12053013597002238</v>
       </c>
     </row>
     <row r="151">
@@ -44110,19 +44110,19 @@
         <v>4.9657797887018278</v>
       </c>
       <c r="D152" s="122">
-        <v>5.2651115240174864</v>
+        <v>5.2651145230428948</v>
       </c>
       <c r="E152" s="122">
-        <v>0.2993317353156586</v>
+        <v>0.29933473434106705</v>
       </c>
       <c r="F152" s="122">
         <v>3.8480321346442019</v>
       </c>
       <c r="G152" s="122">
-        <v>3.7275488253092006</v>
+        <v>3.72750199867429</v>
       </c>
       <c r="H152" s="122">
-        <v>-0.12048330933500129</v>
+        <v>-0.1205301359699118</v>
       </c>
     </row>
     <row r="153">
@@ -44133,19 +44133,19 @@
         <v>5.615506422163218</v>
       </c>
       <c r="D153" s="162">
-        <v>5.5623143074575649</v>
+        <v>5.5623143434440232</v>
       </c>
       <c r="E153" s="162">
-        <v>-0.053192114705653104</v>
+        <v>-0.053192078719194846</v>
       </c>
       <c r="F153" s="162">
         <v>4.7563778982522908</v>
       </c>
       <c r="G153" s="162">
-        <v>4.6656103207751061</v>
+        <v>4.665609758884302</v>
       </c>
       <c r="H153" s="162">
-        <v>-0.09076757747718478</v>
+        <v>-0.090768139367988887</v>
       </c>
     </row>
     <row r="154">
@@ -44156,19 +44156,19 @@
         <v>5.5920785980465242</v>
       </c>
       <c r="D154" s="162">
-        <v>5.5527799406746894</v>
+        <v>5.5527800717164526</v>
       </c>
       <c r="E154" s="162">
-        <v>-0.0392986573718348</v>
+        <v>-0.039298526330071581</v>
       </c>
       <c r="F154" s="162">
         <v>4.723624793036973</v>
       </c>
       <c r="G154" s="162">
-        <v>4.6355169876671942</v>
+        <v>4.6355149415875987</v>
       </c>
       <c r="H154" s="162">
-        <v>-0.0881078053697788</v>
+        <v>-0.088109851449374332</v>
       </c>
     </row>
     <row r="155">
@@ -44248,19 +44248,19 @@
         <v>5.3981046009256177</v>
       </c>
       <c r="D158" s="162">
-        <v>5.2896157066301424</v>
+        <v>5.28961580578668</v>
       </c>
       <c r="E158" s="162">
-        <v>-0.10848889429547537</v>
+        <v>-0.10848879513893817</v>
       </c>
       <c r="F158" s="162">
         <v>4.6323889313986006</v>
       </c>
       <c r="G158" s="162">
-        <v>4.4697867848895712</v>
+        <v>4.4697852366642374</v>
       </c>
       <c r="H158" s="162">
-        <v>-0.16260214650902949</v>
+        <v>-0.1626036947343632</v>
       </c>
     </row>
     <row r="159">
@@ -44432,19 +44432,19 @@
         <v>5.450387792727863</v>
       </c>
       <c r="D166" s="162">
-        <v>5.4034297664367648</v>
+        <v>5.4034298455421421</v>
       </c>
       <c r="E166" s="162">
-        <v>-0.046958026291098243</v>
+        <v>-0.046957947185720883</v>
       </c>
       <c r="F166" s="162">
         <v>4.7736932646636667</v>
       </c>
       <c r="G166" s="162">
-        <v>4.6698857709659</v>
+        <v>4.6698845358184045</v>
       </c>
       <c r="H166" s="162">
-        <v>-0.10380749369776687</v>
+        <v>-0.10380872884526227</v>
       </c>
     </row>
     <row r="167">
@@ -44566,19 +44566,19 @@
         <v>4.4090808142086777</v>
       </c>
       <c r="D172" s="162">
-        <v>4.3174746306136447</v>
+        <v>4.3177261900194237</v>
       </c>
       <c r="E172" s="162">
-        <v>-0.091606183595033031</v>
+        <v>-0.091354624189254</v>
       </c>
       <c r="F172" s="162">
         <v>3.8369511309928868</v>
       </c>
       <c r="G172" s="162">
-        <v>3.7206452426477092</v>
+        <v>3.7207235674970458</v>
       </c>
       <c r="H172" s="162">
-        <v>-0.11630588834517752</v>
+        <v>-0.11622756349584096</v>
       </c>
     </row>
     <row r="173"/>
@@ -44860,19 +44860,19 @@
         <v>46784.239622430694</v>
       </c>
       <c r="D188" s="123">
-        <v>49417.878929821745</v>
+        <v>49418.268894797278</v>
       </c>
       <c r="E188" s="123">
-        <v>2633.6393073910476</v>
+        <v>2634.0292723665834</v>
       </c>
       <c r="F188" s="123">
         <v>49346.171473163653</v>
       </c>
       <c r="G188" s="123">
-        <v>51680.659724038691</v>
+        <v>51681.392348029978</v>
       </c>
       <c r="H188" s="123">
-        <v>2334.4882508750411</v>
+        <v>2335.2208748663293</v>
       </c>
     </row>
     <row r="189">
@@ -44883,19 +44883,19 @@
         <v>15144.747513401509</v>
       </c>
       <c r="D189" s="123">
-        <v>16630.95570685673</v>
+        <v>16631.161462912005</v>
       </c>
       <c r="E189" s="123">
-        <v>1486.2081934552211</v>
+        <v>1486.4139495104942</v>
       </c>
       <c r="F189" s="123">
         <v>15842.901404892647</v>
       </c>
       <c r="G189" s="123">
-        <v>17252.527677861282</v>
+        <v>17252.803767898378</v>
       </c>
       <c r="H189" s="123">
-        <v>1409.6262729686332</v>
+        <v>1409.9023630057293</v>
       </c>
     </row>
     <row r="190">
@@ -44906,19 +44906,19 @@
         <v>61928.98713583214</v>
       </c>
       <c r="D190" s="161">
-        <v>66048.834636678468</v>
+        <v>66049.43035770928</v>
       </c>
       <c r="E190" s="161">
-        <v>4119.8475008463265</v>
+        <v>4120.4432218771353</v>
       </c>
       <c r="F190" s="161">
         <v>65189.072878056351</v>
       </c>
       <c r="G190" s="161">
-        <v>68933.187401900053</v>
+        <v>68934.196115928382</v>
       </c>
       <c r="H190" s="161">
-        <v>3744.1145238436984</v>
+        <v>3745.1232378720269</v>
       </c>
     </row>
     <row r="191">
@@ -45243,19 +45243,19 @@
         <v>808.24267768032519</v>
       </c>
       <c r="D205" s="123">
-        <v>718.46938421199525</v>
+        <v>718.46936008304272</v>
       </c>
       <c r="E205" s="123">
-        <v>-89.773293468329939</v>
+        <v>-89.773317597282471</v>
       </c>
       <c r="F205" s="123">
         <v>813.95503920758892</v>
       </c>
       <c r="G205" s="123">
-        <v>726.41944060414892</v>
+        <v>726.41981501721534</v>
       </c>
       <c r="H205" s="123">
-        <v>-87.535598603439979</v>
+        <v>-87.535224190373555</v>
       </c>
     </row>
     <row r="206">
@@ -45289,19 +45289,19 @@
         <v>216.07590188789661</v>
       </c>
       <c r="D207" s="123">
-        <v>260.11630104013278</v>
+        <v>260.11629230443197</v>
       </c>
       <c r="E207" s="123">
-        <v>44.040399152236176</v>
+        <v>44.040390416535374</v>
       </c>
       <c r="F207" s="123">
         <v>217.60304677024169</v>
       </c>
       <c r="G207" s="123">
-        <v>262.99455766070861</v>
+        <v>262.99469321407236</v>
       </c>
       <c r="H207" s="123">
-        <v>45.391510890466918</v>
+        <v>45.391646443830687</v>
       </c>
     </row>
     <row r="208">
@@ -45312,19 +45312,19 @@
         <v>13616.301060769298</v>
       </c>
       <c r="D208" s="161">
-        <v>13869.244288630613</v>
+        <v>13869.244279894921</v>
       </c>
       <c r="E208" s="161">
-        <v>252.94322786131502</v>
+        <v>252.94321912562475</v>
       </c>
       <c r="F208" s="161">
         <v>14891.812688153321</v>
       </c>
       <c r="G208" s="161">
-        <v>14709.764505812649</v>
+        <v>14709.764641365999</v>
       </c>
       <c r="H208" s="161">
-        <v>-182.04818234067224</v>
+        <v>-182.04804678732157</v>
       </c>
     </row>
     <row r="209">
@@ -45335,19 +45335,19 @@
         <v>14424.543738449644</v>
       </c>
       <c r="D209" s="161">
-        <v>14587.71367284261</v>
+        <v>14587.713639977961</v>
       </c>
       <c r="E209" s="161">
-        <v>163.16993439296633</v>
+        <v>163.16990152831747</v>
       </c>
       <c r="F209" s="161">
         <v>15705.767727360919</v>
       </c>
       <c r="G209" s="161">
-        <v>15436.183946416799</v>
+        <v>15436.184456383209</v>
       </c>
       <c r="H209" s="161">
-        <v>-269.58378094412012</v>
+        <v>-269.58327097770945</v>
       </c>
     </row>
     <row r="210">
@@ -45427,19 +45427,19 @@
         <v>19237.273288642529</v>
       </c>
       <c r="D213" s="161">
-        <v>19667.681889735602</v>
+        <v>19667.681856870931</v>
       </c>
       <c r="E213" s="161">
-        <v>430.40860109307243</v>
+        <v>430.40856822840124</v>
       </c>
       <c r="F213" s="161">
         <v>20887.257466190178</v>
       </c>
       <c r="G213" s="161">
-        <v>20913.37936606833</v>
+        <v>20913.379876034774</v>
       </c>
       <c r="H213" s="161">
-        <v>26.121899878151716</v>
+        <v>26.122409844595939</v>
       </c>
     </row>
     <row r="214">
@@ -45611,19 +45611,19 @@
         <v>23738.373737565169</v>
       </c>
       <c r="D221" s="161">
-        <v>24293.577073236254</v>
+        <v>24293.577040371591</v>
       </c>
       <c r="E221" s="161">
-        <v>555.20333567108582</v>
+        <v>555.20330280642213</v>
       </c>
       <c r="F221" s="161">
         <v>29944.157039943861</v>
       </c>
       <c r="G221" s="161">
-        <v>28574.560798160463</v>
+        <v>28574.561308126904</v>
       </c>
       <c r="H221" s="161">
-        <v>-1369.5962417833955</v>
+        <v>-1369.5957318169549</v>
       </c>
     </row>
     <row r="222">
@@ -45745,19 +45745,19 @@
         <v>89003.355033426909</v>
       </c>
       <c r="D227" s="161">
-        <v>92606.388359830016</v>
+        <v>92606.984047996157</v>
       </c>
       <c r="E227" s="161">
-        <v>3603.033326403111</v>
+        <v>3603.6290145692528</v>
       </c>
       <c r="F227" s="161">
         <v>95301.152455886622</v>
       </c>
       <c r="G227" s="161">
-        <v>97668.755881933859</v>
+        <v>97669.765105928687</v>
       </c>
       <c r="H227" s="161">
-        <v>2367.6034260472356</v>
+        <v>2368.6126500420719</v>
       </c>
     </row>
     <row r="228"/>
@@ -46066,19 +46066,19 @@
         <v>0.1233286752</v>
       </c>
       <c r="D244" s="122">
-        <v>0.11242884329999998</v>
+        <v>0.11441267170000001</v>
       </c>
       <c r="E244" s="122">
-        <v>-0.010899831900000018</v>
+        <v>-0.0089160034999999915</v>
       </c>
       <c r="F244" s="122">
         <v>0.14190038489999998</v>
       </c>
       <c r="G244" s="122">
-        <v>0.17313909419999998</v>
+        <v>0.17417415299999997</v>
       </c>
       <c r="H244" s="122">
-        <v>0.0312387093</v>
+        <v>0.032273768099999989</v>
       </c>
     </row>
     <row r="245">
@@ -46089,19 +46089,19 @@
         <v>0.0091656220370865613</v>
       </c>
       <c r="D245" s="162">
-        <v>0.0078680336513374579</v>
+        <v>0.00873709179386692</v>
       </c>
       <c r="E245" s="162">
-        <v>-0.0012975883857491034</v>
+        <v>-0.00042853024321964049</v>
       </c>
       <c r="F245" s="162">
         <v>0.012905016637350478</v>
       </c>
       <c r="G245" s="162">
-        <v>0.014392779443537519</v>
+        <v>0.014420238009770556</v>
       </c>
       <c r="H245" s="162">
-        <v>0.0014877628061870409</v>
+        <v>0.001515221372420078</v>
       </c>
     </row>
     <row r="246">
@@ -46426,19 +46426,19 @@
         <v>3.2924724594000008</v>
       </c>
       <c r="D260" s="122">
-        <v>3.0732040739</v>
+        <v>3.0731625767999997</v>
       </c>
       <c r="E260" s="122">
-        <v>-0.21926838550000083</v>
+        <v>-0.21930988260000106</v>
       </c>
       <c r="F260" s="122">
         <v>3.3114506056999997</v>
       </c>
       <c r="G260" s="122">
-        <v>3.1330384079999996</v>
+        <v>3.1329116113999995</v>
       </c>
       <c r="H260" s="122">
-        <v>-0.17841219770000016</v>
+        <v>-0.1785389943000002</v>
       </c>
     </row>
     <row r="261">
@@ -46472,19 +46472,19 @@
         <v>3.2924724594000008</v>
       </c>
       <c r="D262" s="122">
-        <v>3.0732040739</v>
+        <v>3.0731625767999997</v>
       </c>
       <c r="E262" s="122">
-        <v>-0.21926838550000083</v>
+        <v>-0.21930988260000106</v>
       </c>
       <c r="F262" s="122">
         <v>3.3114506056999997</v>
       </c>
       <c r="G262" s="122">
-        <v>3.1330384079999996</v>
+        <v>3.1329116113999995</v>
       </c>
       <c r="H262" s="122">
-        <v>-0.17841219770000016</v>
+        <v>-0.1785389943000002</v>
       </c>
     </row>
     <row r="263">
@@ -46495,19 +46495,19 @@
         <v>2.9605224867152931</v>
       </c>
       <c r="D263" s="162">
-        <v>2.7704892666225063</v>
+        <v>2.7704886540085734</v>
       </c>
       <c r="E263" s="162">
-        <v>-0.19003322009278678</v>
+        <v>-0.1900338327067197</v>
       </c>
       <c r="F263" s="162">
         <v>3.0847404391332738</v>
       </c>
       <c r="G263" s="162">
-        <v>2.9211866272647984</v>
+        <v>2.9211842903447174</v>
       </c>
       <c r="H263" s="162">
-        <v>-0.1635538118684754</v>
+        <v>-0.1635561487885564</v>
       </c>
     </row>
     <row r="264">
@@ -46518,19 +46518,19 @@
         <v>2.9793747984469867</v>
       </c>
       <c r="D264" s="162">
-        <v>2.785731074675557</v>
+        <v>2.7857288567282361</v>
       </c>
       <c r="E264" s="162">
-        <v>-0.19364372377142969</v>
+        <v>-0.1936459417187506</v>
       </c>
       <c r="F264" s="162">
         <v>3.0965581984344221</v>
       </c>
       <c r="G264" s="162">
-        <v>2.9311705146742941</v>
+        <v>2.9311621531842853</v>
       </c>
       <c r="H264" s="162">
-        <v>-0.16538768376012802</v>
+        <v>-0.16539604525013685</v>
       </c>
     </row>
     <row r="265">
@@ -46610,19 +46610,19 @@
         <v>3.0877085653746907</v>
       </c>
       <c r="D268" s="162">
-        <v>2.9021563057082531</v>
+        <v>2.9021545863518843</v>
       </c>
       <c r="E268" s="162">
-        <v>-0.18555225966643762</v>
+        <v>-0.18555397902280646</v>
       </c>
       <c r="F268" s="162">
         <v>3.2067251436959032</v>
       </c>
       <c r="G268" s="162">
-        <v>3.0508815858455258</v>
+        <v>3.0508754793713653</v>
       </c>
       <c r="H268" s="162">
-        <v>-0.1558435578503774</v>
+        <v>-0.15584966432453795</v>
       </c>
     </row>
     <row r="269">
@@ -46794,19 +46794,19 @@
         <v>3.4950379313553892</v>
       </c>
       <c r="D276" s="162">
-        <v>3.3069281330703819</v>
+        <v>3.3069267292717672</v>
       </c>
       <c r="E276" s="162">
-        <v>-0.18810979828500729</v>
+        <v>-0.18811120208362198</v>
       </c>
       <c r="F276" s="162">
         <v>3.745624215975738</v>
       </c>
       <c r="G276" s="162">
-        <v>3.6017323116095992</v>
+        <v>3.6017279453651603</v>
       </c>
       <c r="H276" s="162">
-        <v>-0.14389190436613886</v>
+        <v>-0.14389627061057775</v>
       </c>
     </row>
     <row r="277">
@@ -46928,19 +46928,19 @@
         <v>1.0965576401745041</v>
       </c>
       <c r="D282" s="162">
-        <v>1.0246358848366972</v>
+        <v>1.0254215398311557</v>
       </c>
       <c r="E282" s="162">
-        <v>-0.07192175533780687</v>
+        <v>-0.071136100343348385</v>
       </c>
       <c r="F282" s="162">
         <v>1.3205667236573577</v>
       </c>
       <c r="G282" s="162">
-        <v>1.2027886890280264</v>
+        <v>1.202790266513027</v>
       </c>
       <c r="H282" s="162">
-        <v>-0.11777803462933134</v>
+        <v>-0.11777645714433072</v>
       </c>
     </row>
     <row r="283"/>
@@ -47314,19 +47314,19 @@
         <v>16.918504013764512</v>
       </c>
       <c r="D302" s="123">
-        <v>15.07098911195409</v>
+        <v>15.070989110427464</v>
       </c>
       <c r="E302" s="123">
-        <v>-1.847514901810422</v>
+        <v>-1.847514903337049</v>
       </c>
       <c r="F302" s="123">
         <v>16.51528325966876</v>
       </c>
       <c r="G302" s="123">
-        <v>14.72083738322862</v>
+        <v>14.72083739036262</v>
       </c>
       <c r="H302" s="123">
-        <v>-1.7944458764401388</v>
+        <v>-1.7944458693061387</v>
       </c>
     </row>
     <row r="303">
@@ -47360,19 +47360,19 @@
         <v>4.5229992356505351</v>
       </c>
       <c r="D304" s="123">
-        <v>5.45633540824731</v>
+        <v>5.4563354076946089</v>
       </c>
       <c r="E304" s="123">
-        <v>0.93333617259677426</v>
+        <v>0.93333617204407349</v>
       </c>
       <c r="F304" s="123">
         <v>4.415202047371233</v>
       </c>
       <c r="G304" s="123">
-        <v>5.3295656745883333</v>
+        <v>5.3295656771706037</v>
       </c>
       <c r="H304" s="123">
-        <v>0.91436362721710063</v>
+        <v>0.9143636297993708</v>
       </c>
     </row>
     <row r="305">
@@ -47383,19 +47383,19 @@
         <v>68.888969509482109</v>
       </c>
       <c r="D305" s="161">
-        <v>70.5178342887884</v>
+        <v>70.517834288235591</v>
       </c>
       <c r="E305" s="161">
-        <v>1.6288647793062991</v>
+        <v>1.6288647787534865</v>
       </c>
       <c r="F305" s="161">
         <v>145.09084884002681</v>
       </c>
       <c r="G305" s="161">
-        <v>146.19969599316679</v>
+        <v>146.1996959957489</v>
       </c>
       <c r="H305" s="161">
-        <v>1.108847153139999</v>
+        <v>1.1088471557220909</v>
       </c>
     </row>
     <row r="306">
@@ -47406,19 +47406,19 @@
         <v>85.807473523246642</v>
       </c>
       <c r="D306" s="161">
-        <v>85.588823400742328</v>
+        <v>85.58882339866301</v>
       </c>
       <c r="E306" s="161">
-        <v>-0.21865012250431756</v>
+        <v>-0.21865012458364072</v>
       </c>
       <c r="F306" s="161">
         <v>161.60613209969554</v>
       </c>
       <c r="G306" s="161">
-        <v>160.92053337639518</v>
+        <v>160.9205333861116</v>
       </c>
       <c r="H306" s="161">
-        <v>-0.68559872330035432</v>
+        <v>-0.6855987135839241</v>
       </c>
     </row>
     <row r="307">
@@ -47498,19 +47498,19 @@
         <v>153.45857425114497</v>
       </c>
       <c r="D310" s="161">
-        <v>155.96870176993954</v>
+        <v>155.9687017678603</v>
       </c>
       <c r="E310" s="161">
-        <v>2.5101275187945578</v>
+        <v>2.5101275167153219</v>
       </c>
       <c r="F310" s="161">
         <v>253.12132683801758</v>
       </c>
       <c r="G310" s="161">
-        <v>256.514612925146</v>
+        <v>256.51461293486238</v>
       </c>
       <c r="H310" s="161">
-        <v>3.3932860871284212</v>
+        <v>3.3932860968448222</v>
       </c>
     </row>
     <row r="311">
@@ -47682,19 +47682,19 @@
         <v>294.51230540807649</v>
       </c>
       <c r="D318" s="161">
-        <v>297.8718754342936</v>
+        <v>297.87187543221421</v>
       </c>
       <c r="E318" s="161">
-        <v>3.3595700262170869</v>
+        <v>3.3595700241377346</v>
       </c>
       <c r="F318" s="161">
         <v>424.45373176135439</v>
       </c>
       <c r="G318" s="161">
-        <v>426.79646867899197</v>
+        <v>426.79646868870827</v>
       </c>
       <c r="H318" s="161">
-        <v>2.3427369176375796</v>
+        <v>2.3427369273538936</v>
       </c>
     </row>
     <row r="319">
@@ -47860,19 +47860,19 @@
         <v>30.413218818743697</v>
       </c>
       <c r="D328" s="123">
-        <v>27.081068598149702</v>
+        <v>27.081049212439098</v>
       </c>
       <c r="E328" s="123">
-        <v>-3.3321502205939977</v>
+        <v>-3.3321696063046002</v>
       </c>
       <c r="F328" s="123">
         <v>28.785112638226202</v>
       </c>
       <c r="G328" s="123">
-        <v>25.57811148503</v>
+        <v>25.5780685724096</v>
       </c>
       <c r="H328" s="123">
-        <v>-3.207001153196201</v>
+        <v>-3.2070440658166008</v>
       </c>
     </row>
     <row r="329">
@@ -47906,19 +47906,19 @@
         <v>8.1306813746021991</v>
       </c>
       <c r="D330" s="123">
-        <v>9.80449208659158</v>
+        <v>9.8044850681445812</v>
       </c>
       <c r="E330" s="123">
-        <v>1.6738107119893793</v>
+        <v>1.6738036935423806</v>
       </c>
       <c r="F330" s="123">
         <v>7.6954228550517</v>
       </c>
       <c r="G330" s="123">
-        <v>9.26035805182634</v>
+        <v>9.26034251564298</v>
       </c>
       <c r="H330" s="123">
-        <v>1.5649351967746406</v>
+        <v>1.5649196605912803</v>
       </c>
     </row>
     <row r="331">
@@ -47929,19 +47929,19 @@
         <v>589.47402600975408</v>
       </c>
       <c r="D331" s="161">
-        <v>600.365789566636</v>
+        <v>600.365782548189</v>
       </c>
       <c r="E331" s="161">
-        <v>10.891763556881925</v>
+        <v>10.891756538435002</v>
       </c>
       <c r="F331" s="161">
         <v>665.636025925147</v>
       </c>
       <c r="G331" s="161">
-        <v>675.848325040108</v>
+        <v>675.84830950392507</v>
       </c>
       <c r="H331" s="161">
-        <v>10.212299114960944</v>
+        <v>10.212283578778035</v>
       </c>
     </row>
     <row r="332">
@@ -47952,19 +47952,19 @@
         <v>619.88724482849693</v>
       </c>
       <c r="D332" s="161">
-        <v>627.446858164786</v>
+        <v>627.446831760628</v>
       </c>
       <c r="E332" s="161">
-        <v>7.5596133362890683</v>
+        <v>7.5595869321310891</v>
       </c>
       <c r="F332" s="161">
         <v>694.421138563373</v>
       </c>
       <c r="G332" s="161">
-        <v>701.426436525138</v>
+        <v>701.426378076334</v>
       </c>
       <c r="H332" s="161">
-        <v>7.0052979617649687</v>
+        <v>7.0052395129610083</v>
       </c>
     </row>
     <row r="333">
@@ -48044,19 +48044,19 @@
         <v>1012.0535599269899</v>
       </c>
       <c r="D336" s="161">
-        <v>1031.4929920024501</v>
+        <v>1031.49296559829</v>
       </c>
       <c r="E336" s="161">
-        <v>19.439432075460093</v>
+        <v>19.439405671300019</v>
       </c>
       <c r="F336" s="161">
         <v>1377.94388560521</v>
       </c>
       <c r="G336" s="161">
-        <v>1404.74650844916</v>
+        <v>1404.7464500003498</v>
       </c>
       <c r="H336" s="161">
-        <v>26.802622843950054</v>
+        <v>26.802564395139925</v>
       </c>
     </row>
     <row r="337">
@@ -48228,19 +48228,19 @@
         <v>1279.2649008344602</v>
       </c>
       <c r="D344" s="161">
-        <v>1301.58480469133</v>
+        <v>1301.58477828718</v>
       </c>
       <c r="E344" s="161">
-        <v>22.31990385687002</v>
+        <v>22.319877452719957</v>
       </c>
       <c r="F344" s="161">
         <v>1713.63046174595</v>
       </c>
       <c r="G344" s="161">
-        <v>1719.23550689851</v>
+        <v>1719.23544844971</v>
       </c>
       <c r="H344" s="161">
-        <v>5.605045152560109</v>
+        <v>5.604986703759991</v>
       </c>
     </row>
     <row r="345">
@@ -48337,16 +48337,16 @@
         <v>1286.2005190091011</v>
       </c>
       <c r="G354" s="108">
-        <v>1283.05543915277</v>
+        <v>1283.233695398013</v>
       </c>
       <c r="H354" s="108">
-        <v>1274.960596822656</v>
+        <v>1275.0002560222579</v>
       </c>
       <c r="I354" s="108">
-        <v>1265.9827497771771</v>
+        <v>1265.975668589105</v>
       </c>
       <c r="J354" s="108">
-        <v>1253.521340118074</v>
+        <v>1253.636652368634</v>
       </c>
     </row>
     <row r="355" s="108" customFormat="1">
@@ -48391,10 +48391,10 @@
         <v>1556</v>
       </c>
       <c r="D371" s="112">
-        <v>1507.2359238294362</v>
+        <v>1507.4141800746791</v>
       </c>
       <c r="E371" s="113">
-        <v>-3.1339380572341797</v>
+        <v>-3.1224820003419631</v>
       </c>
     </row>
     <row r="372">
@@ -48405,10 +48405,10 @@
         <v>1540</v>
       </c>
       <c r="D372" s="112">
-        <v>1483.7194768045411</v>
+        <v>1483.7195166873219</v>
       </c>
       <c r="E372" s="113">
-        <v>-3.6545794282765556</v>
+        <v>-3.6545768384855939</v>
       </c>
     </row>
     <row r="373">
@@ -48433,10 +48433,10 @@
         <v>3</v>
       </c>
       <c r="D374" s="112">
-        <v>3.7942669243593841</v>
+        <v>3.9724832868214648</v>
       </c>
       <c r="E374" s="113">
-        <v>26.475564145312802</v>
+        <v>32.416109560715491</v>
       </c>
     </row>
     <row r="375">
@@ -48461,10 +48461,10 @@
         <v>1344</v>
       </c>
       <c r="D376" s="112">
-        <v>1283.0554391527699</v>
+        <v>1283.2336953980127</v>
       </c>
       <c r="E376" s="113">
-        <v>-4.5345655392284341</v>
+        <v>-4.5213024257431</v>
       </c>
     </row>
     <row r="377">
@@ -48520,7 +48520,7 @@
         <v>62.4999999999999</v>
       </c>
       <c r="E380" s="113">
-        <v>-3.1339380572341797</v>
+        <v>-3.1224820003419631</v>
       </c>
     </row>
     <row r="381">
@@ -48541,10 +48541,10 @@
         <v>91</v>
       </c>
       <c r="D382" s="112">
-        <v>73.0936105409456</v>
+        <v>73.1309113988936</v>
       </c>
       <c r="E382" s="113">
-        <v>-19.67735105390593</v>
+        <v>-19.636361100116922</v>
       </c>
     </row>
     <row r="383">
@@ -48555,10 +48555,10 @@
         <v>299</v>
       </c>
       <c r="D383" s="112">
-        <v>276.21182861182405</v>
+        <v>276.35278399911914</v>
       </c>
       <c r="E383" s="113">
-        <v>-7.6214620027344324</v>
+        <v>-7.5743197327360736</v>
       </c>
     </row>
     <row r="385">
@@ -48591,10 +48591,10 @@
         <v>6091</v>
       </c>
       <c r="D387" s="112">
-        <v>5799.0244106072732</v>
+        <v>5799.350557114607</v>
       </c>
       <c r="E387" s="113">
-        <v>-4.7935575339472463</v>
+        <v>-4.78820296971586</v>
       </c>
     </row>
     <row r="388">
@@ -48605,10 +48605,10 @@
         <v>5985</v>
       </c>
       <c r="D388" s="112">
-        <v>5708.0559290791052</v>
+        <v>5708.0560082812881</v>
       </c>
       <c r="E388" s="113">
-        <v>-4.6273027722789433</v>
+        <v>-4.627301448934201</v>
       </c>
     </row>
     <row r="389">
@@ -48633,10 +48633,10 @@
         <v>27</v>
       </c>
       <c r="D390" s="112">
-        <v>17.463232097162603</v>
+        <v>17.789299402313503</v>
       </c>
       <c r="E390" s="113">
-        <v>-35.32136260310147</v>
+        <v>-34.113705917357393</v>
       </c>
     </row>
     <row r="391">
@@ -48661,10 +48661,10 @@
         <v>5183</v>
       </c>
       <c r="D392" s="112">
-        <v>5077.5201258706766</v>
+        <v>5077.84627237801</v>
       </c>
       <c r="E392" s="113">
-        <v>-2.0351123698499602</v>
+        <v>-2.0288197496042768</v>
       </c>
     </row>
     <row r="393">
@@ -48720,7 +48720,7 @@
         <v>249.99999999999966</v>
       </c>
       <c r="E396" s="113">
-        <v>-4.7935575339472463</v>
+        <v>-4.78820296971586</v>
       </c>
     </row>
     <row r="397">
@@ -48741,10 +48741,10 @@
         <v>303</v>
       </c>
       <c r="D398" s="112">
-        <v>280.927899267137</v>
+        <v>280.99614677523226</v>
       </c>
       <c r="E398" s="113">
-        <v>-7.2845216940141979</v>
+        <v>-7.2619977639497488</v>
       </c>
     </row>
     <row r="399">
@@ -48755,10 +48755,10 @@
         <v>1145</v>
       </c>
       <c r="D399" s="112">
-        <v>1061.5922266035368</v>
+        <v>1061.8501256027746</v>
       </c>
       <c r="E399" s="113">
-        <v>-7.284521694014253</v>
+        <v>-7.2619977639498172</v>
       </c>
     </row>
     <row r="401">

--- a/lib/report/benchmark_report/web14/exl/202012/jsliu__bank_test_&_city_(HF)(202012)_Two_Cycles_Comparison.xlsx
+++ b/lib/report/benchmark_report/web14/exl/202012/jsliu__bank_test_&_city_(HF)(202012)_Two_Cycles_Comparison.xlsx
@@ -146,10 +146,22 @@
     <t xml:space="preserve">    Loans to finance agricultural production and other loans to farmers</t>
   </si>
   <si>
+    <t xml:space="preserve">    Commercial and industrial loans</t>
+  </si>
+  <si>
     <t xml:space="preserve">      Automobile loans</t>
   </si>
   <si>
     <t xml:space="preserve">      Other consumer loans (includes single payment, installment, and all student loans)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Loans to individuals for household, family, and other personal expenditures (i.e., consumer loans) (includes purchased paper)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Obligations (other than securities and leases) of states and political subdivisions in the U.S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Any unearned income on loans reflected</t>
   </si>
   <si>
     <t xml:space="preserve">  Loans and lease financing receivables</t>
@@ -365,7 +377,7 @@
     <t xml:space="preserve">Bank Name: jsliu  bank test &amp; city (HF)</t>
   </si>
   <si>
-    <t>Printed on: 04/08/21 5:23:30AM</t>
+    <t>Printed on: 05/14/21 2:32:37PM</t>
   </si>
   <si>
     <t xml:space="preserve">Cycle: December, 2020    Evaluation Date: December 31, 2020</t>
@@ -657,22 +669,10 @@
     <t>LIABILITIES</t>
   </si>
   <si>
-    <t xml:space="preserve">    Commercial and industrial loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Loans to individuals for household, family, and other personal expenditures (i.e., consumer loans) (includes purchased paper)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Obligations (other than securities and leases) of states and political subdivisions in the U.S.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Any unearned income on loans reflected</t>
-  </si>
-  <si>
     <t xml:space="preserve">jsliu  bank test &amp; city (HF)-202009</t>
   </si>
   <si>
-    <t>Printed on: 04/08/21 5:23:26AM</t>
+    <t>Printed on: 05/14/21 2:32:33PM</t>
   </si>
   <si>
     <t xml:space="preserve">Earning/
@@ -2789,7 +2789,7 @@
     <row r="1" ht="55.5" customHeight="1"/>
     <row r="2" ht="26.25" customHeight="1">
       <c r="B2" s="95" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C2" s="95"/>
       <c r="D2" s="95"/>
@@ -2835,7 +2835,7 @@
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="B3" s="21" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
@@ -2883,7 +2883,7 @@
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="B4" s="21" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
@@ -2929,16 +2929,16 @@
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="B5" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="B6" s="96" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C6" s="96"/>
       <c r="D6" s="96" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E6" s="96"/>
       <c r="F6" s="96"/>
@@ -2948,7 +2948,7 @@
       <c r="J6" s="96"/>
       <c r="K6" s="97"/>
       <c r="L6" s="98" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="M6" s="96"/>
       <c r="N6" s="96"/>
@@ -2958,7 +2958,7 @@
       <c r="R6" s="96"/>
       <c r="S6" s="97"/>
       <c r="T6" s="98" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="U6" s="96"/>
       <c r="V6" s="96"/>
@@ -2968,7 +2968,7 @@
       <c r="Z6" s="96"/>
       <c r="AA6" s="97"/>
       <c r="AB6" s="98" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AC6" s="96"/>
       <c r="AD6" s="96"/>
@@ -2978,7 +2978,7 @@
       <c r="AH6" s="96"/>
       <c r="AI6" s="97"/>
       <c r="AJ6" s="96" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AK6" s="96"/>
       <c r="AL6" s="96"/>
@@ -3054,7 +3054,7 @@
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="B8" s="91" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C8" s="91"/>
       <c r="D8" s="75">
@@ -3120,7 +3120,7 @@
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="B9" s="91" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C9" s="91"/>
       <c r="D9" s="75">
@@ -3186,7 +3186,7 @@
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="B10" s="91" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C10" s="91"/>
       <c r="D10" s="75">
@@ -3252,7 +3252,7 @@
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="B11" s="91" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C11" s="91"/>
       <c r="D11" s="75">
@@ -3318,7 +3318,7 @@
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="B12" s="91" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C12" s="91"/>
       <c r="D12" s="75">
@@ -3384,7 +3384,7 @@
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="B13" s="91" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C13" s="91"/>
       <c r="D13" s="75">
@@ -3450,7 +3450,7 @@
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="B14" s="91" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C14" s="91"/>
       <c r="D14" s="75">
@@ -3516,7 +3516,7 @@
     </row>
     <row r="15" hidden="1" ht="14.25" customHeight="1">
       <c r="B15" s="91" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C15" s="91"/>
       <c r="D15" s="75"/>
@@ -3562,7 +3562,7 @@
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="B16" s="91" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C16" s="91"/>
       <c r="D16" s="75">
@@ -3628,7 +3628,7 @@
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="B17" s="91" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C17" s="91"/>
       <c r="D17" s="75">
@@ -3694,7 +3694,7 @@
     </row>
     <row r="18" hidden="1" ht="14.25" customHeight="1">
       <c r="B18" s="91" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C18" s="91"/>
       <c r="D18" s="75"/>
@@ -3754,13 +3754,13 @@
       <c r="J20" s="56"/>
       <c r="K20" s="56"/>
       <c r="L20" s="56" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M20" s="56"/>
       <c r="N20" s="56"/>
       <c r="O20" s="57"/>
       <c r="P20" s="61" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q20" s="62"/>
       <c r="R20" s="62"/>
@@ -3806,7 +3806,7 @@
       <c r="N21" s="56"/>
       <c r="O21" s="57"/>
       <c r="P21" s="88" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q21" s="56"/>
       <c r="R21" s="56"/>
@@ -3818,7 +3818,7 @@
       <c r="V21" s="56"/>
       <c r="W21" s="56"/>
       <c r="X21" s="88" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Y21" s="88"/>
       <c r="Z21" s="88"/>
@@ -3828,19 +3828,19 @@
       <c r="AD21" s="88"/>
       <c r="AE21" s="88"/>
       <c r="AF21" s="88" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="AG21" s="56"/>
       <c r="AH21" s="56"/>
       <c r="AI21" s="56"/>
       <c r="AJ21" s="88" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="AK21" s="88"/>
       <c r="AL21" s="88"/>
       <c r="AM21" s="88"/>
       <c r="AN21" s="88" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AO21" s="88"/>
       <c r="AP21" s="88"/>
@@ -3892,7 +3892,7 @@
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="B23" s="83" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C23" s="83"/>
       <c r="D23" s="74">
@@ -3950,7 +3950,7 @@
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="B24" s="83" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C24" s="83"/>
       <c r="D24" s="74">
@@ -4008,7 +4008,7 @@
     </row>
     <row r="25" ht="14.25" customHeight="1">
       <c r="B25" s="83" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C25" s="83"/>
       <c r="D25" s="74">
@@ -4072,7 +4072,7 @@
     </row>
     <row r="26" ht="14.25" customHeight="1">
       <c r="B26" s="83" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C26" s="83"/>
       <c r="D26" s="74">
@@ -4194,7 +4194,7 @@
     </row>
     <row r="29" ht="14.25" customHeight="1">
       <c r="B29" s="83" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C29" s="83"/>
       <c r="D29" s="73">
@@ -4244,7 +4244,7 @@
     </row>
     <row r="30" ht="14.25" customHeight="1">
       <c r="B30" s="83" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C30" s="83"/>
       <c r="D30" s="73">
@@ -4296,7 +4296,7 @@
     </row>
     <row r="31" ht="14.25" customHeight="1">
       <c r="B31" s="83" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C31" s="83"/>
       <c r="D31" s="73">
@@ -4348,17 +4348,17 @@
     </row>
     <row r="32" ht="14.25" customHeight="1">
       <c r="B32" s="83" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C32" s="83"/>
       <c r="D32" s="73" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E32" s="73"/>
       <c r="F32" s="73"/>
       <c r="G32" s="73"/>
       <c r="H32" s="73" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="I32" s="73"/>
       <c r="J32" s="73"/>
@@ -4404,7 +4404,7 @@
       </c>
       <c r="C34" s="77"/>
       <c r="D34" s="77" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E34" s="77"/>
       <c r="F34" s="77"/>
@@ -4424,7 +4424,7 @@
       <c r="T34" s="77"/>
       <c r="U34" s="85"/>
       <c r="V34" s="86" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="W34" s="77"/>
       <c r="X34" s="77"/>
@@ -4454,7 +4454,7 @@
       <c r="AT34" s="79"/>
       <c r="AU34" s="79"/>
       <c r="AV34" s="79" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="AW34" s="79"/>
       <c r="AX34" s="79"/>
@@ -4466,7 +4466,7 @@
       <c r="B35" s="77"/>
       <c r="C35" s="77"/>
       <c r="D35" s="78" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E35" s="78"/>
       <c r="F35" s="78" t="s">
@@ -4474,12 +4474,12 @@
       </c>
       <c r="G35" s="78"/>
       <c r="H35" s="77" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I35" s="77"/>
       <c r="J35" s="77"/>
       <c r="K35" s="77" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="L35" s="77"/>
       <c r="M35" s="77"/>
@@ -4492,7 +4492,7 @@
       </c>
       <c r="Q35" s="78"/>
       <c r="R35" s="78" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="S35" s="78"/>
       <c r="T35" s="78" t="s">
@@ -4500,7 +4500,7 @@
       </c>
       <c r="U35" s="80"/>
       <c r="V35" s="81" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="W35" s="78"/>
       <c r="X35" s="78" t="s">
@@ -4508,12 +4508,12 @@
       </c>
       <c r="Y35" s="78"/>
       <c r="Z35" s="77" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AA35" s="77"/>
       <c r="AB35" s="77"/>
       <c r="AC35" s="77" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="AD35" s="77"/>
       <c r="AE35" s="77"/>
@@ -4526,7 +4526,7 @@
       </c>
       <c r="AI35" s="78"/>
       <c r="AJ35" s="78" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="AK35" s="78"/>
       <c r="AL35" s="78" t="s">
@@ -4534,7 +4534,7 @@
       </c>
       <c r="AM35" s="80"/>
       <c r="AN35" s="82" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="AO35" s="82"/>
       <c r="AP35" s="82" t="s">
@@ -4542,11 +4542,11 @@
       </c>
       <c r="AQ35" s="82"/>
       <c r="AR35" s="82" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="AS35" s="82"/>
       <c r="AT35" s="82" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="AU35" s="82"/>
       <c r="AV35" s="17">
@@ -4616,27 +4616,27 @@
       <c r="AT36" s="82"/>
       <c r="AU36" s="82"/>
       <c r="AV36" s="16" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="AW36" s="16" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AX36" s="16" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AY36" s="16" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="AZ36" s="16" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BA36" s="16" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" s="119" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C37" s="120"/>
       <c r="D37" s="120"/>
@@ -4692,7 +4692,7 @@
     </row>
     <row r="38">
       <c r="B38" s="128" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C38" s="128"/>
       <c r="D38" s="129">
@@ -4796,7 +4796,7 @@
     </row>
     <row r="39">
       <c r="B39" s="128" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C39" s="128"/>
       <c r="D39" s="129">
@@ -4900,7 +4900,7 @@
     </row>
     <row r="40">
       <c r="B40" s="128" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C40" s="128"/>
       <c r="D40" s="129">
@@ -5004,7 +5004,7 @@
     </row>
     <row r="41">
       <c r="B41" s="128" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C41" s="128"/>
       <c r="D41" s="129">
@@ -5109,7 +5109,7 @@
     <row r="42"/>
     <row r="43">
       <c r="B43" s="119" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C43" s="120"/>
       <c r="D43" s="120"/>
@@ -8001,7 +8001,7 @@
     </row>
     <row r="71">
       <c r="B71" s="124" t="s">
-        <v>212</v>
+        <v>42</v>
       </c>
       <c r="C71" s="124"/>
       <c r="D71" s="125">
@@ -8109,7 +8109,7 @@
     </row>
     <row r="72">
       <c r="B72" s="124" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C72" s="124"/>
       <c r="D72" s="125">
@@ -8217,7 +8217,7 @@
     </row>
     <row r="73">
       <c r="B73" s="124" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C73" s="124"/>
       <c r="D73" s="125">
@@ -8325,7 +8325,7 @@
     </row>
     <row r="74">
       <c r="B74" s="132" t="s">
-        <v>213</v>
+        <v>45</v>
       </c>
       <c r="C74" s="132"/>
       <c r="D74" s="133">
@@ -8433,7 +8433,7 @@
     </row>
     <row r="75">
       <c r="B75" s="124" t="s">
-        <v>214</v>
+        <v>46</v>
       </c>
       <c r="C75" s="124"/>
       <c r="D75" s="125">
@@ -8541,7 +8541,7 @@
     </row>
     <row r="76">
       <c r="B76" s="124" t="s">
-        <v>215</v>
+        <v>47</v>
       </c>
       <c r="C76" s="124"/>
       <c r="D76" s="125">
@@ -8649,7 +8649,7 @@
     </row>
     <row r="77">
       <c r="B77" s="132" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C77" s="132"/>
       <c r="D77" s="133">
@@ -8757,7 +8757,7 @@
     </row>
     <row r="78">
       <c r="B78" s="124" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C78" s="124"/>
       <c r="D78" s="125">
@@ -8861,7 +8861,7 @@
     </row>
     <row r="79">
       <c r="B79" s="124" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C79" s="124"/>
       <c r="D79" s="125">
@@ -8965,7 +8965,7 @@
     </row>
     <row r="80">
       <c r="B80" s="124" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C80" s="124"/>
       <c r="D80" s="125">
@@ -9069,7 +9069,7 @@
     </row>
     <row r="81">
       <c r="B81" s="124" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C81" s="124"/>
       <c r="D81" s="125"/>
@@ -9159,7 +9159,7 @@
     </row>
     <row r="82">
       <c r="B82" s="132" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C82" s="132"/>
       <c r="D82" s="133">
@@ -9263,7 +9263,7 @@
     </row>
     <row r="83">
       <c r="B83" s="132" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C83" s="132"/>
       <c r="D83" s="133">
@@ -9368,7 +9368,7 @@
     <row r="84"/>
     <row r="85">
       <c r="B85" s="119" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C85" s="120"/>
       <c r="D85" s="120"/>
@@ -9424,7 +9424,7 @@
     </row>
     <row r="86">
       <c r="B86" s="124" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C86" s="124"/>
       <c r="D86" s="125">
@@ -9532,7 +9532,7 @@
     </row>
     <row r="87">
       <c r="B87" s="124" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C87" s="124"/>
       <c r="D87" s="125">
@@ -9640,7 +9640,7 @@
     </row>
     <row r="88">
       <c r="B88" s="124" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C88" s="124"/>
       <c r="D88" s="125">
@@ -9748,7 +9748,7 @@
     </row>
     <row r="89">
       <c r="B89" s="124" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C89" s="124"/>
       <c r="D89" s="125">
@@ -9856,7 +9856,7 @@
     </row>
     <row r="90">
       <c r="B90" s="124" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C90" s="124"/>
       <c r="D90" s="125">
@@ -9964,7 +9964,7 @@
     </row>
     <row r="91">
       <c r="B91" s="132" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C91" s="132"/>
       <c r="D91" s="133">
@@ -10068,7 +10068,7 @@
     </row>
     <row r="92">
       <c r="B92" s="124" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C92" s="124"/>
       <c r="D92" s="125">
@@ -10172,7 +10172,7 @@
     </row>
     <row r="93">
       <c r="B93" s="132" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C93" s="132"/>
       <c r="D93" s="133">
@@ -10276,7 +10276,7 @@
     </row>
     <row r="94">
       <c r="B94" s="132" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C94" s="132"/>
       <c r="D94" s="133">
@@ -10949,7 +10949,7 @@
     </row>
     <row r="110" ht="14.25" customHeight="1">
       <c r="B110" s="54" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C110" s="54"/>
       <c r="D110" s="54"/>
@@ -10991,59 +10991,59 @@
     </row>
     <row r="111" ht="14.25" customHeight="1">
       <c r="B111" s="72" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C111" s="72"/>
       <c r="D111" s="76" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E111" s="76"/>
       <c r="F111" s="76"/>
       <c r="G111" s="76"/>
       <c r="H111" s="76" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="I111" s="76"/>
       <c r="J111" s="76"/>
       <c r="K111" s="76"/>
       <c r="L111" s="76" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M111" s="76"/>
       <c r="N111" s="76"/>
       <c r="O111" s="76"/>
       <c r="P111" s="76" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Q111" s="76"/>
       <c r="R111" s="76"/>
       <c r="S111" s="76"/>
       <c r="T111" s="76" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="U111" s="76"/>
       <c r="V111" s="76"/>
       <c r="W111" s="76"/>
       <c r="X111" s="76" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="Y111" s="76"/>
       <c r="Z111" s="76"/>
       <c r="AA111" s="76"/>
       <c r="AB111" s="76" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AC111" s="76"/>
       <c r="AD111" s="76"/>
       <c r="AE111" s="76"/>
       <c r="AF111" s="76" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AG111" s="76"/>
       <c r="AH111" s="76"/>
       <c r="AI111" s="76"/>
       <c r="AJ111" s="76" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AK111" s="76"/>
       <c r="AL111" s="76"/>
@@ -11051,7 +11051,7 @@
     </row>
     <row r="112" ht="14.25" customHeight="1">
       <c r="B112" s="14" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C112" s="14"/>
       <c r="D112" s="68">
@@ -11111,7 +11111,7 @@
     </row>
     <row r="113" ht="14.25" customHeight="1">
       <c r="B113" s="14" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C113" s="14"/>
       <c r="D113" s="74">
@@ -11171,7 +11171,7 @@
     </row>
     <row r="115" ht="14.25" customHeight="1">
       <c r="B115" s="71" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C115" s="71"/>
       <c r="D115" s="71"/>
@@ -11216,7 +11216,7 @@
     </row>
     <row r="116" ht="14.25" customHeight="1">
       <c r="B116" s="72" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C116" s="72"/>
       <c r="D116" s="70">
@@ -11299,7 +11299,7 @@
     </row>
     <row r="117" ht="14.25" customHeight="1">
       <c r="B117" s="69" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C117" s="69"/>
       <c r="D117" s="68"/>
@@ -11368,7 +11368,7 @@
     </row>
     <row r="118" ht="14.25" customHeight="1">
       <c r="B118" s="69" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C118" s="69"/>
       <c r="D118" s="68"/>
@@ -11437,7 +11437,7 @@
     </row>
     <row r="119" ht="14.25" customHeight="1">
       <c r="B119" s="69" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C119" s="69"/>
       <c r="D119" s="68"/>
@@ -11506,7 +11506,7 @@
     </row>
     <row r="120" ht="14.25" customHeight="1">
       <c r="B120" s="69" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C120" s="69"/>
       <c r="D120" s="68"/>
@@ -11575,7 +11575,7 @@
     </row>
     <row r="121" ht="14.25" customHeight="1">
       <c r="B121" s="69" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C121" s="69"/>
       <c r="D121" s="68"/>
@@ -11644,7 +11644,7 @@
     </row>
     <row r="122" ht="14.25" customHeight="1">
       <c r="B122" s="69" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C122" s="69"/>
       <c r="D122" s="68"/>
@@ -11713,7 +11713,7 @@
     </row>
     <row r="123" ht="14.25" customHeight="1">
       <c r="B123" s="69" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C123" s="69"/>
       <c r="D123" s="68"/>
@@ -11782,7 +11782,7 @@
     </row>
     <row r="124" ht="14.25" customHeight="1">
       <c r="B124" s="69" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C124" s="69"/>
       <c r="D124" s="68"/>
@@ -11851,7 +11851,7 @@
     </row>
     <row r="125" ht="14.25" customHeight="1">
       <c r="B125" s="69" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C125" s="69"/>
       <c r="D125" s="68">
@@ -11926,7 +11926,7 @@
     </row>
     <row r="127" ht="14.25" customHeight="1">
       <c r="B127" s="71" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C127" s="71"/>
       <c r="D127" s="71"/>
@@ -11971,7 +11971,7 @@
     </row>
     <row r="128" ht="14.25" customHeight="1">
       <c r="B128" s="72" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C128" s="72"/>
       <c r="D128" s="70">
@@ -12054,7 +12054,7 @@
     </row>
     <row r="129" ht="14.25" customHeight="1">
       <c r="B129" s="69" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C129" s="69"/>
       <c r="D129" s="68"/>
@@ -12117,7 +12117,7 @@
     </row>
     <row r="130" ht="14.25" customHeight="1">
       <c r="B130" s="69" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C130" s="69"/>
       <c r="D130" s="68"/>
@@ -12180,7 +12180,7 @@
     </row>
     <row r="131" ht="14.25" customHeight="1">
       <c r="B131" s="69" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C131" s="69"/>
       <c r="D131" s="68"/>
@@ -12243,7 +12243,7 @@
     </row>
     <row r="132" ht="14.25" customHeight="1">
       <c r="B132" s="69" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C132" s="69"/>
       <c r="D132" s="68"/>
@@ -12306,7 +12306,7 @@
     </row>
     <row r="133" ht="14.25" customHeight="1">
       <c r="B133" s="69" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C133" s="69"/>
       <c r="D133" s="68"/>
@@ -12369,7 +12369,7 @@
     </row>
     <row r="134" ht="14.25" customHeight="1">
       <c r="B134" s="69" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C134" s="69"/>
       <c r="D134" s="68"/>
@@ -12432,7 +12432,7 @@
     </row>
     <row r="135" ht="14.25" customHeight="1">
       <c r="B135" s="69" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C135" s="69"/>
       <c r="D135" s="68"/>
@@ -12495,7 +12495,7 @@
     </row>
     <row r="136" ht="14.25" customHeight="1">
       <c r="B136" s="69" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C136" s="69"/>
       <c r="D136" s="68"/>
@@ -12558,7 +12558,7 @@
     </row>
     <row r="137" ht="14.25" customHeight="1">
       <c r="B137" s="69" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C137" s="69"/>
       <c r="D137" s="68"/>
@@ -13853,41 +13853,41 @@
     </row>
     <row r="170">
       <c r="B170" s="136" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C170" s="136"/>
       <c r="D170" s="143">
-        <v>2096</v>
+        <v>9545</v>
       </c>
       <c r="E170" s="143"/>
       <c r="F170" s="143"/>
       <c r="G170" s="143"/>
       <c r="H170" s="143">
-        <v>2079</v>
+        <v>8568.00000000001</v>
       </c>
       <c r="I170" s="143"/>
       <c r="J170" s="143"/>
       <c r="K170" s="143"/>
       <c r="L170" s="143">
-        <v>-17</v>
+        <v>-976.99999999999068</v>
       </c>
       <c r="M170" s="143"/>
       <c r="N170" s="143"/>
       <c r="O170" s="143"/>
       <c r="P170" s="143">
-        <v>2096</v>
+        <v>9545</v>
       </c>
       <c r="Q170" s="143"/>
       <c r="R170" s="143"/>
       <c r="S170" s="143"/>
       <c r="T170" s="143">
-        <v>2079</v>
+        <v>8568.00000000001</v>
       </c>
       <c r="U170" s="143"/>
       <c r="V170" s="143"/>
       <c r="W170" s="143"/>
       <c r="X170" s="143">
-        <v>-17</v>
+        <v>-976.99999999999068</v>
       </c>
       <c r="Y170" s="143"/>
       <c r="Z170" s="143"/>
@@ -13895,7 +13895,7 @@
     </row>
     <row r="171">
       <c r="B171" s="136" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C171" s="136"/>
       <c r="D171" s="143">
@@ -13937,7 +13937,7 @@
     </row>
     <row r="172">
       <c r="B172" s="136" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C172" s="136"/>
       <c r="D172" s="143">
@@ -13978,84 +13978,84 @@
       <c r="AA172" s="143"/>
     </row>
     <row r="173">
-      <c r="B173" s="136" t="s">
-        <v>41</v>
-      </c>
-      <c r="C173" s="136"/>
-      <c r="D173" s="143">
-        <v>2096</v>
-      </c>
-      <c r="E173" s="143"/>
-      <c r="F173" s="143"/>
-      <c r="G173" s="143"/>
-      <c r="H173" s="143">
-        <v>2079</v>
-      </c>
-      <c r="I173" s="143"/>
-      <c r="J173" s="143"/>
-      <c r="K173" s="143"/>
-      <c r="L173" s="143">
-        <v>-17</v>
-      </c>
-      <c r="M173" s="143"/>
-      <c r="N173" s="143"/>
-      <c r="O173" s="143"/>
-      <c r="P173" s="143">
-        <v>2096</v>
-      </c>
-      <c r="Q173" s="143"/>
-      <c r="R173" s="143"/>
-      <c r="S173" s="143"/>
-      <c r="T173" s="143">
-        <v>2079</v>
-      </c>
-      <c r="U173" s="143"/>
-      <c r="V173" s="143"/>
-      <c r="W173" s="143"/>
-      <c r="X173" s="143">
-        <v>-17</v>
-      </c>
-      <c r="Y173" s="143"/>
-      <c r="Z173" s="143"/>
-      <c r="AA173" s="143"/>
+      <c r="B173" s="144" t="s">
+        <v>45</v>
+      </c>
+      <c r="C173" s="144"/>
+      <c r="D173" s="145">
+        <v>8536</v>
+      </c>
+      <c r="E173" s="145"/>
+      <c r="F173" s="145"/>
+      <c r="G173" s="145"/>
+      <c r="H173" s="145">
+        <v>8673</v>
+      </c>
+      <c r="I173" s="145"/>
+      <c r="J173" s="145"/>
+      <c r="K173" s="145"/>
+      <c r="L173" s="145">
+        <v>137</v>
+      </c>
+      <c r="M173" s="145"/>
+      <c r="N173" s="145"/>
+      <c r="O173" s="145"/>
+      <c r="P173" s="145">
+        <v>8536</v>
+      </c>
+      <c r="Q173" s="145"/>
+      <c r="R173" s="145"/>
+      <c r="S173" s="145"/>
+      <c r="T173" s="145">
+        <v>8673</v>
+      </c>
+      <c r="U173" s="145"/>
+      <c r="V173" s="145"/>
+      <c r="W173" s="145"/>
+      <c r="X173" s="145">
+        <v>137</v>
+      </c>
+      <c r="Y173" s="145"/>
+      <c r="Z173" s="145"/>
+      <c r="AA173" s="145"/>
     </row>
     <row r="174">
       <c r="B174" s="136" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C174" s="136"/>
       <c r="D174" s="143">
-        <v>2096</v>
+        <v>960.000000000001</v>
       </c>
       <c r="E174" s="143"/>
       <c r="F174" s="143"/>
       <c r="G174" s="143"/>
       <c r="H174" s="143">
-        <v>2079</v>
+        <v>957</v>
       </c>
       <c r="I174" s="143"/>
       <c r="J174" s="143"/>
       <c r="K174" s="143"/>
       <c r="L174" s="143">
-        <v>-17</v>
+        <v>-3.0000000000010476</v>
       </c>
       <c r="M174" s="143"/>
       <c r="N174" s="143"/>
       <c r="O174" s="143"/>
       <c r="P174" s="143">
-        <v>2096</v>
+        <v>960.000000000001</v>
       </c>
       <c r="Q174" s="143"/>
       <c r="R174" s="143"/>
       <c r="S174" s="143"/>
       <c r="T174" s="143">
-        <v>2079</v>
+        <v>957</v>
       </c>
       <c r="U174" s="143"/>
       <c r="V174" s="143"/>
       <c r="W174" s="143"/>
       <c r="X174" s="143">
-        <v>-17</v>
+        <v>-3.0000000000010476</v>
       </c>
       <c r="Y174" s="143"/>
       <c r="Z174" s="143"/>
@@ -14063,41 +14063,41 @@
     </row>
     <row r="175">
       <c r="B175" s="136" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C175" s="136"/>
       <c r="D175" s="143">
-        <v>2096</v>
+        <v>-71</v>
       </c>
       <c r="E175" s="143"/>
       <c r="F175" s="143"/>
       <c r="G175" s="143"/>
       <c r="H175" s="143">
-        <v>2079</v>
+        <v>-30</v>
       </c>
       <c r="I175" s="143"/>
       <c r="J175" s="143"/>
       <c r="K175" s="143"/>
       <c r="L175" s="143">
-        <v>-17</v>
+        <v>41</v>
       </c>
       <c r="M175" s="143"/>
       <c r="N175" s="143"/>
       <c r="O175" s="143"/>
       <c r="P175" s="143">
-        <v>2096</v>
+        <v>-71</v>
       </c>
       <c r="Q175" s="143"/>
       <c r="R175" s="143"/>
       <c r="S175" s="143"/>
       <c r="T175" s="143">
-        <v>2079</v>
+        <v>-30</v>
       </c>
       <c r="U175" s="143"/>
       <c r="V175" s="143"/>
       <c r="W175" s="143"/>
       <c r="X175" s="143">
-        <v>-17</v>
+        <v>41</v>
       </c>
       <c r="Y175" s="143"/>
       <c r="Z175" s="143"/>
@@ -14105,7 +14105,7 @@
     </row>
     <row r="176">
       <c r="B176" s="144" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C176" s="144"/>
       <c r="D176" s="145">
@@ -14147,7 +14147,7 @@
     </row>
     <row r="177">
       <c r="B177" s="136" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C177" s="136"/>
       <c r="D177" s="143">
@@ -14189,7 +14189,7 @@
     </row>
     <row r="178">
       <c r="B178" s="136" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C178" s="136"/>
       <c r="D178" s="143">
@@ -14231,7 +14231,7 @@
     </row>
     <row r="179">
       <c r="B179" s="136" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C179" s="136"/>
       <c r="D179" s="143">
@@ -14273,7 +14273,7 @@
     </row>
     <row r="180">
       <c r="B180" s="136" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C180" s="136"/>
       <c r="D180" s="143"/>
@@ -14311,7 +14311,7 @@
     </row>
     <row r="181">
       <c r="B181" s="144" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C181" s="144"/>
       <c r="D181" s="145">
@@ -14353,7 +14353,7 @@
     </row>
     <row r="182">
       <c r="B182" s="144" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C182" s="144"/>
       <c r="D182" s="145">
@@ -14396,7 +14396,7 @@
     <row r="183"/>
     <row r="184">
       <c r="B184" s="136" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C184" s="136"/>
       <c r="D184" s="143">
@@ -14438,7 +14438,7 @@
     </row>
     <row r="185">
       <c r="B185" s="136" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C185" s="136"/>
       <c r="D185" s="143">
@@ -14480,7 +14480,7 @@
     </row>
     <row r="186">
       <c r="B186" s="136" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C186" s="136"/>
       <c r="D186" s="143">
@@ -14522,7 +14522,7 @@
     </row>
     <row r="187">
       <c r="B187" s="136" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C187" s="136"/>
       <c r="D187" s="143">
@@ -14564,7 +14564,7 @@
     </row>
     <row r="188">
       <c r="B188" s="136" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C188" s="136"/>
       <c r="D188" s="143">
@@ -14606,7 +14606,7 @@
     </row>
     <row r="189">
       <c r="B189" s="144" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C189" s="144"/>
       <c r="D189" s="145">
@@ -14648,7 +14648,7 @@
     </row>
     <row r="190">
       <c r="B190" s="136" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C190" s="136"/>
       <c r="D190" s="143">
@@ -14690,7 +14690,7 @@
     </row>
     <row r="191">
       <c r="B191" s="144" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C191" s="144"/>
       <c r="D191" s="145">
@@ -14732,7 +14732,7 @@
     </row>
     <row r="192">
       <c r="B192" s="144" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C192" s="144"/>
       <c r="D192" s="145">
@@ -14775,7 +14775,7 @@
     <row r="193"/>
     <row r="194">
       <c r="B194" s="144" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C194" s="144"/>
       <c r="D194" s="145">
@@ -14873,7 +14873,7 @@
     </row>
     <row r="197" ht="14.25" customHeight="1">
       <c r="B197" s="54" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C197" s="54"/>
       <c r="D197" s="54"/>
@@ -16103,41 +16103,41 @@
     </row>
     <row r="227">
       <c r="B227" s="136" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C227" s="136"/>
       <c r="D227" s="143">
-        <v>122495.3756020305</v>
+        <v>559712.44495436409</v>
       </c>
       <c r="E227" s="143"/>
       <c r="F227" s="143"/>
       <c r="G227" s="143"/>
       <c r="H227" s="143">
-        <v>107521.10131851927</v>
+        <v>565226.888160672</v>
       </c>
       <c r="I227" s="143"/>
       <c r="J227" s="143"/>
       <c r="K227" s="143"/>
       <c r="L227" s="143">
-        <v>-14974.274283511229</v>
+        <v>5514.4432063079439</v>
       </c>
       <c r="M227" s="143"/>
       <c r="N227" s="143"/>
       <c r="O227" s="143"/>
       <c r="P227" s="143">
-        <v>103254.37077578387</v>
+        <v>581578.2666043503</v>
       </c>
       <c r="Q227" s="143"/>
       <c r="R227" s="143"/>
       <c r="S227" s="143"/>
       <c r="T227" s="143">
-        <v>92392.830693194</v>
+        <v>574888.61477792729</v>
       </c>
       <c r="U227" s="143"/>
       <c r="V227" s="143"/>
       <c r="W227" s="143"/>
       <c r="X227" s="143">
-        <v>-10861.540082589869</v>
+        <v>-6689.6518264230108</v>
       </c>
       <c r="Y227" s="143"/>
       <c r="Z227" s="143"/>
@@ -16145,7 +16145,7 @@
     </row>
     <row r="228">
       <c r="B228" s="136" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C228" s="136"/>
       <c r="D228" s="143">
@@ -16187,7 +16187,7 @@
     </row>
     <row r="229">
       <c r="B229" s="136" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C229" s="136"/>
       <c r="D229" s="143">
@@ -16228,84 +16228,84 @@
       <c r="AA229" s="143"/>
     </row>
     <row r="230">
-      <c r="B230" s="136" t="s">
-        <v>41</v>
-      </c>
-      <c r="C230" s="136"/>
-      <c r="D230" s="143">
-        <v>122495.3756020305</v>
-      </c>
-      <c r="E230" s="143"/>
-      <c r="F230" s="143"/>
-      <c r="G230" s="143"/>
-      <c r="H230" s="143">
-        <v>107521.10131851927</v>
-      </c>
-      <c r="I230" s="143"/>
-      <c r="J230" s="143"/>
-      <c r="K230" s="143"/>
-      <c r="L230" s="143">
-        <v>-14974.274283511229</v>
-      </c>
-      <c r="M230" s="143"/>
-      <c r="N230" s="143"/>
-      <c r="O230" s="143"/>
-      <c r="P230" s="143">
-        <v>103254.37077578387</v>
-      </c>
-      <c r="Q230" s="143"/>
-      <c r="R230" s="143"/>
-      <c r="S230" s="143"/>
-      <c r="T230" s="143">
-        <v>92392.830693194</v>
-      </c>
-      <c r="U230" s="143"/>
-      <c r="V230" s="143"/>
-      <c r="W230" s="143"/>
-      <c r="X230" s="143">
-        <v>-10861.540082589869</v>
-      </c>
-      <c r="Y230" s="143"/>
-      <c r="Z230" s="143"/>
-      <c r="AA230" s="143"/>
+      <c r="B230" s="144" t="s">
+        <v>45</v>
+      </c>
+      <c r="C230" s="144"/>
+      <c r="D230" s="145">
+        <v>596103.78847175266</v>
+      </c>
+      <c r="E230" s="145"/>
+      <c r="F230" s="145"/>
+      <c r="G230" s="145"/>
+      <c r="H230" s="145">
+        <v>588063.512351555</v>
+      </c>
+      <c r="I230" s="145"/>
+      <c r="J230" s="145"/>
+      <c r="K230" s="145"/>
+      <c r="L230" s="145">
+        <v>-8040.27612019761</v>
+      </c>
+      <c r="M230" s="145"/>
+      <c r="N230" s="145"/>
+      <c r="O230" s="145"/>
+      <c r="P230" s="145">
+        <v>551825.36122292187</v>
+      </c>
+      <c r="Q230" s="145"/>
+      <c r="R230" s="145"/>
+      <c r="S230" s="145"/>
+      <c r="T230" s="145">
+        <v>542882.70777494879</v>
+      </c>
+      <c r="U230" s="145"/>
+      <c r="V230" s="145"/>
+      <c r="W230" s="145"/>
+      <c r="X230" s="145">
+        <v>-8942.6534479730763</v>
+      </c>
+      <c r="Y230" s="145"/>
+      <c r="Z230" s="145"/>
+      <c r="AA230" s="145"/>
     </row>
     <row r="231">
       <c r="B231" s="136" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C231" s="136"/>
       <c r="D231" s="143">
-        <v>122495.3756020305</v>
+        <v>52213.033766412525</v>
       </c>
       <c r="E231" s="143"/>
       <c r="F231" s="143"/>
       <c r="G231" s="143"/>
       <c r="H231" s="143">
-        <v>107521.10131851927</v>
+        <v>66036.491336394509</v>
       </c>
       <c r="I231" s="143"/>
       <c r="J231" s="143"/>
       <c r="K231" s="143"/>
       <c r="L231" s="143">
-        <v>-14974.274283511229</v>
+        <v>13823.457569981983</v>
       </c>
       <c r="M231" s="143"/>
       <c r="N231" s="143"/>
       <c r="O231" s="143"/>
       <c r="P231" s="143">
-        <v>103254.37077578387</v>
+        <v>51899.965780413077</v>
       </c>
       <c r="Q231" s="143"/>
       <c r="R231" s="143"/>
       <c r="S231" s="143"/>
       <c r="T231" s="143">
-        <v>92392.830693194</v>
+        <v>65464.542653293138</v>
       </c>
       <c r="U231" s="143"/>
       <c r="V231" s="143"/>
       <c r="W231" s="143"/>
       <c r="X231" s="143">
-        <v>-10861.540082589869</v>
+        <v>13564.576872880061</v>
       </c>
       <c r="Y231" s="143"/>
       <c r="Z231" s="143"/>
@@ -16313,41 +16313,41 @@
     </row>
     <row r="232">
       <c r="B232" s="136" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C232" s="136"/>
       <c r="D232" s="143">
-        <v>122495.3756020305</v>
+        <v>0</v>
       </c>
       <c r="E232" s="143"/>
       <c r="F232" s="143"/>
       <c r="G232" s="143"/>
       <c r="H232" s="143">
-        <v>107521.10131851927</v>
+        <v>0</v>
       </c>
       <c r="I232" s="143"/>
       <c r="J232" s="143"/>
       <c r="K232" s="143"/>
       <c r="L232" s="143">
-        <v>-14974.274283511229</v>
+        <v>0</v>
       </c>
       <c r="M232" s="143"/>
       <c r="N232" s="143"/>
       <c r="O232" s="143"/>
       <c r="P232" s="143">
-        <v>103254.37077578387</v>
+        <v>0</v>
       </c>
       <c r="Q232" s="143"/>
       <c r="R232" s="143"/>
       <c r="S232" s="143"/>
       <c r="T232" s="143">
-        <v>92392.830693194</v>
+        <v>0</v>
       </c>
       <c r="U232" s="143"/>
       <c r="V232" s="143"/>
       <c r="W232" s="143"/>
       <c r="X232" s="143">
-        <v>-10861.540082589869</v>
+        <v>0</v>
       </c>
       <c r="Y232" s="143"/>
       <c r="Z232" s="143"/>
@@ -16355,7 +16355,7 @@
     </row>
     <row r="233">
       <c r="B233" s="144" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C233" s="144"/>
       <c r="D233" s="145">
@@ -16397,7 +16397,7 @@
     </row>
     <row r="234">
       <c r="B234" s="136" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C234" s="136"/>
       <c r="D234" s="143">
@@ -16439,7 +16439,7 @@
     </row>
     <row r="235">
       <c r="B235" s="136" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C235" s="136"/>
       <c r="D235" s="143">
@@ -16481,7 +16481,7 @@
     </row>
     <row r="236">
       <c r="B236" s="136" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C236" s="136"/>
       <c r="D236" s="143">
@@ -16523,7 +16523,7 @@
     </row>
     <row r="237">
       <c r="B237" s="136" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C237" s="136"/>
       <c r="D237" s="143"/>
@@ -16561,7 +16561,7 @@
     </row>
     <row r="238">
       <c r="B238" s="144" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C238" s="144"/>
       <c r="D238" s="145">
@@ -16603,7 +16603,7 @@
     </row>
     <row r="239">
       <c r="B239" s="144" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C239" s="144"/>
       <c r="D239" s="145">
@@ -16646,7 +16646,7 @@
     <row r="240"/>
     <row r="241">
       <c r="B241" s="136" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C241" s="136"/>
       <c r="D241" s="143">
@@ -16688,7 +16688,7 @@
     </row>
     <row r="242">
       <c r="B242" s="136" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C242" s="136"/>
       <c r="D242" s="143">
@@ -16730,7 +16730,7 @@
     </row>
     <row r="243">
       <c r="B243" s="136" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C243" s="136"/>
       <c r="D243" s="143">
@@ -16772,7 +16772,7 @@
     </row>
     <row r="244">
       <c r="B244" s="136" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C244" s="136"/>
       <c r="D244" s="143">
@@ -16814,7 +16814,7 @@
     </row>
     <row r="245">
       <c r="B245" s="136" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C245" s="136"/>
       <c r="D245" s="143">
@@ -16856,7 +16856,7 @@
     </row>
     <row r="246">
       <c r="B246" s="144" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C246" s="144"/>
       <c r="D246" s="145">
@@ -16898,7 +16898,7 @@
     </row>
     <row r="247">
       <c r="B247" s="136" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C247" s="136"/>
       <c r="D247" s="143">
@@ -16940,7 +16940,7 @@
     </row>
     <row r="248">
       <c r="B248" s="144" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C248" s="144"/>
       <c r="D248" s="145">
@@ -16982,7 +16982,7 @@
     </row>
     <row r="249">
       <c r="B249" s="144" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C249" s="144"/>
       <c r="D249" s="145">
@@ -17025,7 +17025,7 @@
     <row r="250"/>
     <row r="251">
       <c r="B251" s="144" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C251" s="144"/>
       <c r="D251" s="145">
@@ -17123,7 +17123,7 @@
     </row>
     <row r="254" ht="14.25" customHeight="1">
       <c r="B254" s="58" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C254" s="58"/>
       <c r="D254" s="58"/>
@@ -17139,7 +17139,7 @@
       <c r="N254" s="58"/>
       <c r="O254" s="58"/>
       <c r="P254" s="66" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="Q254" s="66"/>
       <c r="R254" s="66"/>
@@ -18357,41 +18357,41 @@
     </row>
     <row r="284">
       <c r="B284" s="136" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C284" s="136"/>
       <c r="D284" s="138">
-        <v>5.5207751606019082</v>
+        <v>5.6387188797749479</v>
       </c>
       <c r="E284" s="138"/>
       <c r="F284" s="138"/>
       <c r="G284" s="138"/>
       <c r="H284" s="138">
-        <v>4.8475907922362067</v>
+        <v>6.3269037025424018</v>
       </c>
       <c r="I284" s="138"/>
       <c r="J284" s="138"/>
       <c r="K284" s="138"/>
       <c r="L284" s="138">
-        <v>-0.6731843683657015</v>
+        <v>0.68818482276745385</v>
       </c>
       <c r="M284" s="138"/>
       <c r="N284" s="138"/>
       <c r="O284" s="138"/>
       <c r="P284" s="138">
-        <v>4.4357751544039816</v>
+        <v>5.83003206907726</v>
       </c>
       <c r="Q284" s="138"/>
       <c r="R284" s="138"/>
       <c r="S284" s="138"/>
       <c r="T284" s="138">
-        <v>3.9520987733464774</v>
+        <v>6.4158111128723805</v>
       </c>
       <c r="U284" s="138"/>
       <c r="V284" s="138"/>
       <c r="W284" s="138"/>
       <c r="X284" s="138">
-        <v>-0.48367638105750421</v>
+        <v>0.58577904379512091</v>
       </c>
       <c r="Y284" s="138"/>
       <c r="Z284" s="138"/>
@@ -18399,7 +18399,7 @@
     </row>
     <row r="285">
       <c r="B285" s="136" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C285" s="136"/>
       <c r="D285" s="138">
@@ -18441,7 +18441,7 @@
     </row>
     <row r="286">
       <c r="B286" s="136" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C286" s="136"/>
       <c r="D286" s="138">
@@ -18482,84 +18482,84 @@
       <c r="AA286" s="138"/>
     </row>
     <row r="287">
-      <c r="B287" s="136" t="s">
-        <v>41</v>
-      </c>
-      <c r="C287" s="136"/>
-      <c r="D287" s="138">
-        <v>5.5207751606019082</v>
-      </c>
-      <c r="E287" s="138"/>
-      <c r="F287" s="138"/>
-      <c r="G287" s="138"/>
-      <c r="H287" s="138">
-        <v>4.8475907922362067</v>
-      </c>
-      <c r="I287" s="138"/>
-      <c r="J287" s="138"/>
-      <c r="K287" s="138"/>
-      <c r="L287" s="138">
-        <v>-0.6731843683657015</v>
-      </c>
-      <c r="M287" s="138"/>
-      <c r="N287" s="138"/>
-      <c r="O287" s="138"/>
-      <c r="P287" s="138">
-        <v>4.4357751544039816</v>
-      </c>
-      <c r="Q287" s="138"/>
-      <c r="R287" s="138"/>
-      <c r="S287" s="138"/>
-      <c r="T287" s="138">
-        <v>3.9520987733464774</v>
-      </c>
-      <c r="U287" s="138"/>
-      <c r="V287" s="138"/>
-      <c r="W287" s="138"/>
-      <c r="X287" s="138">
-        <v>-0.48367638105750421</v>
-      </c>
-      <c r="Y287" s="138"/>
-      <c r="Z287" s="138"/>
-      <c r="AA287" s="138"/>
+      <c r="B287" s="144" t="s">
+        <v>45</v>
+      </c>
+      <c r="C287" s="144"/>
+      <c r="D287" s="146">
+        <v>5.7012346281618429</v>
+      </c>
+      <c r="E287" s="146"/>
+      <c r="F287" s="146"/>
+      <c r="G287" s="146"/>
+      <c r="H287" s="146">
+        <v>5.527015708910306</v>
+      </c>
+      <c r="I287" s="146"/>
+      <c r="J287" s="146"/>
+      <c r="K287" s="146"/>
+      <c r="L287" s="146">
+        <v>-0.17421891925153688</v>
+      </c>
+      <c r="M287" s="146"/>
+      <c r="N287" s="146"/>
+      <c r="O287" s="146"/>
+      <c r="P287" s="146">
+        <v>4.9110339723455025</v>
+      </c>
+      <c r="Q287" s="146"/>
+      <c r="R287" s="146"/>
+      <c r="S287" s="146"/>
+      <c r="T287" s="146">
+        <v>4.7426695943189</v>
+      </c>
+      <c r="U287" s="146"/>
+      <c r="V287" s="146"/>
+      <c r="W287" s="146"/>
+      <c r="X287" s="146">
+        <v>-0.16836437802660242</v>
+      </c>
+      <c r="Y287" s="146"/>
+      <c r="Z287" s="146"/>
+      <c r="AA287" s="146"/>
     </row>
     <row r="288">
       <c r="B288" s="136" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C288" s="136"/>
       <c r="D288" s="138">
-        <v>5.5207751606019082</v>
+        <v>5.0919124309372892</v>
       </c>
       <c r="E288" s="138"/>
       <c r="F288" s="138"/>
       <c r="G288" s="138"/>
       <c r="H288" s="138">
-        <v>4.8475907922362067</v>
+        <v>6.5534195678758538</v>
       </c>
       <c r="I288" s="138"/>
       <c r="J288" s="138"/>
       <c r="K288" s="138"/>
       <c r="L288" s="138">
-        <v>-0.6731843683657015</v>
+        <v>1.4615071369385646</v>
       </c>
       <c r="M288" s="138"/>
       <c r="N288" s="138"/>
       <c r="O288" s="138"/>
       <c r="P288" s="138">
-        <v>4.4357751544039816</v>
+        <v>5.059301182394595</v>
       </c>
       <c r="Q288" s="138"/>
       <c r="R288" s="138"/>
       <c r="S288" s="138"/>
       <c r="T288" s="138">
-        <v>3.9520987733464774</v>
+        <v>6.49365481519954</v>
       </c>
       <c r="U288" s="138"/>
       <c r="V288" s="138"/>
       <c r="W288" s="138"/>
       <c r="X288" s="138">
-        <v>-0.48367638105750421</v>
+        <v>1.4343536328049451</v>
       </c>
       <c r="Y288" s="138"/>
       <c r="Z288" s="138"/>
@@ -18567,41 +18567,41 @@
     </row>
     <row r="289">
       <c r="B289" s="136" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C289" s="136"/>
       <c r="D289" s="138">
-        <v>5.5207751606019082</v>
+        <v>0</v>
       </c>
       <c r="E289" s="138"/>
       <c r="F289" s="138"/>
       <c r="G289" s="138"/>
       <c r="H289" s="138">
-        <v>4.8475907922362067</v>
+        <v>0</v>
       </c>
       <c r="I289" s="138"/>
       <c r="J289" s="138"/>
       <c r="K289" s="138"/>
       <c r="L289" s="138">
-        <v>-0.6731843683657015</v>
+        <v>0</v>
       </c>
       <c r="M289" s="138"/>
       <c r="N289" s="138"/>
       <c r="O289" s="138"/>
       <c r="P289" s="138">
-        <v>4.4357751544039816</v>
+        <v>0</v>
       </c>
       <c r="Q289" s="138"/>
       <c r="R289" s="138"/>
       <c r="S289" s="138"/>
       <c r="T289" s="138">
-        <v>3.9520987733464774</v>
+        <v>0</v>
       </c>
       <c r="U289" s="138"/>
       <c r="V289" s="138"/>
       <c r="W289" s="138"/>
       <c r="X289" s="138">
-        <v>-0.48367638105750421</v>
+        <v>0</v>
       </c>
       <c r="Y289" s="138"/>
       <c r="Z289" s="138"/>
@@ -18609,7 +18609,7 @@
     </row>
     <row r="290">
       <c r="B290" s="144" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C290" s="144"/>
       <c r="D290" s="146">
@@ -18651,7 +18651,7 @@
     </row>
     <row r="291">
       <c r="B291" s="136" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C291" s="136"/>
       <c r="D291" s="138">
@@ -18693,7 +18693,7 @@
     </row>
     <row r="292">
       <c r="B292" s="136" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C292" s="136"/>
       <c r="D292" s="138">
@@ -18735,7 +18735,7 @@
     </row>
     <row r="293">
       <c r="B293" s="136" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C293" s="136"/>
       <c r="D293" s="138">
@@ -18777,7 +18777,7 @@
     </row>
     <row r="294">
       <c r="B294" s="136" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C294" s="136"/>
       <c r="D294" s="138"/>
@@ -18815,7 +18815,7 @@
     </row>
     <row r="295">
       <c r="B295" s="144" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C295" s="144"/>
       <c r="D295" s="146">
@@ -18857,7 +18857,7 @@
     </row>
     <row r="296">
       <c r="B296" s="144" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C296" s="144"/>
       <c r="D296" s="146">
@@ -18900,7 +18900,7 @@
     <row r="297"/>
     <row r="298">
       <c r="B298" s="136" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C298" s="136"/>
       <c r="D298" s="138">
@@ -18942,7 +18942,7 @@
     </row>
     <row r="299">
       <c r="B299" s="136" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C299" s="136"/>
       <c r="D299" s="138">
@@ -18984,7 +18984,7 @@
     </row>
     <row r="300">
       <c r="B300" s="136" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C300" s="136"/>
       <c r="D300" s="138">
@@ -19026,7 +19026,7 @@
     </row>
     <row r="301">
       <c r="B301" s="136" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C301" s="136"/>
       <c r="D301" s="138">
@@ -19068,7 +19068,7 @@
     </row>
     <row r="302">
       <c r="B302" s="136" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C302" s="136"/>
       <c r="D302" s="138">
@@ -19110,7 +19110,7 @@
     </row>
     <row r="303">
       <c r="B303" s="144" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C303" s="144"/>
       <c r="D303" s="146">
@@ -19152,7 +19152,7 @@
     </row>
     <row r="304">
       <c r="B304" s="136" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C304" s="136"/>
       <c r="D304" s="138">
@@ -19194,7 +19194,7 @@
     </row>
     <row r="305">
       <c r="B305" s="144" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C305" s="144"/>
       <c r="D305" s="146">
@@ -19236,7 +19236,7 @@
     </row>
     <row r="306">
       <c r="B306" s="144" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C306" s="144"/>
       <c r="D306" s="146">
@@ -19334,7 +19334,7 @@
     </row>
     <row r="309" ht="14.25" customHeight="1">
       <c r="B309" s="54" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C309" s="54"/>
       <c r="D309" s="54"/>
@@ -20564,41 +20564,41 @@
     </row>
     <row r="339">
       <c r="B339" s="136" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C339" s="136"/>
       <c r="D339" s="143">
-        <v>690.19197346670046</v>
+        <v>107.48363939953597</v>
       </c>
       <c r="E339" s="143"/>
       <c r="F339" s="143"/>
       <c r="G339" s="143"/>
       <c r="H339" s="143">
-        <v>690.67675969302911</v>
+        <v>115.68889463452251</v>
       </c>
       <c r="I339" s="143"/>
       <c r="J339" s="143"/>
       <c r="K339" s="143"/>
       <c r="L339" s="143">
-        <v>0.48478622632869517</v>
+        <v>8.2052552349865433</v>
       </c>
       <c r="M339" s="143"/>
       <c r="N339" s="143"/>
       <c r="O339" s="143"/>
       <c r="P339" s="143">
-        <v>755.41102280770485</v>
+        <v>3474.5085280638473</v>
       </c>
       <c r="Q339" s="143"/>
       <c r="R339" s="143"/>
       <c r="S339" s="143"/>
       <c r="T339" s="143">
-        <v>750.37126265575046</v>
+        <v>2024.9095931403115</v>
       </c>
       <c r="U339" s="143"/>
       <c r="V339" s="143"/>
       <c r="W339" s="143"/>
       <c r="X339" s="143">
-        <v>-5.0397601519543676</v>
+        <v>-1449.5989349235356</v>
       </c>
       <c r="Y339" s="143"/>
       <c r="Z339" s="143"/>
@@ -20606,7 +20606,7 @@
     </row>
     <row r="340">
       <c r="B340" s="136" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C340" s="136"/>
       <c r="D340" s="143">
@@ -20648,7 +20648,7 @@
     </row>
     <row r="341">
       <c r="B341" s="136" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C341" s="136"/>
       <c r="D341" s="143">
@@ -20689,84 +20689,84 @@
       <c r="AA341" s="143"/>
     </row>
     <row r="342">
-      <c r="B342" s="136" t="s">
-        <v>41</v>
-      </c>
-      <c r="C342" s="136"/>
-      <c r="D342" s="143">
-        <v>690.19197346670046</v>
-      </c>
-      <c r="E342" s="143"/>
-      <c r="F342" s="143"/>
-      <c r="G342" s="143"/>
-      <c r="H342" s="143">
-        <v>690.67675969302911</v>
-      </c>
-      <c r="I342" s="143"/>
-      <c r="J342" s="143"/>
-      <c r="K342" s="143"/>
-      <c r="L342" s="143">
-        <v>0.48478622632869517</v>
-      </c>
-      <c r="M342" s="143"/>
-      <c r="N342" s="143"/>
-      <c r="O342" s="143"/>
-      <c r="P342" s="143">
-        <v>755.41102280770485</v>
-      </c>
-      <c r="Q342" s="143"/>
-      <c r="R342" s="143"/>
-      <c r="S342" s="143"/>
-      <c r="T342" s="143">
-        <v>750.37126265575046</v>
-      </c>
-      <c r="U342" s="143"/>
-      <c r="V342" s="143"/>
-      <c r="W342" s="143"/>
-      <c r="X342" s="143">
-        <v>-5.0397601519543676</v>
-      </c>
-      <c r="Y342" s="143"/>
-      <c r="Z342" s="143"/>
-      <c r="AA342" s="143"/>
+      <c r="B342" s="144" t="s">
+        <v>45</v>
+      </c>
+      <c r="C342" s="144"/>
+      <c r="D342" s="145">
+        <v>3757.771463909276</v>
+      </c>
+      <c r="E342" s="145"/>
+      <c r="F342" s="145"/>
+      <c r="G342" s="145"/>
+      <c r="H342" s="145">
+        <v>3832.92819881394</v>
+      </c>
+      <c r="I342" s="145"/>
+      <c r="J342" s="145"/>
+      <c r="K342" s="145"/>
+      <c r="L342" s="145">
+        <v>75.1567349046641</v>
+      </c>
+      <c r="M342" s="145"/>
+      <c r="N342" s="145"/>
+      <c r="O342" s="145"/>
+      <c r="P342" s="145">
+        <v>4810.3266507350063</v>
+      </c>
+      <c r="Q342" s="145"/>
+      <c r="R342" s="145"/>
+      <c r="S342" s="145"/>
+      <c r="T342" s="145">
+        <v>4869.299245936907</v>
+      </c>
+      <c r="U342" s="145"/>
+      <c r="V342" s="145"/>
+      <c r="W342" s="145"/>
+      <c r="X342" s="145">
+        <v>58.972595201900226</v>
+      </c>
+      <c r="Y342" s="145"/>
+      <c r="Z342" s="145"/>
+      <c r="AA342" s="145"/>
     </row>
     <row r="343">
       <c r="B343" s="136" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C343" s="136"/>
       <c r="D343" s="143">
-        <v>690.19197346670046</v>
+        <v>16.653372147119722</v>
       </c>
       <c r="E343" s="143"/>
       <c r="F343" s="143"/>
       <c r="G343" s="143"/>
       <c r="H343" s="143">
-        <v>690.67675969302911</v>
+        <v>16.601330359159842</v>
       </c>
       <c r="I343" s="143"/>
       <c r="J343" s="143"/>
       <c r="K343" s="143"/>
       <c r="L343" s="143">
-        <v>0.48478622632869517</v>
+        <v>-0.052041787959879</v>
       </c>
       <c r="M343" s="143"/>
       <c r="N343" s="143"/>
       <c r="O343" s="143"/>
       <c r="P343" s="143">
-        <v>755.41102280770485</v>
+        <v>16.653372147119029</v>
       </c>
       <c r="Q343" s="143"/>
       <c r="R343" s="143"/>
       <c r="S343" s="143"/>
       <c r="T343" s="143">
-        <v>750.37126265575046</v>
+        <v>16.601330359159395</v>
       </c>
       <c r="U343" s="143"/>
       <c r="V343" s="143"/>
       <c r="W343" s="143"/>
       <c r="X343" s="143">
-        <v>-5.0397601519543676</v>
+        <v>-0.052041787959635259</v>
       </c>
       <c r="Y343" s="143"/>
       <c r="Z343" s="143"/>
@@ -20774,41 +20774,41 @@
     </row>
     <row r="344">
       <c r="B344" s="136" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C344" s="136"/>
       <c r="D344" s="143">
-        <v>690.19197346670046</v>
+        <v>-71</v>
       </c>
       <c r="E344" s="143"/>
       <c r="F344" s="143"/>
       <c r="G344" s="143"/>
       <c r="H344" s="143">
-        <v>690.67675969302911</v>
+        <v>-30</v>
       </c>
       <c r="I344" s="143"/>
       <c r="J344" s="143"/>
       <c r="K344" s="143"/>
       <c r="L344" s="143">
-        <v>0.48478622632869517</v>
+        <v>41</v>
       </c>
       <c r="M344" s="143"/>
       <c r="N344" s="143"/>
       <c r="O344" s="143"/>
       <c r="P344" s="143">
-        <v>755.41102280770485</v>
+        <v>0</v>
       </c>
       <c r="Q344" s="143"/>
       <c r="R344" s="143"/>
       <c r="S344" s="143"/>
       <c r="T344" s="143">
-        <v>750.37126265575046</v>
+        <v>0</v>
       </c>
       <c r="U344" s="143"/>
       <c r="V344" s="143"/>
       <c r="W344" s="143"/>
       <c r="X344" s="143">
-        <v>-5.0397601519543676</v>
+        <v>0</v>
       </c>
       <c r="Y344" s="143"/>
       <c r="Z344" s="143"/>
@@ -20816,7 +20816,7 @@
     </row>
     <row r="345">
       <c r="B345" s="144" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C345" s="144"/>
       <c r="D345" s="145">
@@ -20858,7 +20858,7 @@
     </row>
     <row r="346">
       <c r="B346" s="136" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C346" s="136"/>
       <c r="D346" s="143">
@@ -20900,7 +20900,7 @@
     </row>
     <row r="347">
       <c r="B347" s="136" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C347" s="136"/>
       <c r="D347" s="143">
@@ -20942,7 +20942,7 @@
     </row>
     <row r="348">
       <c r="B348" s="136" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C348" s="136"/>
       <c r="D348" s="143">
@@ -20984,7 +20984,7 @@
     </row>
     <row r="349">
       <c r="B349" s="136" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C349" s="136"/>
       <c r="D349" s="143"/>
@@ -21022,7 +21022,7 @@
     </row>
     <row r="350">
       <c r="B350" s="144" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C350" s="144"/>
       <c r="D350" s="145">
@@ -21064,7 +21064,7 @@
     </row>
     <row r="351">
       <c r="B351" s="144" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C351" s="144"/>
       <c r="D351" s="145">
@@ -21107,7 +21107,7 @@
     <row r="352"/>
     <row r="353">
       <c r="B353" s="136" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C353" s="136"/>
       <c r="D353" s="143">
@@ -21149,7 +21149,7 @@
     </row>
     <row r="354">
       <c r="B354" s="136" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C354" s="136"/>
       <c r="D354" s="143">
@@ -21191,7 +21191,7 @@
     </row>
     <row r="355">
       <c r="B355" s="136" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C355" s="136"/>
       <c r="D355" s="143">
@@ -21233,7 +21233,7 @@
     </row>
     <row r="356">
       <c r="B356" s="136" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C356" s="136"/>
       <c r="D356" s="143">
@@ -21275,7 +21275,7 @@
     </row>
     <row r="357">
       <c r="B357" s="136" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C357" s="136"/>
       <c r="D357" s="143">
@@ -21317,7 +21317,7 @@
     </row>
     <row r="358">
       <c r="B358" s="144" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C358" s="144"/>
       <c r="D358" s="145">
@@ -21359,7 +21359,7 @@
     </row>
     <row r="359">
       <c r="B359" s="136" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C359" s="136"/>
       <c r="D359" s="143">
@@ -21401,7 +21401,7 @@
     </row>
     <row r="360">
       <c r="B360" s="144" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C360" s="144"/>
       <c r="D360" s="145">
@@ -21443,7 +21443,7 @@
     </row>
     <row r="361">
       <c r="B361" s="144" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C361" s="144"/>
       <c r="D361" s="145">
@@ -21541,7 +21541,7 @@
     </row>
     <row r="364" ht="14.25" customHeight="1">
       <c r="B364" s="58" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C364" s="58"/>
       <c r="D364" s="58"/>
@@ -21557,7 +21557,7 @@
       <c r="N364" s="58"/>
       <c r="O364" s="58"/>
       <c r="P364" s="66" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="Q364" s="66"/>
       <c r="R364" s="66"/>
@@ -22775,41 +22775,41 @@
     </row>
     <row r="394">
       <c r="B394" s="136" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C394" s="136"/>
       <c r="D394" s="138">
-        <v>3.3965661988000004</v>
+        <v>3.4738045982999997</v>
       </c>
       <c r="E394" s="138"/>
       <c r="F394" s="138"/>
       <c r="G394" s="138"/>
       <c r="H394" s="138">
-        <v>3.2198433000000004</v>
+        <v>3.3173859367000005</v>
       </c>
       <c r="I394" s="138"/>
       <c r="J394" s="138"/>
       <c r="K394" s="138"/>
       <c r="L394" s="138">
-        <v>-0.17672289880000003</v>
+        <v>-0.15641866159999918</v>
       </c>
       <c r="M394" s="138"/>
       <c r="N394" s="138"/>
       <c r="O394" s="138"/>
       <c r="P394" s="138">
-        <v>3.522749267</v>
+        <v>3.6312577428000004</v>
       </c>
       <c r="Q394" s="138"/>
       <c r="R394" s="138"/>
       <c r="S394" s="138"/>
       <c r="T394" s="138">
-        <v>3.3724370922</v>
+        <v>3.5616453388</v>
       </c>
       <c r="U394" s="138"/>
       <c r="V394" s="138"/>
       <c r="W394" s="138"/>
       <c r="X394" s="138">
-        <v>-0.15031217479999981</v>
+        <v>-0.06961240400000035</v>
       </c>
       <c r="Y394" s="138"/>
       <c r="Z394" s="138"/>
@@ -22817,7 +22817,7 @@
     </row>
     <row r="395">
       <c r="B395" s="136" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C395" s="136"/>
       <c r="D395" s="138">
@@ -22859,7 +22859,7 @@
     </row>
     <row r="396">
       <c r="B396" s="136" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C396" s="136"/>
       <c r="D396" s="138">
@@ -22900,84 +22900,84 @@
       <c r="AA396" s="138"/>
     </row>
     <row r="397">
-      <c r="B397" s="136" t="s">
-        <v>41</v>
-      </c>
-      <c r="C397" s="136"/>
-      <c r="D397" s="138">
-        <v>3.3965661988000004</v>
-      </c>
-      <c r="E397" s="138"/>
-      <c r="F397" s="138"/>
-      <c r="G397" s="138"/>
-      <c r="H397" s="138">
-        <v>3.2198433000000004</v>
-      </c>
-      <c r="I397" s="138"/>
-      <c r="J397" s="138"/>
-      <c r="K397" s="138"/>
-      <c r="L397" s="138">
-        <v>-0.17672289880000003</v>
-      </c>
-      <c r="M397" s="138"/>
-      <c r="N397" s="138"/>
-      <c r="O397" s="138"/>
-      <c r="P397" s="138">
-        <v>3.522749267</v>
-      </c>
-      <c r="Q397" s="138"/>
-      <c r="R397" s="138"/>
-      <c r="S397" s="138"/>
-      <c r="T397" s="138">
-        <v>3.3724370922</v>
-      </c>
-      <c r="U397" s="138"/>
-      <c r="V397" s="138"/>
-      <c r="W397" s="138"/>
-      <c r="X397" s="138">
-        <v>-0.15031217479999981</v>
-      </c>
-      <c r="Y397" s="138"/>
-      <c r="Z397" s="138"/>
-      <c r="AA397" s="138"/>
+      <c r="B397" s="144" t="s">
+        <v>45</v>
+      </c>
+      <c r="C397" s="144"/>
+      <c r="D397" s="146">
+        <v>5.6581562094403095</v>
+      </c>
+      <c r="E397" s="146"/>
+      <c r="F397" s="146"/>
+      <c r="G397" s="146"/>
+      <c r="H397" s="146">
+        <v>5.42181764809554</v>
+      </c>
+      <c r="I397" s="146"/>
+      <c r="J397" s="146"/>
+      <c r="K397" s="146"/>
+      <c r="L397" s="146">
+        <v>-0.23633856134476972</v>
+      </c>
+      <c r="M397" s="146"/>
+      <c r="N397" s="146"/>
+      <c r="O397" s="146"/>
+      <c r="P397" s="146">
+        <v>6.1933880288482426</v>
+      </c>
+      <c r="Q397" s="146"/>
+      <c r="R397" s="146"/>
+      <c r="S397" s="146"/>
+      <c r="T397" s="146">
+        <v>6.0056073787147932</v>
+      </c>
+      <c r="U397" s="146"/>
+      <c r="V397" s="146"/>
+      <c r="W397" s="146"/>
+      <c r="X397" s="146">
+        <v>-0.18778065013344936</v>
+      </c>
+      <c r="Y397" s="146"/>
+      <c r="Z397" s="146"/>
+      <c r="AA397" s="146"/>
     </row>
     <row r="398">
       <c r="B398" s="136" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C398" s="136"/>
       <c r="D398" s="138">
-        <v>3.3965661988000004</v>
+        <v>3.4738045982999997</v>
       </c>
       <c r="E398" s="138"/>
       <c r="F398" s="138"/>
       <c r="G398" s="138"/>
       <c r="H398" s="138">
-        <v>3.2198433000000004</v>
+        <v>3.3173859367000005</v>
       </c>
       <c r="I398" s="138"/>
       <c r="J398" s="138"/>
       <c r="K398" s="138"/>
       <c r="L398" s="138">
-        <v>-0.17672289880000003</v>
+        <v>-0.15641866159999918</v>
       </c>
       <c r="M398" s="138"/>
       <c r="N398" s="138"/>
       <c r="O398" s="138"/>
       <c r="P398" s="138">
-        <v>3.522749267</v>
+        <v>3.6312577428000004</v>
       </c>
       <c r="Q398" s="138"/>
       <c r="R398" s="138"/>
       <c r="S398" s="138"/>
       <c r="T398" s="138">
-        <v>3.3724370922</v>
+        <v>3.5616453388</v>
       </c>
       <c r="U398" s="138"/>
       <c r="V398" s="138"/>
       <c r="W398" s="138"/>
       <c r="X398" s="138">
-        <v>-0.15031217479999981</v>
+        <v>-0.06961240400000035</v>
       </c>
       <c r="Y398" s="138"/>
       <c r="Z398" s="138"/>
@@ -22985,41 +22985,41 @@
     </row>
     <row r="399">
       <c r="B399" s="136" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C399" s="136"/>
       <c r="D399" s="138">
-        <v>3.3965661988000004</v>
+        <v>0</v>
       </c>
       <c r="E399" s="138"/>
       <c r="F399" s="138"/>
       <c r="G399" s="138"/>
       <c r="H399" s="138">
-        <v>3.2198433000000004</v>
+        <v>0</v>
       </c>
       <c r="I399" s="138"/>
       <c r="J399" s="138"/>
       <c r="K399" s="138"/>
       <c r="L399" s="138">
-        <v>-0.17672289880000003</v>
+        <v>0</v>
       </c>
       <c r="M399" s="138"/>
       <c r="N399" s="138"/>
       <c r="O399" s="138"/>
       <c r="P399" s="138">
-        <v>3.522749267</v>
+        <v>0</v>
       </c>
       <c r="Q399" s="138"/>
       <c r="R399" s="138"/>
       <c r="S399" s="138"/>
       <c r="T399" s="138">
-        <v>3.3724370922</v>
+        <v>0</v>
       </c>
       <c r="U399" s="138"/>
       <c r="V399" s="138"/>
       <c r="W399" s="138"/>
       <c r="X399" s="138">
-        <v>-0.15031217479999981</v>
+        <v>0</v>
       </c>
       <c r="Y399" s="138"/>
       <c r="Z399" s="138"/>
@@ -23027,7 +23027,7 @@
     </row>
     <row r="400">
       <c r="B400" s="144" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C400" s="144"/>
       <c r="D400" s="146">
@@ -23069,7 +23069,7 @@
     </row>
     <row r="401">
       <c r="B401" s="136" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C401" s="136"/>
       <c r="D401" s="138">
@@ -23111,7 +23111,7 @@
     </row>
     <row r="402">
       <c r="B402" s="136" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C402" s="136"/>
       <c r="D402" s="138">
@@ -23153,7 +23153,7 @@
     </row>
     <row r="403">
       <c r="B403" s="136" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C403" s="136"/>
       <c r="D403" s="138">
@@ -23195,7 +23195,7 @@
     </row>
     <row r="404">
       <c r="B404" s="136" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C404" s="136"/>
       <c r="D404" s="138"/>
@@ -23233,7 +23233,7 @@
     </row>
     <row r="405">
       <c r="B405" s="144" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C405" s="144"/>
       <c r="D405" s="146">
@@ -23275,7 +23275,7 @@
     </row>
     <row r="406">
       <c r="B406" s="144" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C406" s="144"/>
       <c r="D406" s="146">
@@ -23318,7 +23318,7 @@
     <row r="407"/>
     <row r="408">
       <c r="B408" s="136" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C408" s="136"/>
       <c r="D408" s="138">
@@ -23360,7 +23360,7 @@
     </row>
     <row r="409">
       <c r="B409" s="136" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C409" s="136"/>
       <c r="D409" s="138">
@@ -23402,7 +23402,7 @@
     </row>
     <row r="410">
       <c r="B410" s="136" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C410" s="136"/>
       <c r="D410" s="138">
@@ -23444,7 +23444,7 @@
     </row>
     <row r="411">
       <c r="B411" s="136" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C411" s="136"/>
       <c r="D411" s="138">
@@ -23486,7 +23486,7 @@
     </row>
     <row r="412">
       <c r="B412" s="136" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C412" s="136"/>
       <c r="D412" s="138">
@@ -23528,7 +23528,7 @@
     </row>
     <row r="413">
       <c r="B413" s="144" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C413" s="144"/>
       <c r="D413" s="146">
@@ -23570,7 +23570,7 @@
     </row>
     <row r="414">
       <c r="B414" s="136" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C414" s="136"/>
       <c r="D414" s="138">
@@ -23612,7 +23612,7 @@
     </row>
     <row r="415">
       <c r="B415" s="144" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C415" s="144"/>
       <c r="D415" s="146">
@@ -23654,7 +23654,7 @@
     </row>
     <row r="416">
       <c r="B416" s="144" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C416" s="144"/>
       <c r="D416" s="146">
@@ -23752,7 +23752,7 @@
     </row>
     <row r="419" ht="14.25" customHeight="1">
       <c r="B419" s="54" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C419" s="54"/>
       <c r="D419" s="54"/>
@@ -24444,41 +24444,41 @@
     </row>
     <row r="436">
       <c r="B436" s="136" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C436" s="136"/>
       <c r="D436" s="143">
-        <v>6.7799282358143964</v>
+        <v>21.496727879845228</v>
       </c>
       <c r="E436" s="143"/>
       <c r="F436" s="143"/>
       <c r="G436" s="143"/>
       <c r="H436" s="143">
-        <v>6.7396887479285255</v>
+        <v>23.137778926838422</v>
       </c>
       <c r="I436" s="143"/>
       <c r="J436" s="143"/>
       <c r="K436" s="143"/>
       <c r="L436" s="143">
-        <v>-0.040239487885871311</v>
+        <v>1.6410510469931943</v>
       </c>
       <c r="M436" s="143"/>
       <c r="N436" s="143"/>
       <c r="O436" s="143"/>
       <c r="P436" s="143">
-        <v>10.280523539476468</v>
+        <v>25.101705610925649</v>
       </c>
       <c r="Q436" s="143"/>
       <c r="R436" s="143"/>
       <c r="S436" s="143"/>
       <c r="T436" s="143">
-        <v>10.228697195320784</v>
+        <v>25.181918627021123</v>
       </c>
       <c r="U436" s="143"/>
       <c r="V436" s="143"/>
       <c r="W436" s="143"/>
       <c r="X436" s="143">
-        <v>-0.051826344155684635</v>
+        <v>0.080213016095472989</v>
       </c>
       <c r="Y436" s="143"/>
       <c r="Z436" s="143"/>
@@ -24486,7 +24486,7 @@
     </row>
     <row r="437">
       <c r="B437" s="136" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C437" s="136"/>
       <c r="D437" s="143">
@@ -24528,7 +24528,7 @@
     </row>
     <row r="438">
       <c r="B438" s="136" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C438" s="136"/>
       <c r="D438" s="143">
@@ -24569,84 +24569,84 @@
       <c r="AA438" s="143"/>
     </row>
     <row r="439">
-      <c r="B439" s="136" t="s">
-        <v>41</v>
-      </c>
-      <c r="C439" s="136"/>
-      <c r="D439" s="143">
-        <v>6.7799282358143964</v>
-      </c>
-      <c r="E439" s="143"/>
-      <c r="F439" s="143"/>
-      <c r="G439" s="143"/>
-      <c r="H439" s="143">
-        <v>6.7396887479285255</v>
-      </c>
-      <c r="I439" s="143"/>
-      <c r="J439" s="143"/>
-      <c r="K439" s="143"/>
-      <c r="L439" s="143">
-        <v>-0.040239487885871311</v>
-      </c>
-      <c r="M439" s="143"/>
-      <c r="N439" s="143"/>
-      <c r="O439" s="143"/>
-      <c r="P439" s="143">
-        <v>10.280523539476468</v>
-      </c>
-      <c r="Q439" s="143"/>
-      <c r="R439" s="143"/>
-      <c r="S439" s="143"/>
-      <c r="T439" s="143">
-        <v>10.228697195320784</v>
-      </c>
-      <c r="U439" s="143"/>
-      <c r="V439" s="143"/>
-      <c r="W439" s="143"/>
-      <c r="X439" s="143">
-        <v>-0.051826344155684635</v>
-      </c>
-      <c r="Y439" s="143"/>
-      <c r="Z439" s="143"/>
-      <c r="AA439" s="143"/>
+      <c r="B439" s="144" t="s">
+        <v>45</v>
+      </c>
+      <c r="C439" s="144"/>
+      <c r="D439" s="145">
+        <v>109.44640061185751</v>
+      </c>
+      <c r="E439" s="145"/>
+      <c r="F439" s="145"/>
+      <c r="G439" s="145"/>
+      <c r="H439" s="145">
+        <v>108.70543991776448</v>
+      </c>
+      <c r="I439" s="145"/>
+      <c r="J439" s="145"/>
+      <c r="K439" s="145"/>
+      <c r="L439" s="145">
+        <v>-0.74096069409303889</v>
+      </c>
+      <c r="M439" s="145"/>
+      <c r="N439" s="145"/>
+      <c r="O439" s="145"/>
+      <c r="P439" s="145">
+        <v>132.6195013435096</v>
+      </c>
+      <c r="Q439" s="145"/>
+      <c r="R439" s="145"/>
+      <c r="S439" s="145"/>
+      <c r="T439" s="145">
+        <v>131.55097385967039</v>
+      </c>
+      <c r="U439" s="145"/>
+      <c r="V439" s="145"/>
+      <c r="W439" s="145"/>
+      <c r="X439" s="145">
+        <v>-1.0685274838391925</v>
+      </c>
+      <c r="Y439" s="145"/>
+      <c r="Z439" s="145"/>
+      <c r="AA439" s="145"/>
     </row>
     <row r="440">
       <c r="B440" s="136" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C440" s="136"/>
       <c r="D440" s="143">
-        <v>6.7799282358143964</v>
+        <v>3.3306744294144943</v>
       </c>
       <c r="E440" s="143"/>
       <c r="F440" s="143"/>
       <c r="G440" s="143"/>
       <c r="H440" s="143">
-        <v>6.7396887479285255</v>
+        <v>3.3202660718225721</v>
       </c>
       <c r="I440" s="143"/>
       <c r="J440" s="143"/>
       <c r="K440" s="143"/>
       <c r="L440" s="143">
-        <v>-0.040239487885871311</v>
+        <v>-0.01040835759192214</v>
       </c>
       <c r="M440" s="143"/>
       <c r="N440" s="143"/>
       <c r="O440" s="143"/>
       <c r="P440" s="143">
-        <v>10.280523539476468</v>
+        <v>3.3306744294249109</v>
       </c>
       <c r="Q440" s="143"/>
       <c r="R440" s="143"/>
       <c r="S440" s="143"/>
       <c r="T440" s="143">
-        <v>10.228697195320784</v>
+        <v>3.3202660718335566</v>
       </c>
       <c r="U440" s="143"/>
       <c r="V440" s="143"/>
       <c r="W440" s="143"/>
       <c r="X440" s="143">
-        <v>-0.051826344155684635</v>
+        <v>-0.010408357591354616</v>
       </c>
       <c r="Y440" s="143"/>
       <c r="Z440" s="143"/>
@@ -24654,41 +24654,41 @@
     </row>
     <row r="441">
       <c r="B441" s="136" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C441" s="136"/>
       <c r="D441" s="143">
-        <v>6.7799282358143964</v>
+        <v>0</v>
       </c>
       <c r="E441" s="143"/>
       <c r="F441" s="143"/>
       <c r="G441" s="143"/>
       <c r="H441" s="143">
-        <v>6.7396887479285255</v>
+        <v>0</v>
       </c>
       <c r="I441" s="143"/>
       <c r="J441" s="143"/>
       <c r="K441" s="143"/>
       <c r="L441" s="143">
-        <v>-0.040239487885871311</v>
+        <v>0</v>
       </c>
       <c r="M441" s="143"/>
       <c r="N441" s="143"/>
       <c r="O441" s="143"/>
       <c r="P441" s="143">
-        <v>10.280523539476468</v>
+        <v>0</v>
       </c>
       <c r="Q441" s="143"/>
       <c r="R441" s="143"/>
       <c r="S441" s="143"/>
       <c r="T441" s="143">
-        <v>10.228697195320784</v>
+        <v>0</v>
       </c>
       <c r="U441" s="143"/>
       <c r="V441" s="143"/>
       <c r="W441" s="143"/>
       <c r="X441" s="143">
-        <v>-0.051826344155684635</v>
+        <v>0</v>
       </c>
       <c r="Y441" s="143"/>
       <c r="Z441" s="143"/>
@@ -24696,7 +24696,7 @@
     </row>
     <row r="442">
       <c r="B442" s="144" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C442" s="144"/>
       <c r="D442" s="145">
@@ -24794,7 +24794,7 @@
     </row>
     <row r="445" ht="14.25" customHeight="1">
       <c r="B445" s="54" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C445" s="54"/>
       <c r="D445" s="54"/>
@@ -25486,41 +25486,41 @@
     </row>
     <row r="462">
       <c r="B462" s="136" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C462" s="136"/>
       <c r="D462" s="143">
-        <v>51.1115264066436</v>
+        <v>61.5230568318869</v>
       </c>
       <c r="E462" s="143"/>
       <c r="F462" s="143"/>
       <c r="G462" s="143"/>
       <c r="H462" s="143">
-        <v>49.9702051511991</v>
+        <v>66.1785142476261</v>
       </c>
       <c r="I462" s="143"/>
       <c r="J462" s="143"/>
       <c r="K462" s="143"/>
       <c r="L462" s="143">
-        <v>-1.141321255444498</v>
+        <v>4.6554574157391979</v>
       </c>
       <c r="M462" s="143"/>
       <c r="N462" s="143"/>
       <c r="O462" s="143"/>
       <c r="P462" s="143">
-        <v>97.1680197167415</v>
+        <v>93.3543751061285</v>
       </c>
       <c r="Q462" s="143"/>
       <c r="R462" s="143"/>
       <c r="S462" s="143"/>
       <c r="T462" s="143">
-        <v>94.3186097797031</v>
+        <v>74.8618551107282</v>
       </c>
       <c r="U462" s="143"/>
       <c r="V462" s="143"/>
       <c r="W462" s="143"/>
       <c r="X462" s="143">
-        <v>-2.8494099370384065</v>
+        <v>-18.492519995400304</v>
       </c>
       <c r="Y462" s="143"/>
       <c r="Z462" s="143"/>
@@ -25528,7 +25528,7 @@
     </row>
     <row r="463">
       <c r="B463" s="136" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C463" s="136"/>
       <c r="D463" s="143">
@@ -25570,7 +25570,7 @@
     </row>
     <row r="464">
       <c r="B464" s="136" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C464" s="136"/>
       <c r="D464" s="143">
@@ -25611,84 +25611,84 @@
       <c r="AA464" s="143"/>
     </row>
     <row r="465">
-      <c r="B465" s="136" t="s">
-        <v>41</v>
-      </c>
-      <c r="C465" s="136"/>
-      <c r="D465" s="143">
-        <v>51.1115264066436</v>
-      </c>
-      <c r="E465" s="143"/>
-      <c r="F465" s="143"/>
-      <c r="G465" s="143"/>
-      <c r="H465" s="143">
-        <v>49.9702051511991</v>
-      </c>
-      <c r="I465" s="143"/>
-      <c r="J465" s="143"/>
-      <c r="K465" s="143"/>
-      <c r="L465" s="143">
-        <v>-1.141321255444498</v>
-      </c>
-      <c r="M465" s="143"/>
-      <c r="N465" s="143"/>
-      <c r="O465" s="143"/>
-      <c r="P465" s="143">
-        <v>97.1680197167415</v>
-      </c>
-      <c r="Q465" s="143"/>
-      <c r="R465" s="143"/>
-      <c r="S465" s="143"/>
-      <c r="T465" s="143">
-        <v>94.3186097797031</v>
-      </c>
-      <c r="U465" s="143"/>
-      <c r="V465" s="143"/>
-      <c r="W465" s="143"/>
-      <c r="X465" s="143">
-        <v>-2.8494099370384065</v>
-      </c>
-      <c r="Y465" s="143"/>
-      <c r="Z465" s="143"/>
-      <c r="AA465" s="143"/>
+      <c r="B465" s="144" t="s">
+        <v>45</v>
+      </c>
+      <c r="C465" s="144"/>
+      <c r="D465" s="145">
+        <v>145.047162358819</v>
+      </c>
+      <c r="E465" s="145"/>
+      <c r="F465" s="145"/>
+      <c r="G465" s="145"/>
+      <c r="H465" s="145">
+        <v>144.44765457751598</v>
+      </c>
+      <c r="I465" s="145"/>
+      <c r="J465" s="145"/>
+      <c r="K465" s="145"/>
+      <c r="L465" s="145">
+        <v>-0.59950778130302207</v>
+      </c>
+      <c r="M465" s="145"/>
+      <c r="N465" s="145"/>
+      <c r="O465" s="145"/>
+      <c r="P465" s="145">
+        <v>138.53956387207</v>
+      </c>
+      <c r="Q465" s="145"/>
+      <c r="R465" s="145"/>
+      <c r="S465" s="145"/>
+      <c r="T465" s="145">
+        <v>138.70669516562</v>
+      </c>
+      <c r="U465" s="145"/>
+      <c r="V465" s="145"/>
+      <c r="W465" s="145"/>
+      <c r="X465" s="145">
+        <v>0.1671312935500173</v>
+      </c>
+      <c r="Y465" s="145"/>
+      <c r="Z465" s="145"/>
+      <c r="AA465" s="145"/>
     </row>
     <row r="466">
       <c r="B466" s="136" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C466" s="136"/>
       <c r="D466" s="143">
-        <v>51.1115264066436</v>
+        <v>9.52959531012419</v>
       </c>
       <c r="E466" s="143"/>
       <c r="F466" s="143"/>
       <c r="G466" s="143"/>
       <c r="H466" s="143">
-        <v>49.9702051511991</v>
+        <v>9.4954387125414588</v>
       </c>
       <c r="I466" s="143"/>
       <c r="J466" s="143"/>
       <c r="K466" s="143"/>
       <c r="L466" s="143">
-        <v>-1.141321255444498</v>
+        <v>-0.03415659758273068</v>
       </c>
       <c r="M466" s="143"/>
       <c r="N466" s="143"/>
       <c r="O466" s="143"/>
       <c r="P466" s="143">
-        <v>97.1680197167415</v>
+        <v>6.62461744580058</v>
       </c>
       <c r="Q466" s="143"/>
       <c r="R466" s="143"/>
       <c r="S466" s="143"/>
       <c r="T466" s="143">
-        <v>94.3186097797031</v>
+        <v>6.6018383933042593</v>
       </c>
       <c r="U466" s="143"/>
       <c r="V466" s="143"/>
       <c r="W466" s="143"/>
       <c r="X466" s="143">
-        <v>-2.8494099370384065</v>
+        <v>-0.022779052496320219</v>
       </c>
       <c r="Y466" s="143"/>
       <c r="Z466" s="143"/>
@@ -25696,41 +25696,41 @@
     </row>
     <row r="467">
       <c r="B467" s="136" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C467" s="136"/>
       <c r="D467" s="143">
-        <v>51.1115264066436</v>
+        <v>0</v>
       </c>
       <c r="E467" s="143"/>
       <c r="F467" s="143"/>
       <c r="G467" s="143"/>
       <c r="H467" s="143">
-        <v>49.9702051511991</v>
+        <v>0</v>
       </c>
       <c r="I467" s="143"/>
       <c r="J467" s="143"/>
       <c r="K467" s="143"/>
       <c r="L467" s="143">
-        <v>-1.141321255444498</v>
+        <v>0</v>
       </c>
       <c r="M467" s="143"/>
       <c r="N467" s="143"/>
       <c r="O467" s="143"/>
       <c r="P467" s="143">
-        <v>97.1680197167415</v>
+        <v>0</v>
       </c>
       <c r="Q467" s="143"/>
       <c r="R467" s="143"/>
       <c r="S467" s="143"/>
       <c r="T467" s="143">
-        <v>94.3186097797031</v>
+        <v>0</v>
       </c>
       <c r="U467" s="143"/>
       <c r="V467" s="143"/>
       <c r="W467" s="143"/>
       <c r="X467" s="143">
-        <v>-2.8494099370384065</v>
+        <v>0</v>
       </c>
       <c r="Y467" s="143"/>
       <c r="Z467" s="143"/>
@@ -25738,7 +25738,7 @@
     </row>
     <row r="468">
       <c r="B468" s="144" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C468" s="144"/>
       <c r="D468" s="145">
@@ -25836,7 +25836,7 @@
     </row>
     <row r="472" ht="14.25" customHeight="1">
       <c r="B472" s="54" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C472" s="54"/>
       <c r="D472" s="54"/>
@@ -25866,33 +25866,33 @@
     </row>
     <row r="476" ht="14.25" customHeight="1">
       <c r="C476" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D476" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E476" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F476" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G476" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H476" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I476" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J476" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="477" ht="14.25" customHeight="1">
       <c r="B477" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C477" s="1">
         <v>1219</v>
@@ -25909,7 +25909,7 @@
     </row>
     <row r="478" ht="14.25" customHeight="1">
       <c r="B478" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C478" s="1">
         <v>1174.089408729219</v>
@@ -25996,7 +25996,7 @@
     </row>
     <row r="495" ht="14.25" customHeight="1">
       <c r="B495" s="51" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C495" s="51"/>
       <c r="D495" s="51"/>
@@ -26029,7 +26029,7 @@
     </row>
     <row r="496" ht="14.25" customHeight="1">
       <c r="B496" s="51" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C496" s="51"/>
       <c r="D496" s="51"/>
@@ -26062,7 +26062,7 @@
     </row>
     <row r="497" ht="14.25" customHeight="1">
       <c r="B497" s="51" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C497" s="51"/>
       <c r="D497" s="51"/>
@@ -26095,7 +26095,7 @@
     </row>
     <row r="498" ht="14.25" customHeight="1">
       <c r="B498" s="51" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C498" s="51"/>
       <c r="D498" s="51"/>
@@ -26128,7 +26128,7 @@
     </row>
     <row r="499" ht="14.25" customHeight="1">
       <c r="B499" s="51" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C499" s="51"/>
       <c r="D499" s="51"/>
@@ -26161,7 +26161,7 @@
     </row>
     <row r="500" ht="14.25" customHeight="1">
       <c r="B500" s="51" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C500" s="51"/>
       <c r="D500" s="51"/>
@@ -26194,7 +26194,7 @@
     </row>
     <row r="501" ht="14.25" customHeight="1">
       <c r="B501" s="51" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C501" s="51"/>
       <c r="D501" s="51"/>
@@ -26227,7 +26227,7 @@
     </row>
     <row r="502" ht="14.25" customHeight="1">
       <c r="B502" s="51" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C502" s="51"/>
       <c r="D502" s="51"/>
@@ -26260,7 +26260,7 @@
     </row>
     <row r="503" ht="14.25" customHeight="1">
       <c r="B503" s="51" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C503" s="51"/>
       <c r="D503" s="51"/>
@@ -26293,7 +26293,7 @@
     </row>
     <row r="504" ht="14.25" customHeight="1">
       <c r="B504" s="51" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C504" s="51"/>
       <c r="D504" s="51"/>
@@ -26326,7 +26326,7 @@
     </row>
     <row r="505" ht="14.25" customHeight="1">
       <c r="B505" s="51" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C505" s="51"/>
       <c r="D505" s="51"/>
@@ -26355,7 +26355,7 @@
     </row>
     <row r="506" ht="14.25" customHeight="1">
       <c r="B506" s="51" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C506" s="51"/>
       <c r="D506" s="51"/>
@@ -26388,7 +26388,7 @@
     </row>
     <row r="507" ht="14.25" customHeight="1">
       <c r="B507" s="51" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C507" s="51"/>
       <c r="D507" s="51"/>
@@ -26479,7 +26479,7 @@
     </row>
     <row r="511" ht="14.25" customHeight="1">
       <c r="B511" s="51" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C511" s="51"/>
       <c r="D511" s="51"/>
@@ -26512,7 +26512,7 @@
     </row>
     <row r="512" ht="14.25" customHeight="1">
       <c r="B512" s="51" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C512" s="51"/>
       <c r="D512" s="51"/>
@@ -26545,7 +26545,7 @@
     </row>
     <row r="513" ht="14.25" customHeight="1">
       <c r="B513" s="51" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C513" s="51"/>
       <c r="D513" s="51"/>
@@ -26578,7 +26578,7 @@
     </row>
     <row r="514" ht="14.25" customHeight="1">
       <c r="B514" s="51" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C514" s="51"/>
       <c r="D514" s="51"/>
@@ -26611,7 +26611,7 @@
     </row>
     <row r="515" ht="14.25" customHeight="1">
       <c r="B515" s="51" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C515" s="51"/>
       <c r="D515" s="51"/>
@@ -26644,7 +26644,7 @@
     </row>
     <row r="516" ht="14.25" customHeight="1">
       <c r="B516" s="51" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C516" s="51"/>
       <c r="D516" s="51"/>
@@ -26677,7 +26677,7 @@
     </row>
     <row r="517" ht="14.25" customHeight="1">
       <c r="B517" s="51" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C517" s="51"/>
       <c r="D517" s="51"/>
@@ -26710,7 +26710,7 @@
     </row>
     <row r="518" ht="14.25" customHeight="1">
       <c r="B518" s="51" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C518" s="51"/>
       <c r="D518" s="51"/>
@@ -26743,7 +26743,7 @@
     </row>
     <row r="519" ht="14.25" customHeight="1">
       <c r="B519" s="51" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C519" s="51"/>
       <c r="D519" s="51"/>
@@ -26776,7 +26776,7 @@
     </row>
     <row r="520" ht="14.25" customHeight="1">
       <c r="B520" s="51" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C520" s="51"/>
       <c r="D520" s="51"/>
@@ -26809,7 +26809,7 @@
     </row>
     <row r="521" ht="14.25" customHeight="1">
       <c r="B521" s="51" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C521" s="51"/>
       <c r="D521" s="51"/>
@@ -26838,7 +26838,7 @@
     </row>
     <row r="522" ht="14.25" customHeight="1">
       <c r="B522" s="51" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C522" s="51"/>
       <c r="D522" s="51"/>
@@ -26871,7 +26871,7 @@
     </row>
     <row r="523" ht="14.25" customHeight="1">
       <c r="B523" s="51" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C523" s="51"/>
       <c r="D523" s="51"/>
@@ -26904,7 +26904,7 @@
     </row>
     <row r="525" ht="14.25" customHeight="1">
       <c r="B525" s="99" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C525" s="99"/>
       <c r="D525" s="99"/>
@@ -26931,14 +26931,14 @@
     </row>
     <row r="526" ht="14.25" customHeight="1">
       <c r="B526" s="55" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C526" s="55"/>
       <c r="D526" s="55"/>
       <c r="E526" s="55"/>
       <c r="F526" s="55"/>
       <c r="G526" s="55" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H526" s="55"/>
       <c r="I526" s="55"/>
@@ -26946,7 +26946,7 @@
       <c r="K526" s="55"/>
       <c r="L526" s="55"/>
       <c r="M526" s="55" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="N526" s="55"/>
       <c r="O526" s="55"/>
@@ -26954,7 +26954,7 @@
       <c r="Q526" s="55"/>
       <c r="R526" s="55"/>
       <c r="S526" s="55" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="T526" s="55"/>
       <c r="U526" s="55"/>
@@ -26964,7 +26964,7 @@
     </row>
     <row r="527" ht="14.25" customHeight="1">
       <c r="B527" s="51" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C527" s="51"/>
       <c r="D527" s="51"/>
@@ -26998,7 +26998,7 @@
     </row>
     <row r="528" ht="14.25" customHeight="1">
       <c r="B528" s="51" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C528" s="51"/>
       <c r="D528" s="51"/>
@@ -27032,7 +27032,7 @@
     </row>
     <row r="529" ht="14.25" customHeight="1">
       <c r="B529" s="51" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C529" s="51"/>
       <c r="D529" s="51"/>
@@ -27066,7 +27066,7 @@
     </row>
     <row r="530" ht="14.25" customHeight="1">
       <c r="B530" s="51" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C530" s="51"/>
       <c r="D530" s="51"/>
@@ -27100,7 +27100,7 @@
     </row>
     <row r="531" ht="14.25" customHeight="1">
       <c r="B531" s="51" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C531" s="51"/>
       <c r="D531" s="51"/>
@@ -27134,7 +27134,7 @@
     </row>
     <row r="532" ht="14.25" customHeight="1">
       <c r="B532" s="51" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C532" s="51"/>
       <c r="D532" s="51"/>
@@ -27168,7 +27168,7 @@
     </row>
     <row r="533" ht="14.25" customHeight="1">
       <c r="B533" s="51" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C533" s="51"/>
       <c r="D533" s="51"/>
@@ -27202,7 +27202,7 @@
     </row>
     <row r="534" ht="14.25" customHeight="1">
       <c r="B534" s="51" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C534" s="51"/>
       <c r="D534" s="51"/>
@@ -27236,7 +27236,7 @@
     </row>
     <row r="535" ht="14.25" customHeight="1">
       <c r="B535" s="51" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C535" s="51"/>
       <c r="D535" s="51"/>
@@ -27270,7 +27270,7 @@
     </row>
     <row r="536" ht="14.25" customHeight="1">
       <c r="B536" s="51" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C536" s="51"/>
       <c r="D536" s="51"/>
@@ -27304,7 +27304,7 @@
     </row>
     <row r="537" ht="14.25" customHeight="1">
       <c r="B537" s="51" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C537" s="51"/>
       <c r="D537" s="51"/>
@@ -31440,7 +31440,7 @@
     <row r="1" ht="55.5" customHeight="1"/>
     <row r="2" ht="26.25" customHeight="1">
       <c r="B2" s="95" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C2" s="95"/>
       <c r="D2" s="95"/>
@@ -31455,7 +31455,7 @@
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="B3" s="21" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -31467,12 +31467,12 @@
       <c r="J3" s="21"/>
       <c r="K3" s="21"/>
       <c r="L3" s="117" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="B4" s="21" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
@@ -31487,31 +31487,31 @@
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="B5" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="B6" s="25" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D6" s="28"/>
       <c r="E6" s="27" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F6" s="28"/>
       <c r="G6" s="27" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H6" s="28"/>
       <c r="I6" s="27" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="J6" s="28"/>
       <c r="K6" s="27" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="L6" s="27"/>
     </row>
@@ -31550,7 +31550,7 @@
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="B8" s="6" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C8" s="12">
         <v>-11.457873023906027</v>
@@ -31585,7 +31585,7 @@
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="B9" s="6" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C9" s="12">
         <v>-8.1085059598128453</v>
@@ -31620,7 +31620,7 @@
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="B10" s="6" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C10" s="12">
         <v>-5.3367995312118124</v>
@@ -31655,7 +31655,7 @@
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="B11" s="6" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C11" s="12">
         <v>-2.6590154604754819</v>
@@ -31690,7 +31690,7 @@
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="B12" s="6" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C12" s="12">
         <v>0</v>
@@ -31725,7 +31725,7 @@
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="B13" s="6" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C13" s="12">
         <v>-0.45483390417940539</v>
@@ -31760,7 +31760,7 @@
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="B14" s="6" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C14" s="12">
         <v>-0.45483390417940539</v>
@@ -31795,7 +31795,7 @@
     </row>
     <row r="15" hidden="1" ht="14.25" customHeight="1">
       <c r="B15" s="6" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="26"/>
@@ -31810,7 +31810,7 @@
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="B16" s="6" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C16" s="12">
         <v>-0.45483390417940539</v>
@@ -31845,7 +31845,7 @@
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="B17" s="6" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C17" s="12">
         <v>-11.81136424650173</v>
@@ -31880,7 +31880,7 @@
     </row>
     <row r="18" hidden="1" ht="14.25" customHeight="1">
       <c r="B18" s="6" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="26"/>
@@ -31899,7 +31899,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="15"/>
       <c r="F20" s="30" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G20" s="30"/>
       <c r="H20" s="30"/>
@@ -31916,30 +31916,30 @@
         <v>5</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F21" s="29" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G21" s="29" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H21" s="29" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="I21" s="29" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="J21" s="29" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K21" s="29" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="B22" s="21" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C22" s="5">
         <v>5127.8045702069467</v>
@@ -31965,7 +31965,7 @@
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="B23" s="21" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C23" s="5">
         <v>9939.9480749556587</v>
@@ -31991,7 +31991,7 @@
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="B24" s="21" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C24" s="5">
         <v>1135.3068680482761</v>
@@ -32023,7 +32023,7 @@
     </row>
     <row r="25" ht="14.25" customHeight="1">
       <c r="B25" s="21" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C25" s="5">
         <v>2018.2042262877963</v>
@@ -32064,7 +32064,7 @@
     </row>
     <row r="28" ht="14.25" customHeight="1">
       <c r="B28" s="22" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C28" s="8">
         <v>16.727021454271615</v>
@@ -32075,7 +32075,7 @@
     </row>
     <row r="29" ht="14.25" customHeight="1">
       <c r="B29" s="22" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C29" s="8">
         <v>12.040928037559716</v>
@@ -32084,12 +32084,12 @@
         <v>12.576195048527019</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" ht="14.25" customHeight="1">
       <c r="B30" s="22" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C30" s="8">
         <v>15.716173202244699</v>
@@ -32098,26 +32098,26 @@
         <v>17.3620394271427</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" ht="14.25" customHeight="1">
       <c r="B31" s="22" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" ht="14.25" customHeight="1">
       <c r="B33" s="24" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C33" s="24"/>
       <c r="D33" s="24"/>
@@ -32131,39 +32131,39 @@
     </row>
     <row r="34" ht="14.25" customHeight="1">
       <c r="B34" s="32" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C34" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="F34" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="G34" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="D34" s="32" t="s">
+      <c r="H34" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="E34" s="32" t="s">
+      <c r="I34" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="F34" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="G34" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="H34" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="I34" s="32" t="s">
-        <v>124</v>
-      </c>
       <c r="J34" s="32" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="K34" s="32" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" ht="14.25" customHeight="1">
       <c r="B35" s="14" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C35" s="5">
         <v>5104.4815764815849</v>
@@ -32195,7 +32195,7 @@
     </row>
     <row r="36" ht="14.25" customHeight="1">
       <c r="B36" s="14" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C36" s="5">
         <v>5030.5189926423809</v>
@@ -32227,7 +32227,7 @@
     </row>
     <row r="38" ht="14.25" customHeight="1">
       <c r="B38" s="34" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C38" s="34"/>
       <c r="D38" s="34"/>
@@ -32245,7 +32245,7 @@
     </row>
     <row r="39" ht="14.25" customHeight="1">
       <c r="B39" s="32" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C39" s="33">
         <v>44104</v>
@@ -32301,7 +32301,7 @@
     </row>
     <row r="40" ht="14.25" customHeight="1">
       <c r="B40" s="11" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5">
@@ -32343,7 +32343,7 @@
     </row>
     <row r="41" ht="14.25" customHeight="1">
       <c r="B41" s="11" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5">
@@ -32385,7 +32385,7 @@
     </row>
     <row r="42" ht="14.25" customHeight="1">
       <c r="B42" s="11" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5">
@@ -32427,7 +32427,7 @@
     </row>
     <row r="43" ht="14.25" customHeight="1">
       <c r="B43" s="11" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5">
@@ -32469,7 +32469,7 @@
     </row>
     <row r="44" ht="14.25" customHeight="1">
       <c r="B44" s="11" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5">
@@ -32511,7 +32511,7 @@
     </row>
     <row r="45" ht="14.25" customHeight="1">
       <c r="B45" s="11" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5">
@@ -32553,7 +32553,7 @@
     </row>
     <row r="46" ht="14.25" customHeight="1">
       <c r="B46" s="11" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5">
@@ -32595,7 +32595,7 @@
     </row>
     <row r="47" ht="14.25" customHeight="1">
       <c r="B47" s="11" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5">
@@ -32637,7 +32637,7 @@
     </row>
     <row r="48" ht="14.25" customHeight="1">
       <c r="B48" s="11" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C48" s="5">
         <v>13346.0000000001</v>
@@ -32681,7 +32681,7 @@
     </row>
     <row r="50" ht="14.25" customHeight="1">
       <c r="B50" s="34" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C50" s="34"/>
       <c r="D50" s="34"/>
@@ -32699,7 +32699,7 @@
     </row>
     <row r="51" ht="14.25" customHeight="1">
       <c r="B51" s="32" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C51" s="33">
         <v>44104</v>
@@ -32755,7 +32755,7 @@
     </row>
     <row r="52" ht="14.25" customHeight="1">
       <c r="B52" s="11" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
@@ -32791,7 +32791,7 @@
     </row>
     <row r="53" ht="14.25" customHeight="1">
       <c r="B53" s="11" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
@@ -32827,7 +32827,7 @@
     </row>
     <row r="54" ht="14.25" customHeight="1">
       <c r="B54" s="11" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -32863,7 +32863,7 @@
     </row>
     <row r="55" ht="14.25" customHeight="1">
       <c r="B55" s="11" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
@@ -32899,7 +32899,7 @@
     </row>
     <row r="56" ht="14.25" customHeight="1">
       <c r="B56" s="11" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
@@ -32935,7 +32935,7 @@
     </row>
     <row r="57" ht="14.25" customHeight="1">
       <c r="B57" s="11" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
@@ -32971,7 +32971,7 @@
     </row>
     <row r="58" ht="14.25" customHeight="1">
       <c r="B58" s="11" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
@@ -33007,7 +33007,7 @@
     </row>
     <row r="59" ht="14.25" customHeight="1">
       <c r="B59" s="11" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
@@ -33043,7 +33043,7 @@
     </row>
     <row r="60" ht="14.25" customHeight="1">
       <c r="B60" s="11" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
@@ -33081,20 +33081,20 @@
     </row>
     <row r="63" ht="14.25" customHeight="1">
       <c r="B63" s="37" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C63" s="35" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D63" s="35"/>
       <c r="E63" s="37"/>
       <c r="F63" s="35" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G63" s="24"/>
       <c r="H63" s="39"/>
       <c r="I63" s="35" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="J63" s="35"/>
       <c r="K63" s="35"/>
@@ -33102,36 +33102,36 @@
     <row r="64" ht="14.25" customHeight="1">
       <c r="B64" s="38"/>
       <c r="C64" s="3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D64" s="36" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G64" s="36" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H64" s="15" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="J64" s="36" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="65" ht="14.25" customHeight="1">
       <c r="B65" s="11" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C65" s="5">
         <v>5841.2968379904405</v>
@@ -33168,7 +33168,7 @@
     </row>
     <row r="66" ht="14.25" customHeight="1">
       <c r="B66" s="11" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C66" s="5">
         <v>713.49226778349544</v>
@@ -33205,7 +33205,7 @@
     </row>
     <row r="67" ht="14.25" customHeight="1">
       <c r="B67" s="11" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C67" s="5">
         <f>C65-C66</f>
@@ -33246,7 +33246,7 @@
     </row>
     <row r="68" ht="14.25" customHeight="1">
       <c r="B68" s="5" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C68" s="5">
         <v>17.641034121472671</v>
@@ -33278,7 +33278,7 @@
     </row>
     <row r="69" ht="14.25" customHeight="1">
       <c r="B69" s="5" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C69" s="5">
         <v>5747.2982687647445</v>
@@ -33310,7 +33310,7 @@
     </row>
     <row r="70" ht="14.25" customHeight="1">
       <c r="B70" s="5" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C70" s="5">
         <v>76.357535104223288</v>
@@ -33342,7 +33342,7 @@
     </row>
     <row r="71" ht="14.25" customHeight="1">
       <c r="B71" s="5" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C71" s="5">
         <v>0</v>
@@ -33374,7 +33374,7 @@
     </row>
     <row r="72" ht="14.25" customHeight="1">
       <c r="B72" s="5" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C72" s="5">
         <v>445.1434862767768</v>
@@ -33502,7 +33502,7 @@
     </row>
     <row r="76" ht="14.25" customHeight="1">
       <c r="B76" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C76" s="5">
         <v>0</v>
@@ -33534,7 +33534,7 @@
     </row>
     <row r="77" ht="14.25" customHeight="1">
       <c r="B77" s="5" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C77" s="5">
         <v>0</v>
@@ -33566,7 +33566,7 @@
     </row>
     <row r="78" ht="14.25" customHeight="1">
       <c r="B78" s="5" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
@@ -33602,20 +33602,20 @@
     </row>
     <row r="80" ht="14.25" customHeight="1">
       <c r="B80" s="37" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C80" s="35" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D80" s="35"/>
       <c r="E80" s="37"/>
       <c r="F80" s="35" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G80" s="24"/>
       <c r="H80" s="39"/>
       <c r="I80" s="35" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="J80" s="35"/>
       <c r="K80" s="35"/>
@@ -33623,36 +33623,36 @@
     <row r="81" ht="14.25" customHeight="1">
       <c r="B81" s="38"/>
       <c r="C81" s="3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D81" s="36" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G81" s="36" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H81" s="15" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="J81" s="36" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="82" ht="14.25" customHeight="1">
       <c r="B82" s="11" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C82" s="5">
         <v>5841.2968379904405</v>
@@ -33689,7 +33689,7 @@
     </row>
     <row r="83" ht="14.25" customHeight="1">
       <c r="B83" s="11" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C83" s="5">
         <v>713.49226778349544</v>
@@ -33726,7 +33726,7 @@
     </row>
     <row r="84" ht="14.25" customHeight="1">
       <c r="B84" s="11" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C84" s="5">
         <f>C82-C83</f>
@@ -33767,7 +33767,7 @@
     </row>
     <row r="85" ht="14.25" customHeight="1">
       <c r="B85" s="5" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C85" s="5">
         <v>17.641034121472671</v>
@@ -33799,7 +33799,7 @@
     </row>
     <row r="86" ht="14.25" customHeight="1">
       <c r="B86" s="5" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C86" s="5">
         <v>5747.2982687647445</v>
@@ -33831,7 +33831,7 @@
     </row>
     <row r="87" ht="14.25" customHeight="1">
       <c r="B87" s="5" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C87" s="5">
         <v>76.357535104223288</v>
@@ -33863,7 +33863,7 @@
     </row>
     <row r="88" ht="14.25" customHeight="1">
       <c r="B88" s="5" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C88" s="5">
         <v>0</v>
@@ -33895,7 +33895,7 @@
     </row>
     <row r="89" ht="14.25" customHeight="1">
       <c r="B89" s="5" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C89" s="5">
         <v>445.1434862767768</v>
@@ -34023,7 +34023,7 @@
     </row>
     <row r="93" ht="14.25" customHeight="1">
       <c r="B93" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C93" s="5">
         <v>0</v>
@@ -34055,7 +34055,7 @@
     </row>
     <row r="94" ht="14.25" customHeight="1">
       <c r="B94" s="5" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C94" s="5">
         <v>0</v>
@@ -34087,7 +34087,7 @@
     </row>
     <row r="95" ht="14.25" customHeight="1">
       <c r="B95" s="5" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
@@ -34123,20 +34123,20 @@
     </row>
     <row r="97" ht="14.25" customHeight="1">
       <c r="B97" s="37" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C97" s="35" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D97" s="35"/>
       <c r="E97" s="37"/>
       <c r="F97" s="35" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G97" s="24"/>
       <c r="H97" s="39"/>
       <c r="I97" s="35" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="J97" s="35"/>
       <c r="K97" s="35"/>
@@ -34144,36 +34144,36 @@
     <row r="98" ht="14.25" customHeight="1">
       <c r="B98" s="38"/>
       <c r="C98" s="3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D98" s="36" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E98" s="15" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G98" s="36" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H98" s="15" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="J98" s="36" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="99" ht="14.25" customHeight="1">
       <c r="B99" s="11" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C99" s="5">
         <v>5841.2968379904405</v>
@@ -34210,7 +34210,7 @@
     </row>
     <row r="100" ht="14.25" customHeight="1">
       <c r="B100" s="11" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C100" s="5">
         <v>713.49226778349544</v>
@@ -34247,7 +34247,7 @@
     </row>
     <row r="101" ht="14.25" customHeight="1">
       <c r="B101" s="11" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C101" s="5">
         <f>C99-C100</f>
@@ -34288,7 +34288,7 @@
     </row>
     <row r="102" ht="14.25" customHeight="1">
       <c r="B102" s="5" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C102" s="5">
         <v>17.641034121472671</v>
@@ -34320,7 +34320,7 @@
     </row>
     <row r="103" ht="14.25" customHeight="1">
       <c r="B103" s="5" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C103" s="5">
         <v>5747.2982687647445</v>
@@ -34352,7 +34352,7 @@
     </row>
     <row r="104" ht="14.25" customHeight="1">
       <c r="B104" s="5" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C104" s="5">
         <v>76.357535104223288</v>
@@ -34384,7 +34384,7 @@
     </row>
     <row r="105" ht="14.25" customHeight="1">
       <c r="B105" s="5" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C105" s="5">
         <v>0</v>
@@ -34416,7 +34416,7 @@
     </row>
     <row r="106" ht="14.25" customHeight="1">
       <c r="B106" s="5" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C106" s="5">
         <v>445.1434862767768</v>
@@ -34544,7 +34544,7 @@
     </row>
     <row r="110" ht="14.25" customHeight="1">
       <c r="B110" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C110" s="5">
         <v>0</v>
@@ -34576,7 +34576,7 @@
     </row>
     <row r="111" ht="14.25" customHeight="1">
       <c r="B111" s="5" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C111" s="5">
         <v>0</v>
@@ -34608,7 +34608,7 @@
     </row>
     <row r="112" ht="14.25" customHeight="1">
       <c r="B112" s="5" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
@@ -34644,20 +34644,20 @@
     </row>
     <row r="114" ht="14.25" customHeight="1">
       <c r="B114" s="37" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C114" s="35" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D114" s="35"/>
       <c r="E114" s="37"/>
       <c r="F114" s="35" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G114" s="24"/>
       <c r="H114" s="39"/>
       <c r="I114" s="35" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="J114" s="35"/>
       <c r="K114" s="35"/>
@@ -34665,36 +34665,36 @@
     <row r="115" ht="14.25" customHeight="1">
       <c r="B115" s="38"/>
       <c r="C115" s="3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D115" s="36" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E115" s="15" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G115" s="36" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H115" s="15" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="J115" s="36" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="116" ht="14.25" customHeight="1">
       <c r="B116" s="11" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C116" s="5">
         <v>5841.2968379904405</v>
@@ -34731,7 +34731,7 @@
     </row>
     <row r="117" ht="14.25" customHeight="1">
       <c r="B117" s="11" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C117" s="5">
         <v>713.49226778349544</v>
@@ -34768,7 +34768,7 @@
     </row>
     <row r="118" ht="14.25" customHeight="1">
       <c r="B118" s="11" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C118" s="5">
         <f>C116-C117</f>
@@ -34809,7 +34809,7 @@
     </row>
     <row r="119" ht="14.25" customHeight="1">
       <c r="B119" s="5" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C119" s="5">
         <v>17.641034121472671</v>
@@ -34841,7 +34841,7 @@
     </row>
     <row r="120" ht="14.25" customHeight="1">
       <c r="B120" s="5" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C120" s="5">
         <v>5747.2982687647445</v>
@@ -34873,7 +34873,7 @@
     </row>
     <row r="121" ht="14.25" customHeight="1">
       <c r="B121" s="5" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C121" s="5">
         <v>76.357535104223288</v>
@@ -34905,7 +34905,7 @@
     </row>
     <row r="122" ht="14.25" customHeight="1">
       <c r="B122" s="5" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C122" s="5">
         <v>0</v>
@@ -34937,7 +34937,7 @@
     </row>
     <row r="123" ht="14.25" customHeight="1">
       <c r="B123" s="5" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C123" s="5">
         <v>445.1434862767768</v>
@@ -35065,7 +35065,7 @@
     </row>
     <row r="127" ht="14.25" customHeight="1">
       <c r="B127" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C127" s="5">
         <v>0</v>
@@ -35097,7 +35097,7 @@
     </row>
     <row r="128" ht="14.25" customHeight="1">
       <c r="B128" s="5" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C128" s="5">
         <v>0</v>
@@ -35129,7 +35129,7 @@
     </row>
     <row r="129" ht="14.25" customHeight="1">
       <c r="B129" s="5" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
@@ -35165,20 +35165,20 @@
     </row>
     <row r="131" ht="14.25" customHeight="1">
       <c r="B131" s="37" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C131" s="35" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D131" s="35"/>
       <c r="E131" s="37"/>
       <c r="F131" s="35" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G131" s="24"/>
       <c r="H131" s="39"/>
       <c r="I131" s="35" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="J131" s="35"/>
       <c r="K131" s="35"/>
@@ -35186,36 +35186,36 @@
     <row r="132" ht="14.25" customHeight="1">
       <c r="B132" s="38"/>
       <c r="C132" s="3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D132" s="36" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E132" s="15" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G132" s="36" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H132" s="15" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="J132" s="36" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="K132" s="3" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="133" ht="14.25" customHeight="1">
       <c r="B133" s="11" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C133" s="5">
         <v>5841.2968379904405</v>
@@ -35252,7 +35252,7 @@
     </row>
     <row r="134" ht="14.25" customHeight="1">
       <c r="B134" s="11" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C134" s="5">
         <v>713.49226778349544</v>
@@ -35289,7 +35289,7 @@
     </row>
     <row r="135" ht="14.25" customHeight="1">
       <c r="B135" s="11" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C135" s="5">
         <f>C133-C134</f>
@@ -35330,7 +35330,7 @@
     </row>
     <row r="136" ht="14.25" customHeight="1">
       <c r="B136" s="5" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C136" s="5">
         <v>17.641034121472671</v>
@@ -35362,7 +35362,7 @@
     </row>
     <row r="137" ht="14.25" customHeight="1">
       <c r="B137" s="5" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C137" s="5">
         <v>5747.2982687647445</v>
@@ -35394,7 +35394,7 @@
     </row>
     <row r="138" ht="14.25" customHeight="1">
       <c r="B138" s="5" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C138" s="5">
         <v>76.357535104223288</v>
@@ -35426,7 +35426,7 @@
     </row>
     <row r="139" ht="14.25" customHeight="1">
       <c r="B139" s="5" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C139" s="5">
         <v>0</v>
@@ -35458,7 +35458,7 @@
     </row>
     <row r="140" ht="14.25" customHeight="1">
       <c r="B140" s="5" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C140" s="5">
         <v>445.1434862767768</v>
@@ -35586,7 +35586,7 @@
     </row>
     <row r="144" ht="14.25" customHeight="1">
       <c r="B144" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C144" s="5">
         <v>0</v>
@@ -35618,7 +35618,7 @@
     </row>
     <row r="145" ht="14.25" customHeight="1">
       <c r="B145" s="5" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C145" s="5">
         <v>0</v>
@@ -35650,7 +35650,7 @@
     </row>
     <row r="146" ht="14.25" customHeight="1">
       <c r="B146" s="5" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
@@ -35686,20 +35686,20 @@
     </row>
     <row r="148" ht="14.25" customHeight="1">
       <c r="B148" s="37" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C148" s="35" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D148" s="35"/>
       <c r="E148" s="37"/>
       <c r="F148" s="35" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G148" s="24"/>
       <c r="H148" s="39"/>
       <c r="I148" s="35" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="J148" s="35"/>
       <c r="K148" s="35"/>
@@ -35707,36 +35707,36 @@
     <row r="149" ht="14.25" customHeight="1">
       <c r="B149" s="38"/>
       <c r="C149" s="3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D149" s="36" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E149" s="15" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G149" s="36" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H149" s="15" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="I149" s="3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="J149" s="36" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K149" s="3" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="150" ht="14.25" customHeight="1">
       <c r="B150" s="11" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C150" s="5">
         <v>5841.2968379904405</v>
@@ -35773,7 +35773,7 @@
     </row>
     <row r="151" ht="14.25" customHeight="1">
       <c r="B151" s="11" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C151" s="5">
         <v>713.49226778349544</v>
@@ -35810,7 +35810,7 @@
     </row>
     <row r="152" ht="14.25" customHeight="1">
       <c r="B152" s="11" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C152" s="5">
         <f>C150-C151</f>
@@ -35851,7 +35851,7 @@
     </row>
     <row r="153" ht="14.25" customHeight="1">
       <c r="B153" s="5" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C153" s="5">
         <v>17.641034121472671</v>
@@ -35883,7 +35883,7 @@
     </row>
     <row r="154" ht="14.25" customHeight="1">
       <c r="B154" s="5" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C154" s="5">
         <v>5747.2982687647445</v>
@@ -35915,7 +35915,7 @@
     </row>
     <row r="155" ht="14.25" customHeight="1">
       <c r="B155" s="5" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C155" s="5">
         <v>76.357535104223288</v>
@@ -35947,7 +35947,7 @@
     </row>
     <row r="156" ht="14.25" customHeight="1">
       <c r="B156" s="5" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C156" s="5">
         <v>0</v>
@@ -35979,7 +35979,7 @@
     </row>
     <row r="157" ht="14.25" customHeight="1">
       <c r="B157" s="5" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C157" s="5">
         <v>445.1434862767768</v>
@@ -36107,7 +36107,7 @@
     </row>
     <row r="161" ht="14.25" customHeight="1">
       <c r="B161" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C161" s="5">
         <v>0</v>
@@ -36139,7 +36139,7 @@
     </row>
     <row r="162" ht="14.25" customHeight="1">
       <c r="B162" s="5" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C162" s="5">
         <v>0</v>
@@ -36171,7 +36171,7 @@
     </row>
     <row r="163" ht="14.25" customHeight="1">
       <c r="B163" s="5" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
@@ -36302,7 +36302,7 @@
       <c r="D6" s="43"/>
       <c r="E6" s="43"/>
       <c r="F6" s="42" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G6" s="43"/>
       <c r="H6" s="43"/>
@@ -36312,7 +36312,7 @@
       <c r="L6" s="43"/>
       <c r="M6" s="43"/>
       <c r="N6" s="42" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="O6" s="43"/>
       <c r="P6" s="43"/>
@@ -36323,7 +36323,7 @@
       <c r="U6" s="46"/>
       <c r="V6" s="46"/>
       <c r="W6" s="42" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="X6" s="43"/>
       <c r="Y6" s="43"/>
@@ -36336,64 +36336,64 @@
         <v>1</v>
       </c>
       <c r="C7" s="78" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D7" s="78" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E7" s="78" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F7" s="78" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G7" s="78" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H7" s="78" t="s">
+        <v>199</v>
+      </c>
+      <c r="I7" s="82" t="s">
+        <v>200</v>
+      </c>
+      <c r="J7" s="80" t="s">
+        <v>201</v>
+      </c>
+      <c r="K7" s="78" t="s">
         <v>195</v>
       </c>
-      <c r="I7" s="82" t="s">
+      <c r="L7" s="78" t="s">
         <v>196</v>
       </c>
-      <c r="J7" s="80" t="s">
+      <c r="M7" s="78" t="s">
+        <v>132</v>
+      </c>
+      <c r="N7" s="78" t="s">
         <v>197</v>
       </c>
-      <c r="K7" s="78" t="s">
-        <v>191</v>
-      </c>
-      <c r="L7" s="78" t="s">
-        <v>192</v>
-      </c>
-      <c r="M7" s="78" t="s">
-        <v>128</v>
-      </c>
-      <c r="N7" s="78" t="s">
-        <v>193</v>
-      </c>
       <c r="O7" s="78" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="P7" s="78" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q7" s="82" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="R7" s="80" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="S7" s="81" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="T7" s="82" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="U7" s="82" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="V7" s="82" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="W7" s="49">
         <v>0.05</v>
@@ -36437,27 +36437,27 @@
       <c r="U8" s="82"/>
       <c r="V8" s="82"/>
       <c r="W8" s="16" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="X8" s="16" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Y8" s="16" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Z8" s="16" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="AA8" s="16" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="AB8" s="16" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="149" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C9" s="121"/>
       <c r="D9" s="121"/>
@@ -36488,7 +36488,7 @@
     </row>
     <row r="10">
       <c r="B10" s="148" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C10" s="141">
         <v>4.81175176555488</v>
@@ -36567,7 +36567,7 @@
     </row>
     <row r="11">
       <c r="B11" s="148" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C11" s="141">
         <v>4.81175176555488</v>
@@ -36646,7 +36646,7 @@
     </row>
     <row r="12">
       <c r="B12" s="148" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C12" s="141">
         <v>0.829163688347004</v>
@@ -36725,7 +36725,7 @@
     </row>
     <row r="13">
       <c r="B13" s="148" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C13" s="141">
         <v>38.2098678753333</v>
@@ -36805,7 +36805,7 @@
     <row r="14"/>
     <row r="15">
       <c r="B15" s="149" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C15" s="121"/>
       <c r="D15" s="121"/>
@@ -38997,7 +38997,7 @@
     </row>
     <row r="43">
       <c r="B43" s="150" t="s">
-        <v>212</v>
+        <v>42</v>
       </c>
       <c r="C43" s="138">
         <v>5.81107036841098</v>
@@ -39080,7 +39080,7 @@
     </row>
     <row r="44">
       <c r="B44" s="150" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C44" s="138">
         <v>7.2008747266</v>
@@ -39163,7 +39163,7 @@
     </row>
     <row r="45">
       <c r="B45" s="150" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C45" s="138">
         <v>7.2008747266</v>
@@ -39246,7 +39246,7 @@
     </row>
     <row r="46">
       <c r="B46" s="154" t="s">
-        <v>213</v>
+        <v>45</v>
       </c>
       <c r="C46" s="146">
         <v>7.2008747266</v>
@@ -39329,7 +39329,7 @@
     </row>
     <row r="47">
       <c r="B47" s="150" t="s">
-        <v>214</v>
+        <v>46</v>
       </c>
       <c r="C47" s="138">
         <v>5.381730923</v>
@@ -39412,7 +39412,7 @@
     </row>
     <row r="48">
       <c r="B48" s="150" t="s">
-        <v>215</v>
+        <v>47</v>
       </c>
       <c r="C48" s="138">
         <v>0</v>
@@ -39495,7 +39495,7 @@
     </row>
     <row r="49">
       <c r="B49" s="154" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C49" s="146">
         <v>5.92406008020576</v>
@@ -39578,7 +39578,7 @@
     </row>
     <row r="50">
       <c r="B50" s="150" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C50" s="138">
         <v>0</v>
@@ -39657,7 +39657,7 @@
     </row>
     <row r="51">
       <c r="B51" s="150" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C51" s="138">
         <v>0</v>
@@ -39736,7 +39736,7 @@
     </row>
     <row r="52">
       <c r="B52" s="150" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C52" s="138">
         <v>0</v>
@@ -39815,7 +39815,7 @@
     </row>
     <row r="53">
       <c r="B53" s="150" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C53" s="138"/>
       <c r="D53" s="138"/>
@@ -39880,7 +39880,7 @@
     </row>
     <row r="54">
       <c r="B54" s="154" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C54" s="146">
         <v>0</v>
@@ -39959,7 +39959,7 @@
     </row>
     <row r="55">
       <c r="B55" s="154" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C55" s="146">
         <v>4.81175176555488</v>
@@ -40039,7 +40039,7 @@
     <row r="56"/>
     <row r="57">
       <c r="B57" s="149" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C57" s="121"/>
       <c r="D57" s="121"/>
@@ -40070,7 +40070,7 @@
     </row>
     <row r="58">
       <c r="B58" s="150" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C58" s="138">
         <v>1.51698034484966</v>
@@ -40153,7 +40153,7 @@
     </row>
     <row r="59">
       <c r="B59" s="150" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C59" s="138">
         <v>0.6532879552</v>
@@ -40236,7 +40236,7 @@
     </row>
     <row r="60">
       <c r="B60" s="150" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C60" s="138">
         <v>0.6532879552</v>
@@ -40319,7 +40319,7 @@
     </row>
     <row r="61">
       <c r="B61" s="150" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C61" s="138">
         <v>0.2762240177</v>
@@ -40402,7 +40402,7 @@
     </row>
     <row r="62">
       <c r="B62" s="150" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C62" s="138">
         <v>0</v>
@@ -40485,7 +40485,7 @@
     </row>
     <row r="63">
       <c r="B63" s="154" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C63" s="146">
         <v>0.833161254408632</v>
@@ -40564,7 +40564,7 @@
     </row>
     <row r="64">
       <c r="B64" s="150" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C64" s="138">
         <v>0</v>
@@ -40643,7 +40643,7 @@
     </row>
     <row r="65">
       <c r="B65" s="154" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C65" s="146">
         <v>0</v>
@@ -40722,7 +40722,7 @@
     </row>
     <row r="66">
       <c r="B66" s="154" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C66" s="146">
         <v>0.829163688347004</v>
@@ -41878,30 +41878,30 @@
     </row>
     <row r="46">
       <c r="B46" s="156" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C46" s="123">
-        <v>2096</v>
+        <v>9545</v>
       </c>
       <c r="D46" s="123">
-        <v>2079</v>
+        <v>8568.00000000001</v>
       </c>
       <c r="E46" s="123">
-        <v>-17</v>
+        <v>-976.99999999999068</v>
       </c>
       <c r="F46" s="123">
-        <v>2096</v>
+        <v>9545</v>
       </c>
       <c r="G46" s="123">
-        <v>2079</v>
+        <v>8568.00000000001</v>
       </c>
       <c r="H46" s="123">
-        <v>-17</v>
+        <v>-976.99999999999068</v>
       </c>
     </row>
     <row r="47">
       <c r="B47" s="156" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C47" s="123">
         <v>4923</v>
@@ -41924,7 +41924,7 @@
     </row>
     <row r="48">
       <c r="B48" s="156" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C48" s="123">
         <v>3613</v>
@@ -41946,77 +41946,77 @@
       </c>
     </row>
     <row r="49">
-      <c r="B49" s="156" t="s">
-        <v>41</v>
-      </c>
-      <c r="C49" s="123">
-        <v>2096</v>
-      </c>
-      <c r="D49" s="123">
-        <v>2079</v>
-      </c>
-      <c r="E49" s="123">
-        <v>-17</v>
-      </c>
-      <c r="F49" s="123">
-        <v>2096</v>
-      </c>
-      <c r="G49" s="123">
-        <v>2079</v>
-      </c>
-      <c r="H49" s="123">
-        <v>-17</v>
+      <c r="B49" s="160" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" s="161">
+        <v>8536</v>
+      </c>
+      <c r="D49" s="161">
+        <v>8673</v>
+      </c>
+      <c r="E49" s="161">
+        <v>137</v>
+      </c>
+      <c r="F49" s="161">
+        <v>8536</v>
+      </c>
+      <c r="G49" s="161">
+        <v>8673</v>
+      </c>
+      <c r="H49" s="161">
+        <v>137</v>
       </c>
     </row>
     <row r="50">
       <c r="B50" s="156" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C50" s="123">
-        <v>2096</v>
+        <v>960.000000000001</v>
       </c>
       <c r="D50" s="123">
-        <v>2079</v>
+        <v>957</v>
       </c>
       <c r="E50" s="123">
-        <v>-17</v>
+        <v>-3.0000000000010476</v>
       </c>
       <c r="F50" s="123">
-        <v>2096</v>
+        <v>960.000000000001</v>
       </c>
       <c r="G50" s="123">
-        <v>2079</v>
+        <v>957</v>
       </c>
       <c r="H50" s="123">
-        <v>-17</v>
+        <v>-3.0000000000010476</v>
       </c>
     </row>
     <row r="51">
       <c r="B51" s="156" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" s="123">
+        <v>-71</v>
+      </c>
+      <c r="D51" s="123">
+        <v>-30</v>
+      </c>
+      <c r="E51" s="123">
         <v>41</v>
       </c>
-      <c r="C51" s="123">
-        <v>2096</v>
-      </c>
-      <c r="D51" s="123">
-        <v>2079</v>
-      </c>
-      <c r="E51" s="123">
-        <v>-17</v>
-      </c>
       <c r="F51" s="123">
-        <v>2096</v>
+        <v>-71</v>
       </c>
       <c r="G51" s="123">
-        <v>2079</v>
+        <v>-30</v>
       </c>
       <c r="H51" s="123">
-        <v>-17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52">
       <c r="B52" s="160" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C52" s="161">
         <v>100044</v>
@@ -42039,7 +42039,7 @@
     </row>
     <row r="53">
       <c r="B53" s="156" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C53" s="123">
         <v>1537</v>
@@ -42062,7 +42062,7 @@
     </row>
     <row r="54">
       <c r="B54" s="156" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C54" s="123">
         <v>1013</v>
@@ -42085,7 +42085,7 @@
     </row>
     <row r="55">
       <c r="B55" s="156" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C55" s="123">
         <v>-923</v>
@@ -42108,7 +42108,7 @@
     </row>
     <row r="56">
       <c r="B56" s="156" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C56" s="123"/>
       <c r="D56" s="123">
@@ -42127,7 +42127,7 @@
     </row>
     <row r="57">
       <c r="B57" s="160" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C57" s="161">
         <v>1627</v>
@@ -42150,7 +42150,7 @@
     </row>
     <row r="58">
       <c r="B58" s="160" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C58" s="161">
         <v>126401.306868039</v>
@@ -42174,7 +42174,7 @@
     <row r="59"/>
     <row r="60">
       <c r="B60" s="156" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C60" s="123">
         <v>44738</v>
@@ -42197,7 +42197,7 @@
     </row>
     <row r="61">
       <c r="B61" s="156" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C61" s="123">
         <v>2562</v>
@@ -42220,7 +42220,7 @@
     </row>
     <row r="62">
       <c r="B62" s="156" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C62" s="123">
         <v>31522</v>
@@ -42243,7 +42243,7 @@
     </row>
     <row r="63">
       <c r="B63" s="156" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C63" s="123">
         <v>9654</v>
@@ -42266,7 +42266,7 @@
     </row>
     <row r="64">
       <c r="B64" s="156" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C64" s="123">
         <v>22907</v>
@@ -42289,7 +42289,7 @@
     </row>
     <row r="65">
       <c r="B65" s="160" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C65" s="161">
         <v>111383</v>
@@ -42312,7 +42312,7 @@
     </row>
     <row r="66">
       <c r="B66" s="156" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C66" s="123">
         <v>537</v>
@@ -42335,7 +42335,7 @@
     </row>
     <row r="67">
       <c r="B67" s="160" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C67" s="161">
         <v>537</v>
@@ -42358,7 +42358,7 @@
     </row>
     <row r="68">
       <c r="B68" s="160" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C68" s="161">
         <v>111920</v>
@@ -42382,7 +42382,7 @@
     <row r="69"/>
     <row r="70">
       <c r="B70" s="160" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C70" s="161">
         <v>14481.3068680393</v>
@@ -42421,7 +42421,7 @@
     </row>
     <row r="73">
       <c r="B73" s="18" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C73" s="24"/>
       <c r="D73" s="24"/>
@@ -43081,30 +43081,30 @@
     </row>
     <row r="103">
       <c r="B103" s="156" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C103" s="123">
-        <v>122495.3756020305</v>
+        <v>559712.44495436409</v>
       </c>
       <c r="D103" s="123">
-        <v>107521.10131851927</v>
+        <v>565226.888160672</v>
       </c>
       <c r="E103" s="123">
-        <v>-14974.274283511229</v>
+        <v>5514.4432063079439</v>
       </c>
       <c r="F103" s="123">
-        <v>103254.37077578387</v>
+        <v>581578.2666043503</v>
       </c>
       <c r="G103" s="123">
-        <v>92392.830693194</v>
+        <v>574888.61477792729</v>
       </c>
       <c r="H103" s="123">
-        <v>-10861.540082589869</v>
+        <v>-6689.6518264230108</v>
       </c>
     </row>
     <row r="104">
       <c r="B104" s="156" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C104" s="123">
         <v>323566.26821026264</v>
@@ -43127,7 +43127,7 @@
     </row>
     <row r="105">
       <c r="B105" s="156" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C105" s="123">
         <v>272537.52026149008</v>
@@ -43149,77 +43149,77 @@
       </c>
     </row>
     <row r="106">
-      <c r="B106" s="156" t="s">
-        <v>41</v>
-      </c>
-      <c r="C106" s="123">
-        <v>122495.3756020305</v>
-      </c>
-      <c r="D106" s="123">
-        <v>107521.10131851927</v>
-      </c>
-      <c r="E106" s="123">
-        <v>-14974.274283511229</v>
-      </c>
-      <c r="F106" s="123">
-        <v>103254.37077578387</v>
-      </c>
-      <c r="G106" s="123">
-        <v>92392.830693194</v>
-      </c>
-      <c r="H106" s="123">
-        <v>-10861.540082589869</v>
+      <c r="B106" s="160" t="s">
+        <v>45</v>
+      </c>
+      <c r="C106" s="161">
+        <v>596103.78847175266</v>
+      </c>
+      <c r="D106" s="161">
+        <v>588063.512351555</v>
+      </c>
+      <c r="E106" s="161">
+        <v>-8040.27612019761</v>
+      </c>
+      <c r="F106" s="161">
+        <v>551825.36122292187</v>
+      </c>
+      <c r="G106" s="161">
+        <v>542882.70777494879</v>
+      </c>
+      <c r="H106" s="161">
+        <v>-8942.6534479730763</v>
       </c>
     </row>
     <row r="107">
       <c r="B107" s="156" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C107" s="123">
-        <v>122495.3756020305</v>
+        <v>52213.033766412525</v>
       </c>
       <c r="D107" s="123">
-        <v>107521.10131851927</v>
+        <v>66036.491336394509</v>
       </c>
       <c r="E107" s="123">
-        <v>-14974.274283511229</v>
+        <v>13823.457569981983</v>
       </c>
       <c r="F107" s="123">
-        <v>103254.37077578387</v>
+        <v>51899.965780413077</v>
       </c>
       <c r="G107" s="123">
-        <v>92392.830693194</v>
+        <v>65464.542653293138</v>
       </c>
       <c r="H107" s="123">
-        <v>-10861.540082589869</v>
+        <v>13564.576872880061</v>
       </c>
     </row>
     <row r="108">
       <c r="B108" s="156" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C108" s="123">
-        <v>122495.3756020305</v>
+        <v>0</v>
       </c>
       <c r="D108" s="123">
-        <v>107521.10131851927</v>
+        <v>0</v>
       </c>
       <c r="E108" s="123">
-        <v>-14974.274283511229</v>
+        <v>0</v>
       </c>
       <c r="F108" s="123">
-        <v>103254.37077578387</v>
+        <v>0</v>
       </c>
       <c r="G108" s="123">
-        <v>92392.830693194</v>
+        <v>0</v>
       </c>
       <c r="H108" s="123">
-        <v>-10861.540082589869</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="B109" s="160" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C109" s="161">
         <v>5747298.2687647445</v>
@@ -43242,7 +43242,7 @@
     </row>
     <row r="110">
       <c r="B110" s="156" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C110" s="123">
         <v>0</v>
@@ -43265,7 +43265,7 @@
     </row>
     <row r="111">
       <c r="B111" s="156" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C111" s="123">
         <v>0</v>
@@ -43288,7 +43288,7 @@
     </row>
     <row r="112">
       <c r="B112" s="156" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C112" s="123">
         <v>0</v>
@@ -43311,7 +43311,7 @@
     </row>
     <row r="113">
       <c r="B113" s="156" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C113" s="123"/>
       <c r="D113" s="123">
@@ -43330,7 +43330,7 @@
     </row>
     <row r="114">
       <c r="B114" s="160" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C114" s="161">
         <v>0</v>
@@ -43353,7 +43353,7 @@
     </row>
     <row r="115">
       <c r="B115" s="160" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C115" s="161">
         <v>5841296.8379904423</v>
@@ -43377,7 +43377,7 @@
     <row r="116"/>
     <row r="117">
       <c r="B117" s="156" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C117" s="123">
         <v>445143.48627677682</v>
@@ -43400,7 +43400,7 @@
     </row>
     <row r="118">
       <c r="B118" s="156" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C118" s="123">
         <v>17623.508289485362</v>
@@ -43423,7 +43423,7 @@
     </row>
     <row r="119">
       <c r="B119" s="156" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C119" s="123">
         <v>219136.95728838159</v>
@@ -43446,7 +43446,7 @@
     </row>
     <row r="120">
       <c r="B120" s="156" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C120" s="123">
         <v>31588.315928851684</v>
@@ -43469,7 +43469,7 @@
     </row>
     <row r="121">
       <c r="B121" s="156" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C121" s="123">
         <v>0</v>
@@ -43492,7 +43492,7 @@
     </row>
     <row r="122">
       <c r="B122" s="160" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C122" s="161">
         <v>713492.26778349548</v>
@@ -43515,7 +43515,7 @@
     </row>
     <row r="123">
       <c r="B123" s="156" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C123" s="123">
         <v>0</v>
@@ -43538,7 +43538,7 @@
     </row>
     <row r="124">
       <c r="B124" s="160" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C124" s="161">
         <v>0</v>
@@ -43561,7 +43561,7 @@
     </row>
     <row r="125">
       <c r="B125" s="160" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C125" s="161">
         <v>713492.26778349548</v>
@@ -43585,7 +43585,7 @@
     <row r="126"/>
     <row r="127">
       <c r="B127" s="160" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C127" s="161">
         <v>5127804.5702069467</v>
@@ -43624,14 +43624,14 @@
     </row>
     <row r="130">
       <c r="B130" s="18" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C130" s="24"/>
       <c r="D130" s="24"/>
       <c r="E130" s="24"/>
       <c r="F130" s="24"/>
       <c r="G130" s="24" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H130" s="106">
         <v>0.005</v>
@@ -44288,30 +44288,30 @@
     </row>
     <row r="160">
       <c r="B160" s="156" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C160" s="122">
-        <v>5.5207751606019082</v>
+        <v>5.6387188797749479</v>
       </c>
       <c r="D160" s="122">
-        <v>4.8475907922362067</v>
+        <v>6.3269037025424018</v>
       </c>
       <c r="E160" s="122">
-        <v>-0.6731843683657015</v>
+        <v>0.68818482276745385</v>
       </c>
       <c r="F160" s="122">
-        <v>4.4357751544039816</v>
+        <v>5.83003206907726</v>
       </c>
       <c r="G160" s="122">
-        <v>3.9520987733464774</v>
+        <v>6.4158111128723805</v>
       </c>
       <c r="H160" s="122">
-        <v>-0.48367638105750421</v>
+        <v>0.58577904379512091</v>
       </c>
     </row>
     <row r="161">
       <c r="B161" s="156" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C161" s="122">
         <v>5.9193104398266341</v>
@@ -44334,7 +44334,7 @@
     </row>
     <row r="162">
       <c r="B162" s="156" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C162" s="122">
         <v>5.40408898165596</v>
@@ -44356,77 +44356,77 @@
       </c>
     </row>
     <row r="163">
-      <c r="B163" s="156" t="s">
-        <v>41</v>
-      </c>
-      <c r="C163" s="122">
-        <v>5.5207751606019082</v>
-      </c>
-      <c r="D163" s="122">
-        <v>4.8475907922362067</v>
-      </c>
-      <c r="E163" s="122">
-        <v>-0.6731843683657015</v>
-      </c>
-      <c r="F163" s="122">
-        <v>4.4357751544039816</v>
-      </c>
-      <c r="G163" s="122">
-        <v>3.9520987733464774</v>
-      </c>
-      <c r="H163" s="122">
-        <v>-0.48367638105750421</v>
+      <c r="B163" s="160" t="s">
+        <v>45</v>
+      </c>
+      <c r="C163" s="162">
+        <v>5.7012346281618429</v>
+      </c>
+      <c r="D163" s="162">
+        <v>5.527015708910306</v>
+      </c>
+      <c r="E163" s="162">
+        <v>-0.17421891925153688</v>
+      </c>
+      <c r="F163" s="162">
+        <v>4.9110339723455025</v>
+      </c>
+      <c r="G163" s="162">
+        <v>4.7426695943189</v>
+      </c>
+      <c r="H163" s="162">
+        <v>-0.16836437802660242</v>
       </c>
     </row>
     <row r="164">
       <c r="B164" s="156" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C164" s="122">
-        <v>5.5207751606019082</v>
+        <v>5.0919124309372892</v>
       </c>
       <c r="D164" s="122">
-        <v>4.8475907922362067</v>
+        <v>6.5534195678758538</v>
       </c>
       <c r="E164" s="122">
-        <v>-0.6731843683657015</v>
+        <v>1.4615071369385646</v>
       </c>
       <c r="F164" s="122">
-        <v>4.4357751544039816</v>
+        <v>5.059301182394595</v>
       </c>
       <c r="G164" s="122">
-        <v>3.9520987733464774</v>
+        <v>6.49365481519954</v>
       </c>
       <c r="H164" s="122">
-        <v>-0.48367638105750421</v>
+        <v>1.4343536328049451</v>
       </c>
     </row>
     <row r="165">
       <c r="B165" s="156" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C165" s="122">
-        <v>5.5207751606019082</v>
+        <v>0</v>
       </c>
       <c r="D165" s="122">
-        <v>4.8475907922362067</v>
+        <v>0</v>
       </c>
       <c r="E165" s="122">
-        <v>-0.6731843683657015</v>
+        <v>0</v>
       </c>
       <c r="F165" s="122">
-        <v>4.4357751544039816</v>
+        <v>0</v>
       </c>
       <c r="G165" s="122">
-        <v>3.9520987733464774</v>
+        <v>0</v>
       </c>
       <c r="H165" s="122">
-        <v>-0.48367638105750421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="B166" s="160" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C166" s="162">
         <v>5.450387792727863</v>
@@ -44449,7 +44449,7 @@
     </row>
     <row r="167">
       <c r="B167" s="156" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C167" s="122">
         <v>0</v>
@@ -44472,7 +44472,7 @@
     </row>
     <row r="168">
       <c r="B168" s="156" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C168" s="122">
         <v>0</v>
@@ -44495,7 +44495,7 @@
     </row>
     <row r="169">
       <c r="B169" s="156" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C169" s="122">
         <v>0</v>
@@ -44518,7 +44518,7 @@
     </row>
     <row r="170">
       <c r="B170" s="156" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C170" s="122"/>
       <c r="D170" s="122">
@@ -44537,7 +44537,7 @@
     </row>
     <row r="171">
       <c r="B171" s="160" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C171" s="162">
         <v>0</v>
@@ -44560,7 +44560,7 @@
     </row>
     <row r="172">
       <c r="B172" s="160" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C172" s="162">
         <v>4.4090808142086777</v>
@@ -44584,7 +44584,7 @@
     <row r="173"/>
     <row r="174">
       <c r="B174" s="156" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C174" s="122">
         <v>0.99500086341985894</v>
@@ -44607,7 +44607,7 @@
     </row>
     <row r="175">
       <c r="B175" s="156" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C175" s="122">
         <v>0.68788088561613436</v>
@@ -44630,7 +44630,7 @@
     </row>
     <row r="176">
       <c r="B176" s="156" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C176" s="122">
         <v>0.69518735260574116</v>
@@ -44653,7 +44653,7 @@
     </row>
     <row r="177">
       <c r="B177" s="156" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C177" s="122">
         <v>0.32720443265850091</v>
@@ -44676,7 +44676,7 @@
     </row>
     <row r="178">
       <c r="B178" s="156" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C178" s="122">
         <v>0</v>
@@ -44699,7 +44699,7 @@
     </row>
     <row r="179">
       <c r="B179" s="160" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C179" s="162">
         <v>0.64057555262786559</v>
@@ -44722,7 +44722,7 @@
     </row>
     <row r="180">
       <c r="B180" s="156" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C180" s="122">
         <v>0</v>
@@ -44745,7 +44745,7 @@
     </row>
     <row r="181">
       <c r="B181" s="160" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C181" s="162">
         <v>0</v>
@@ -44768,7 +44768,7 @@
     </row>
     <row r="182">
       <c r="B182" s="160" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C182" s="162">
         <v>0.63750202625401664</v>
@@ -44807,7 +44807,7 @@
     </row>
     <row r="185">
       <c r="B185" s="18" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C185" s="24"/>
       <c r="D185" s="24"/>
@@ -45467,30 +45467,30 @@
     </row>
     <row r="215">
       <c r="B215" s="156" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C215" s="123">
-        <v>690.19197346670046</v>
+        <v>107.48363939953597</v>
       </c>
       <c r="D215" s="123">
-        <v>690.67675969302911</v>
+        <v>115.68889463452251</v>
       </c>
       <c r="E215" s="123">
-        <v>0.48478622632869517</v>
+        <v>8.2052552349865433</v>
       </c>
       <c r="F215" s="123">
-        <v>755.41102280770485</v>
+        <v>3474.5085280638473</v>
       </c>
       <c r="G215" s="123">
-        <v>750.37126265575046</v>
+        <v>2024.9095931403115</v>
       </c>
       <c r="H215" s="123">
-        <v>-5.0397601519543676</v>
+        <v>-1449.5989349235356</v>
       </c>
     </row>
     <row r="216">
       <c r="B216" s="156" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C216" s="123">
         <v>2212.9208762207541</v>
@@ -45513,7 +45513,7 @@
     </row>
     <row r="217">
       <c r="B217" s="156" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C217" s="123">
         <v>1544.8505876885192</v>
@@ -45535,77 +45535,77 @@
       </c>
     </row>
     <row r="218">
-      <c r="B218" s="156" t="s">
-        <v>41</v>
-      </c>
-      <c r="C218" s="123">
-        <v>690.19197346670046</v>
-      </c>
-      <c r="D218" s="123">
-        <v>690.67675969302911</v>
-      </c>
-      <c r="E218" s="123">
-        <v>0.48478622632869517</v>
-      </c>
-      <c r="F218" s="123">
-        <v>755.41102280770485</v>
-      </c>
-      <c r="G218" s="123">
-        <v>750.37126265575046</v>
-      </c>
-      <c r="H218" s="123">
-        <v>-5.0397601519543676</v>
+      <c r="B218" s="160" t="s">
+        <v>45</v>
+      </c>
+      <c r="C218" s="161">
+        <v>3757.771463909276</v>
+      </c>
+      <c r="D218" s="161">
+        <v>3832.92819881394</v>
+      </c>
+      <c r="E218" s="161">
+        <v>75.1567349046641</v>
+      </c>
+      <c r="F218" s="161">
+        <v>4810.3266507350063</v>
+      </c>
+      <c r="G218" s="161">
+        <v>4869.299245936907</v>
+      </c>
+      <c r="H218" s="161">
+        <v>58.972595201900226</v>
       </c>
     </row>
     <row r="219">
       <c r="B219" s="156" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C219" s="123">
-        <v>690.19197346670046</v>
+        <v>16.653372147119722</v>
       </c>
       <c r="D219" s="123">
-        <v>690.67675969302911</v>
+        <v>16.601330359159842</v>
       </c>
       <c r="E219" s="123">
-        <v>0.48478622632869517</v>
+        <v>-0.052041787959879</v>
       </c>
       <c r="F219" s="123">
-        <v>755.41102280770485</v>
+        <v>16.653372147119029</v>
       </c>
       <c r="G219" s="123">
-        <v>750.37126265575046</v>
+        <v>16.601330359159395</v>
       </c>
       <c r="H219" s="123">
-        <v>-5.0397601519543676</v>
+        <v>-0.052041787959635259</v>
       </c>
     </row>
     <row r="220">
       <c r="B220" s="156" t="s">
+        <v>47</v>
+      </c>
+      <c r="C220" s="123">
+        <v>-71</v>
+      </c>
+      <c r="D220" s="123">
+        <v>-30</v>
+      </c>
+      <c r="E220" s="123">
         <v>41</v>
       </c>
-      <c r="C220" s="123">
-        <v>690.19197346670046</v>
-      </c>
-      <c r="D220" s="123">
-        <v>690.67675969302911</v>
-      </c>
-      <c r="E220" s="123">
-        <v>0.48478622632869517</v>
-      </c>
       <c r="F220" s="123">
-        <v>755.41102280770485</v>
+        <v>0</v>
       </c>
       <c r="G220" s="123">
-        <v>750.37126265575046</v>
+        <v>0</v>
       </c>
       <c r="H220" s="123">
-        <v>-5.0397601519543676</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
       <c r="B221" s="160" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C221" s="161">
         <v>23738.373737565169</v>
@@ -45628,7 +45628,7 @@
     </row>
     <row r="222">
       <c r="B222" s="156" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C222" s="123">
         <v>0</v>
@@ -45651,7 +45651,7 @@
     </row>
     <row r="223">
       <c r="B223" s="156" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C223" s="123">
         <v>0</v>
@@ -45674,7 +45674,7 @@
     </row>
     <row r="224">
       <c r="B224" s="156" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C224" s="123">
         <v>0</v>
@@ -45697,7 +45697,7 @@
     </row>
     <row r="225">
       <c r="B225" s="156" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C225" s="123"/>
       <c r="D225" s="123">
@@ -45716,7 +45716,7 @@
     </row>
     <row r="226">
       <c r="B226" s="160" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C226" s="161">
         <v>0</v>
@@ -45739,7 +45739,7 @@
     </row>
     <row r="227">
       <c r="B227" s="160" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C227" s="161">
         <v>89003.355033426909</v>
@@ -45763,7 +45763,7 @@
     <row r="228"/>
     <row r="229">
       <c r="B229" s="156" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C229" s="123">
         <v>56610.525944937937</v>
@@ -45786,7 +45786,7 @@
     </row>
     <row r="230">
       <c r="B230" s="156" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C230" s="123">
         <v>268.7520871911957</v>
@@ -45809,7 +45809,7 @@
     </row>
     <row r="231">
       <c r="B231" s="156" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C231" s="123">
         <v>6968.9355038352014</v>
@@ -45832,7 +45832,7 @@
     </row>
     <row r="232">
       <c r="B232" s="156" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C232" s="123">
         <v>3392.6701230889425</v>
@@ -45855,7 +45855,7 @@
     </row>
     <row r="233">
       <c r="B233" s="156" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C233" s="123">
         <v>11455.920272855061</v>
@@ -45878,7 +45878,7 @@
     </row>
     <row r="234">
       <c r="B234" s="160" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C234" s="161">
         <v>78696.803931908318</v>
@@ -45901,7 +45901,7 @@
     </row>
     <row r="235">
       <c r="B235" s="156" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C235" s="123">
         <v>0</v>
@@ -45924,7 +45924,7 @@
     </row>
     <row r="236">
       <c r="B236" s="160" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C236" s="161">
         <v>0</v>
@@ -45947,7 +45947,7 @@
     </row>
     <row r="237">
       <c r="B237" s="160" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C237" s="161">
         <v>78696.803931908318</v>
@@ -45986,14 +45986,14 @@
     </row>
     <row r="240">
       <c r="B240" s="18" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C240" s="24"/>
       <c r="D240" s="24"/>
       <c r="E240" s="24"/>
       <c r="F240" s="24"/>
       <c r="G240" s="24" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H240" s="106">
         <v>0.005</v>
@@ -46650,30 +46650,30 @@
     </row>
     <row r="270">
       <c r="B270" s="156" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C270" s="122">
-        <v>3.3965661988000004</v>
+        <v>3.4738045982999997</v>
       </c>
       <c r="D270" s="122">
-        <v>3.2198433000000004</v>
+        <v>3.3173859367000005</v>
       </c>
       <c r="E270" s="122">
-        <v>-0.17672289880000003</v>
+        <v>-0.15641866159999918</v>
       </c>
       <c r="F270" s="122">
-        <v>3.522749267</v>
+        <v>3.6312577428000004</v>
       </c>
       <c r="G270" s="122">
-        <v>3.3724370922</v>
+        <v>3.5616453388</v>
       </c>
       <c r="H270" s="122">
-        <v>-0.15031217479999981</v>
+        <v>-0.06961240400000035</v>
       </c>
     </row>
     <row r="271">
       <c r="B271" s="156" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C271" s="122">
         <v>3.3383394785000005</v>
@@ -46696,7 +46696,7 @@
     </row>
     <row r="272">
       <c r="B272" s="156" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C272" s="122">
         <v>9.005983514</v>
@@ -46718,77 +46718,77 @@
       </c>
     </row>
     <row r="273">
-      <c r="B273" s="156" t="s">
-        <v>41</v>
-      </c>
-      <c r="C273" s="122">
-        <v>3.3965661988000004</v>
-      </c>
-      <c r="D273" s="122">
-        <v>3.2198433000000004</v>
-      </c>
-      <c r="E273" s="122">
-        <v>-0.17672289880000003</v>
-      </c>
-      <c r="F273" s="122">
-        <v>3.522749267</v>
-      </c>
-      <c r="G273" s="122">
-        <v>3.3724370922</v>
-      </c>
-      <c r="H273" s="122">
-        <v>-0.15031217479999981</v>
+      <c r="B273" s="160" t="s">
+        <v>45</v>
+      </c>
+      <c r="C273" s="162">
+        <v>5.6581562094403095</v>
+      </c>
+      <c r="D273" s="162">
+        <v>5.42181764809554</v>
+      </c>
+      <c r="E273" s="162">
+        <v>-0.23633856134476972</v>
+      </c>
+      <c r="F273" s="162">
+        <v>6.1933880288482426</v>
+      </c>
+      <c r="G273" s="162">
+        <v>6.0056073787147932</v>
+      </c>
+      <c r="H273" s="162">
+        <v>-0.18778065013344936</v>
       </c>
     </row>
     <row r="274">
       <c r="B274" s="156" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C274" s="122">
-        <v>3.3965661988000004</v>
+        <v>3.4738045982999997</v>
       </c>
       <c r="D274" s="122">
-        <v>3.2198433000000004</v>
+        <v>3.3173859367000005</v>
       </c>
       <c r="E274" s="122">
-        <v>-0.17672289880000003</v>
+        <v>-0.15641866159999918</v>
       </c>
       <c r="F274" s="122">
-        <v>3.522749267</v>
+        <v>3.6312577428000004</v>
       </c>
       <c r="G274" s="122">
-        <v>3.3724370922</v>
+        <v>3.5616453388</v>
       </c>
       <c r="H274" s="122">
-        <v>-0.15031217479999981</v>
+        <v>-0.06961240400000035</v>
       </c>
     </row>
     <row r="275">
       <c r="B275" s="156" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C275" s="122">
-        <v>3.3965661988000004</v>
+        <v>0</v>
       </c>
       <c r="D275" s="122">
-        <v>3.2198433000000004</v>
+        <v>0</v>
       </c>
       <c r="E275" s="122">
-        <v>-0.17672289880000003</v>
+        <v>0</v>
       </c>
       <c r="F275" s="122">
-        <v>3.522749267</v>
+        <v>0</v>
       </c>
       <c r="G275" s="122">
-        <v>3.3724370922</v>
+        <v>0</v>
       </c>
       <c r="H275" s="122">
-        <v>-0.15031217479999981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
       <c r="B276" s="160" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C276" s="162">
         <v>3.4950379313553892</v>
@@ -46811,7 +46811,7 @@
     </row>
     <row r="277">
       <c r="B277" s="156" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C277" s="122">
         <v>0</v>
@@ -46834,7 +46834,7 @@
     </row>
     <row r="278">
       <c r="B278" s="156" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C278" s="122">
         <v>0</v>
@@ -46857,7 +46857,7 @@
     </row>
     <row r="279">
       <c r="B279" s="156" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C279" s="122">
         <v>0</v>
@@ -46880,7 +46880,7 @@
     </row>
     <row r="280">
       <c r="B280" s="156" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C280" s="122"/>
       <c r="D280" s="122">
@@ -46899,7 +46899,7 @@
     </row>
     <row r="281">
       <c r="B281" s="160" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C281" s="162">
         <v>0</v>
@@ -46922,7 +46922,7 @@
     </row>
     <row r="282">
       <c r="B282" s="160" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C282" s="162">
         <v>1.0965576401745041</v>
@@ -46946,7 +46946,7 @@
     <row r="283"/>
     <row r="284">
       <c r="B284" s="156" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C284" s="122">
         <v>0.27382138620999424</v>
@@ -46969,7 +46969,7 @@
     </row>
     <row r="285">
       <c r="B285" s="156" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C285" s="122">
         <v>0.68508490009873657</v>
@@ -46992,7 +46992,7 @@
     </row>
     <row r="286">
       <c r="B286" s="156" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C286" s="122">
         <v>0.69183245963309</v>
@@ -47015,7 +47015,7 @@
     </row>
     <row r="287">
       <c r="B287" s="156" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C287" s="122">
         <v>0.32327724961065324</v>
@@ -47038,7 +47038,7 @@
     </row>
     <row r="288">
       <c r="B288" s="156" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C288" s="122">
         <v>0</v>
@@ -47061,7 +47061,7 @@
     </row>
     <row r="289">
       <c r="B289" s="160" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C289" s="162">
         <v>0.27589916973585477</v>
@@ -47084,7 +47084,7 @@
     </row>
     <row r="290">
       <c r="B290" s="156" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C290" s="122">
         <v>0</v>
@@ -47107,7 +47107,7 @@
     </row>
     <row r="291">
       <c r="B291" s="160" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C291" s="162">
         <v>0</v>
@@ -47130,7 +47130,7 @@
     </row>
     <row r="292">
       <c r="B292" s="160" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C292" s="162">
         <v>0.27589916973585477</v>
@@ -47169,7 +47169,7 @@
     </row>
     <row r="295">
       <c r="B295" s="18" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C295" s="24"/>
       <c r="D295" s="24"/>
@@ -47538,30 +47538,30 @@
     </row>
     <row r="312">
       <c r="B312" s="156" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C312" s="123">
-        <v>6.7799282358143964</v>
+        <v>21.496727879845228</v>
       </c>
       <c r="D312" s="123">
-        <v>6.7396887479285255</v>
+        <v>23.137778926838422</v>
       </c>
       <c r="E312" s="123">
-        <v>-0.040239487885871311</v>
+        <v>1.6410510469931943</v>
       </c>
       <c r="F312" s="123">
-        <v>10.280523539476468</v>
+        <v>25.101705610925649</v>
       </c>
       <c r="G312" s="123">
-        <v>10.228697195320784</v>
+        <v>25.181918627021123</v>
       </c>
       <c r="H312" s="123">
-        <v>-0.051826344155684635</v>
+        <v>0.080213016095472989</v>
       </c>
     </row>
     <row r="313">
       <c r="B313" s="156" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C313" s="123">
         <v>32.158615257597319</v>
@@ -47584,7 +47584,7 @@
     </row>
     <row r="314">
       <c r="B314" s="156" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C314" s="123">
         <v>77.287785354260208</v>
@@ -47606,77 +47606,77 @@
       </c>
     </row>
     <row r="315">
-      <c r="B315" s="156" t="s">
-        <v>41</v>
-      </c>
-      <c r="C315" s="123">
-        <v>6.7799282358143964</v>
-      </c>
-      <c r="D315" s="123">
-        <v>6.7396887479285255</v>
-      </c>
-      <c r="E315" s="123">
-        <v>-0.040239487885871311</v>
-      </c>
-      <c r="F315" s="123">
-        <v>10.280523539476468</v>
-      </c>
-      <c r="G315" s="123">
-        <v>10.228697195320784</v>
-      </c>
-      <c r="H315" s="123">
-        <v>-0.051826344155684635</v>
+      <c r="B315" s="160" t="s">
+        <v>45</v>
+      </c>
+      <c r="C315" s="161">
+        <v>109.44640061185751</v>
+      </c>
+      <c r="D315" s="161">
+        <v>108.70543991776448</v>
+      </c>
+      <c r="E315" s="161">
+        <v>-0.74096069409303889</v>
+      </c>
+      <c r="F315" s="161">
+        <v>132.6195013435096</v>
+      </c>
+      <c r="G315" s="161">
+        <v>131.55097385967039</v>
+      </c>
+      <c r="H315" s="161">
+        <v>-1.0685274838391925</v>
       </c>
     </row>
     <row r="316">
       <c r="B316" s="156" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C316" s="123">
-        <v>6.7799282358143964</v>
+        <v>3.3306744294144943</v>
       </c>
       <c r="D316" s="123">
-        <v>6.7396887479285255</v>
+        <v>3.3202660718225721</v>
       </c>
       <c r="E316" s="123">
-        <v>-0.040239487885871311</v>
+        <v>-0.01040835759192214</v>
       </c>
       <c r="F316" s="123">
-        <v>10.280523539476468</v>
+        <v>3.3306744294249109</v>
       </c>
       <c r="G316" s="123">
-        <v>10.228697195320784</v>
+        <v>3.3202660718335566</v>
       </c>
       <c r="H316" s="123">
-        <v>-0.051826344155684635</v>
+        <v>-0.010408357591354616</v>
       </c>
     </row>
     <row r="317">
       <c r="B317" s="156" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C317" s="123">
-        <v>6.7799282358143964</v>
+        <v>0</v>
       </c>
       <c r="D317" s="123">
-        <v>6.7396887479285255</v>
+        <v>0</v>
       </c>
       <c r="E317" s="123">
-        <v>-0.040239487885871311</v>
+        <v>0</v>
       </c>
       <c r="F317" s="123">
-        <v>10.280523539476468</v>
+        <v>0</v>
       </c>
       <c r="G317" s="123">
-        <v>10.228697195320784</v>
+        <v>0</v>
       </c>
       <c r="H317" s="123">
-        <v>-0.051826344155684635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318">
       <c r="B318" s="160" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C318" s="161">
         <v>294.51230540807649</v>
@@ -47715,7 +47715,7 @@
     </row>
     <row r="321">
       <c r="B321" s="18" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C321" s="24"/>
       <c r="D321" s="24"/>
@@ -48084,30 +48084,30 @@
     </row>
     <row r="338">
       <c r="B338" s="156" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C338" s="123">
-        <v>51.1115264066436</v>
+        <v>61.5230568318869</v>
       </c>
       <c r="D338" s="123">
-        <v>49.9702051511991</v>
+        <v>66.1785142476261</v>
       </c>
       <c r="E338" s="123">
-        <v>-1.141321255444498</v>
+        <v>4.6554574157391979</v>
       </c>
       <c r="F338" s="123">
-        <v>97.1680197167415</v>
+        <v>93.3543751061285</v>
       </c>
       <c r="G338" s="123">
-        <v>94.3186097797031</v>
+        <v>74.8618551107282</v>
       </c>
       <c r="H338" s="123">
-        <v>-2.8494099370384065</v>
+        <v>-18.492519995400304</v>
       </c>
     </row>
     <row r="339">
       <c r="B339" s="156" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C339" s="123">
         <v>49.5874556397346</v>
@@ -48130,7 +48130,7 @@
     </row>
     <row r="340">
       <c r="B340" s="156" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C340" s="123">
         <v>95.45970671908411</v>
@@ -48152,77 +48152,77 @@
       </c>
     </row>
     <row r="341">
-      <c r="B341" s="156" t="s">
-        <v>41</v>
-      </c>
-      <c r="C341" s="123">
-        <v>51.1115264066436</v>
-      </c>
-      <c r="D341" s="123">
-        <v>49.9702051511991</v>
-      </c>
-      <c r="E341" s="123">
-        <v>-1.141321255444498</v>
-      </c>
-      <c r="F341" s="123">
-        <v>97.1680197167415</v>
-      </c>
-      <c r="G341" s="123">
-        <v>94.3186097797031</v>
-      </c>
-      <c r="H341" s="123">
-        <v>-2.8494099370384065</v>
+      <c r="B341" s="160" t="s">
+        <v>45</v>
+      </c>
+      <c r="C341" s="161">
+        <v>145.047162358819</v>
+      </c>
+      <c r="D341" s="161">
+        <v>144.44765457751598</v>
+      </c>
+      <c r="E341" s="161">
+        <v>-0.59950778130302207</v>
+      </c>
+      <c r="F341" s="161">
+        <v>138.53956387207</v>
+      </c>
+      <c r="G341" s="161">
+        <v>138.70669516562</v>
+      </c>
+      <c r="H341" s="161">
+        <v>0.1671312935500173</v>
       </c>
     </row>
     <row r="342">
       <c r="B342" s="156" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C342" s="123">
-        <v>51.1115264066436</v>
+        <v>9.52959531012419</v>
       </c>
       <c r="D342" s="123">
-        <v>49.9702051511991</v>
+        <v>9.4954387125414588</v>
       </c>
       <c r="E342" s="123">
-        <v>-1.141321255444498</v>
+        <v>-0.03415659758273068</v>
       </c>
       <c r="F342" s="123">
-        <v>97.1680197167415</v>
+        <v>6.62461744580058</v>
       </c>
       <c r="G342" s="123">
-        <v>94.3186097797031</v>
+        <v>6.6018383933042593</v>
       </c>
       <c r="H342" s="123">
-        <v>-2.8494099370384065</v>
+        <v>-0.022779052496320219</v>
       </c>
     </row>
     <row r="343">
       <c r="B343" s="156" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C343" s="123">
-        <v>51.1115264066436</v>
+        <v>0</v>
       </c>
       <c r="D343" s="123">
-        <v>49.9702051511991</v>
+        <v>0</v>
       </c>
       <c r="E343" s="123">
-        <v>-1.141321255444498</v>
+        <v>0</v>
       </c>
       <c r="F343" s="123">
-        <v>97.1680197167415</v>
+        <v>0</v>
       </c>
       <c r="G343" s="123">
-        <v>94.3186097797031</v>
+        <v>0</v>
       </c>
       <c r="H343" s="123">
-        <v>-2.8494099370384065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344">
       <c r="B344" s="160" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C344" s="161">
         <v>1279.2649008344602</v>
@@ -48261,7 +48261,7 @@
     </row>
     <row r="348">
       <c r="B348" s="18" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C348" s="24"/>
       <c r="D348" s="24"/>
@@ -48279,33 +48279,33 @@
     <row r="352" s="108" customFormat="1">
       <c r="B352" s="107"/>
       <c r="C352" s="108" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D352" s="108" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E352" s="108" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F352" s="108" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G352" s="108" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H352" s="108" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I352" s="108" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J352" s="108" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="353" s="108" customFormat="1">
       <c r="B353" s="107" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C353" s="108">
         <v>1219</v>
@@ -48322,7 +48322,7 @@
     </row>
     <row r="354" s="108" customFormat="1">
       <c r="B354" s="107" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C354" s="108">
         <v>1174.089408729219</v>
@@ -48363,7 +48363,7 @@
     </row>
     <row r="369">
       <c r="B369" s="18" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C369" s="24"/>
       <c r="D369" s="24"/>
@@ -48371,21 +48371,21 @@
     </row>
     <row r="370" ht="24.75" customHeight="1">
       <c r="B370" s="109" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C370" s="110" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D370" s="110" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E370" s="110" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="371">
       <c r="B371" s="111" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C371" s="112">
         <v>1556</v>
@@ -48399,7 +48399,7 @@
     </row>
     <row r="372">
       <c r="B372" s="111" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C372" s="112">
         <v>1540</v>
@@ -48413,7 +48413,7 @@
     </row>
     <row r="373">
       <c r="B373" s="111" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C373" s="112">
         <v>13</v>
@@ -48427,7 +48427,7 @@
     </row>
     <row r="374">
       <c r="B374" s="111" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C374" s="112">
         <v>3</v>
@@ -48441,7 +48441,7 @@
     </row>
     <row r="375">
       <c r="B375" s="111" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C375" s="112">
         <v>212</v>
@@ -48455,7 +48455,7 @@
     </row>
     <row r="376">
       <c r="B376" s="111" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C376" s="112">
         <v>1344</v>
@@ -48469,7 +48469,7 @@
     </row>
     <row r="377">
       <c r="B377" s="111" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C377" s="112">
         <v>894</v>
@@ -48483,7 +48483,7 @@
     </row>
     <row r="378">
       <c r="B378" s="111" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C378" s="112">
         <v>206</v>
@@ -48497,7 +48497,7 @@
     </row>
     <row r="379">
       <c r="B379" s="111" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C379" s="112">
         <v>1100</v>
@@ -48511,7 +48511,7 @@
     </row>
     <row r="380">
       <c r="B380" s="111" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C380" s="112">
         <v>60</v>
@@ -48525,7 +48525,7 @@
     </row>
     <row r="381">
       <c r="B381" s="111" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C381" s="112">
         <v>0</v>
@@ -48535,7 +48535,7 @@
     </row>
     <row r="382">
       <c r="B382" s="111" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C382" s="112">
         <v>91</v>
@@ -48549,7 +48549,7 @@
     </row>
     <row r="383">
       <c r="B383" s="111" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C383" s="112">
         <v>299</v>
@@ -48563,7 +48563,7 @@
     </row>
     <row r="385">
       <c r="B385" s="18" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C385" s="24"/>
       <c r="D385" s="24"/>
@@ -48571,21 +48571,21 @@
     </row>
     <row r="386" ht="42.75">
       <c r="B386" s="109" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C386" s="110" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D386" s="110" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E386" s="110" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="387">
       <c r="B387" s="111" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C387" s="112">
         <v>6091</v>
@@ -48599,7 +48599,7 @@
     </row>
     <row r="388">
       <c r="B388" s="111" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C388" s="112">
         <v>5985</v>
@@ -48613,7 +48613,7 @@
     </row>
     <row r="389">
       <c r="B389" s="111" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C389" s="112">
         <v>79</v>
@@ -48627,7 +48627,7 @@
     </row>
     <row r="390">
       <c r="B390" s="111" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C390" s="112">
         <v>27</v>
@@ -48641,7 +48641,7 @@
     </row>
     <row r="391">
       <c r="B391" s="111" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C391" s="112">
         <v>908</v>
@@ -48655,7 +48655,7 @@
     </row>
     <row r="392">
       <c r="B392" s="111" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C392" s="112">
         <v>5183</v>
@@ -48669,7 +48669,7 @@
     </row>
     <row r="393">
       <c r="B393" s="111" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C393" s="112">
         <v>3485</v>
@@ -48683,7 +48683,7 @@
     </row>
     <row r="394">
       <c r="B394" s="111" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C394" s="112">
         <v>728</v>
@@ -48697,7 +48697,7 @@
     </row>
     <row r="395">
       <c r="B395" s="111" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C395" s="112">
         <v>4213</v>
@@ -48711,7 +48711,7 @@
     </row>
     <row r="396">
       <c r="B396" s="111" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C396" s="112">
         <v>250</v>
@@ -48725,7 +48725,7 @@
     </row>
     <row r="397">
       <c r="B397" s="111" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C397" s="112">
         <v>0</v>
@@ -48735,7 +48735,7 @@
     </row>
     <row r="398">
       <c r="B398" s="111" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C398" s="112">
         <v>303</v>
@@ -48749,7 +48749,7 @@
     </row>
     <row r="399">
       <c r="B399" s="111" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C399" s="112">
         <v>1145</v>
@@ -48763,7 +48763,7 @@
     </row>
     <row r="401">
       <c r="B401" s="114" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C401" s="114"/>
       <c r="D401" s="114"/>
@@ -48771,21 +48771,21 @@
     </row>
     <row r="402">
       <c r="B402" s="109" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C402" s="110" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D402" s="110" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E402" s="115" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="403">
       <c r="B403" s="116" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C403" s="112">
         <v>19784</v>
@@ -48800,7 +48800,7 @@
     </row>
     <row r="404">
       <c r="B404" s="116" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C404" s="112">
         <v>5218</v>
@@ -48815,7 +48815,7 @@
     </row>
     <row r="405">
       <c r="B405" s="116" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C405" s="112">
         <v>100125</v>
@@ -48830,7 +48830,7 @@
     </row>
     <row r="406">
       <c r="B406" s="116" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C406" s="112">
         <v>1777</v>
@@ -48845,7 +48845,7 @@
     </row>
     <row r="407">
       <c r="B407" s="116" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C407" s="112">
         <v>126904</v>
@@ -48860,7 +48860,7 @@
     </row>
     <row r="408">
       <c r="B408" s="116" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C408" s="112">
         <v>112781</v>
@@ -48875,7 +48875,7 @@
     </row>
     <row r="409">
       <c r="B409" s="116" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C409" s="112">
         <v>0</v>
@@ -48890,7 +48890,7 @@
     </row>
     <row r="410">
       <c r="B410" s="116" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C410" s="112">
         <v>475</v>
@@ -48905,7 +48905,7 @@
     </row>
     <row r="411">
       <c r="B411" s="116" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C411" s="112">
         <v>113256</v>
@@ -48920,7 +48920,7 @@
     </row>
     <row r="412">
       <c r="B412" s="116" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C412" s="112">
         <v>13648</v>
@@ -48935,7 +48935,7 @@
     </row>
     <row r="413">
       <c r="B413" s="116" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C413" s="112">
         <v>5218</v>
